--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows,granularity) post adj.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
@@ -44,19 +44,10 @@
     <t>Correctly.Unscheduled</t>
   </si>
   <si>
-    <t>AR1</t>
-  </si>
-  <si>
     <t>AR1_logistic_kmeans</t>
   </si>
   <si>
     <t>AR1_logistic_lm</t>
-  </si>
-  <si>
-    <t>AR1_state_based_logistic</t>
-  </si>
-  <si>
-    <t>VAR1</t>
   </si>
 </sst>
 </file>
@@ -144,7 +135,9 @@
         <v>10</v>
       </c>
       <c r="B2"/>
-      <c r="C2"/>
+      <c r="C2" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D2" t="n">
         <v>0.78125</v>
       </c>
@@ -164,7 +157,9 @@
         <v>10</v>
       </c>
       <c r="B3"/>
-      <c r="C3"/>
+      <c r="C3" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D3" t="n">
         <v>0.78125</v>
       </c>
@@ -184,7 +179,9 @@
         <v>10</v>
       </c>
       <c r="B4"/>
-      <c r="C4"/>
+      <c r="C4" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D4" t="n">
         <v>0.78125</v>
       </c>
@@ -204,7 +201,9 @@
         <v>10</v>
       </c>
       <c r="B5"/>
-      <c r="C5"/>
+      <c r="C5" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D5" t="n">
         <v>0.78125</v>
       </c>
@@ -224,7 +223,9 @@
         <v>10</v>
       </c>
       <c r="B6"/>
-      <c r="C6"/>
+      <c r="C6" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D6" t="n">
         <v>1.5625</v>
       </c>
@@ -244,7 +245,9 @@
         <v>10</v>
       </c>
       <c r="B7"/>
-      <c r="C7"/>
+      <c r="C7" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D7" t="n">
         <v>1.5625</v>
       </c>
@@ -264,7 +267,9 @@
         <v>10</v>
       </c>
       <c r="B8"/>
-      <c r="C8"/>
+      <c r="C8" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D8" t="n">
         <v>1.5625</v>
       </c>
@@ -284,7 +289,9 @@
         <v>10</v>
       </c>
       <c r="B9"/>
-      <c r="C9"/>
+      <c r="C9" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D9" t="n">
         <v>1.5625</v>
       </c>
@@ -304,7 +311,9 @@
         <v>10</v>
       </c>
       <c r="B10"/>
-      <c r="C10"/>
+      <c r="C10" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D10" t="n">
         <v>3.125</v>
       </c>
@@ -324,7 +333,9 @@
         <v>10</v>
       </c>
       <c r="B11"/>
-      <c r="C11"/>
+      <c r="C11" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D11" t="n">
         <v>3.125</v>
       </c>
@@ -344,7 +355,9 @@
         <v>10</v>
       </c>
       <c r="B12"/>
-      <c r="C12"/>
+      <c r="C12" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D12" t="n">
         <v>3.125</v>
       </c>
@@ -364,7 +377,9 @@
         <v>10</v>
       </c>
       <c r="B13"/>
-      <c r="C13"/>
+      <c r="C13" t="n">
+        <v>0.005</v>
+      </c>
       <c r="D13" t="n">
         <v>3.125</v>
       </c>
@@ -381,11 +396,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14"/>
       <c r="C14" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D14" t="n">
         <v>0.78125</v>
@@ -403,11 +418,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D15" t="n">
         <v>0.78125</v>
@@ -425,11 +440,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16"/>
       <c r="C16" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="n">
         <v>0.78125</v>
@@ -447,11 +462,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D17" t="n">
         <v>0.78125</v>
@@ -469,11 +484,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D18" t="n">
         <v>1.5625</v>
@@ -491,11 +506,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D19" t="n">
         <v>1.5625</v>
@@ -513,11 +528,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D20" t="n">
         <v>1.5625</v>
@@ -535,11 +550,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D21" t="n">
         <v>1.5625</v>
@@ -557,11 +572,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D22" t="n">
         <v>3.125</v>
@@ -579,11 +594,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23"/>
       <c r="C23" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D23" t="n">
         <v>3.125</v>
@@ -601,11 +616,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24"/>
       <c r="C24" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D24" t="n">
         <v>3.125</v>
@@ -623,11 +638,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25"/>
       <c r="C25" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D25" t="n">
         <v>3.125</v>
@@ -645,11 +660,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26"/>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D26" t="n">
         <v>0.78125</v>
@@ -667,11 +682,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27"/>
       <c r="C27" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D27" t="n">
         <v>0.78125</v>
@@ -689,11 +704,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28"/>
       <c r="C28" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D28" t="n">
         <v>0.78125</v>
@@ -711,11 +726,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29"/>
       <c r="C29" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D29" t="n">
         <v>0.78125</v>
@@ -733,11 +748,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30"/>
       <c r="C30" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D30" t="n">
         <v>1.5625</v>
@@ -755,11 +770,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31"/>
       <c r="C31" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D31" t="n">
         <v>1.5625</v>
@@ -777,11 +792,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32"/>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D32" t="n">
         <v>1.5625</v>
@@ -799,11 +814,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33"/>
       <c r="C33" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D33" t="n">
         <v>1.5625</v>
@@ -821,11 +836,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34"/>
       <c r="C34" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D34" t="n">
         <v>3.125</v>
@@ -843,11 +858,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35"/>
       <c r="C35" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D35" t="n">
         <v>3.125</v>
@@ -865,11 +880,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36"/>
       <c r="C36" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D36" t="n">
         <v>3.125</v>
@@ -887,11 +902,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37"/>
       <c r="C37" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D37" t="n">
         <v>3.125</v>
@@ -909,11 +924,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D38" t="n">
         <v>0.78125</v>
@@ -931,11 +946,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D39" t="n">
         <v>0.78125</v>
@@ -953,11 +968,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D40" t="n">
         <v>0.78125</v>
@@ -975,11 +990,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D41" t="n">
         <v>0.78125</v>
@@ -997,11 +1012,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D42" t="n">
         <v>1.5625</v>
@@ -1019,11 +1034,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D43" t="n">
         <v>1.5625</v>
@@ -1041,11 +1056,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D44" t="n">
         <v>1.5625</v>
@@ -1063,11 +1078,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D45" t="n">
         <v>1.5625</v>
@@ -1085,11 +1100,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D46" t="n">
         <v>3.125</v>
@@ -1107,11 +1122,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47"/>
       <c r="C47" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D47" t="n">
         <v>3.125</v>
@@ -1129,11 +1144,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48"/>
       <c r="C48" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D48" t="n">
         <v>3.125</v>
@@ -1151,11 +1166,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49"/>
       <c r="C49" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D49" t="n">
         <v>3.125</v>
@@ -1173,11 +1188,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50"/>
       <c r="C50" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D50" t="n">
         <v>0.78125</v>
@@ -1195,11 +1210,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51"/>
       <c r="C51" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D51" t="n">
         <v>0.78125</v>
@@ -1217,11 +1232,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D52" t="n">
         <v>0.78125</v>
@@ -1239,11 +1254,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53"/>
       <c r="C53" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D53" t="n">
         <v>0.78125</v>
@@ -1261,11 +1276,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54"/>
       <c r="C54" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D54" t="n">
         <v>1.5625</v>
@@ -1283,11 +1298,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55"/>
       <c r="C55" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D55" t="n">
         <v>1.5625</v>
@@ -1305,11 +1320,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56"/>
       <c r="C56" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D56" t="n">
         <v>1.5625</v>
@@ -1327,11 +1342,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57"/>
       <c r="C57" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D57" t="n">
         <v>1.5625</v>
@@ -1349,11 +1364,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58"/>
       <c r="C58" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D58" t="n">
         <v>3.125</v>
@@ -1371,11 +1386,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59"/>
       <c r="C59" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D59" t="n">
         <v>3.125</v>
@@ -1393,11 +1408,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60"/>
       <c r="C60" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D60" t="n">
         <v>3.125</v>
@@ -1415,11 +1430,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D61" t="n">
         <v>3.125</v>
@@ -1437,11 +1452,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62"/>
       <c r="C62" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D62" t="n">
         <v>0.78125</v>
@@ -1459,11 +1474,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D63" t="n">
         <v>0.78125</v>
@@ -1481,11 +1496,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D64" t="n">
         <v>0.78125</v>
@@ -1503,11 +1518,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65"/>
       <c r="C65" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D65" t="n">
         <v>0.78125</v>
@@ -1525,11 +1540,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66"/>
       <c r="C66" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D66" t="n">
         <v>1.5625</v>
@@ -1547,11 +1562,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D67" t="n">
         <v>1.5625</v>
@@ -1569,11 +1584,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D68" t="n">
         <v>1.5625</v>
@@ -1591,11 +1606,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69"/>
       <c r="C69" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D69" t="n">
         <v>1.5625</v>
@@ -1613,11 +1628,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70"/>
       <c r="C70" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D70" t="n">
         <v>3.125</v>
@@ -1635,11 +1650,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71"/>
       <c r="C71" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D71" t="n">
         <v>3.125</v>
@@ -1657,11 +1672,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72"/>
       <c r="C72" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D72" t="n">
         <v>3.125</v>
@@ -1679,11 +1694,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73"/>
       <c r="C73" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D73" t="n">
         <v>3.125</v>
@@ -1701,11 +1716,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B74"/>
       <c r="C74" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D74" t="n">
         <v>0.78125</v>
@@ -1723,11 +1738,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75"/>
       <c r="C75" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D75" t="n">
         <v>0.78125</v>
@@ -1745,11 +1760,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D76" t="n">
         <v>0.78125</v>
@@ -1767,11 +1782,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77"/>
       <c r="C77" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D77" t="n">
         <v>0.78125</v>
@@ -1789,11 +1804,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B78"/>
       <c r="C78" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D78" t="n">
         <v>1.5625</v>
@@ -1811,11 +1826,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B79"/>
       <c r="C79" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D79" t="n">
         <v>1.5625</v>
@@ -1833,11 +1848,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D80" t="n">
         <v>1.5625</v>
@@ -1855,11 +1870,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81"/>
       <c r="C81" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D81" t="n">
         <v>1.5625</v>
@@ -1877,11 +1892,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82"/>
       <c r="C82" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D82" t="n">
         <v>3.125</v>
@@ -1899,11 +1914,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83"/>
       <c r="C83" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D83" t="n">
         <v>3.125</v>
@@ -1921,11 +1936,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84"/>
       <c r="C84" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D84" t="n">
         <v>3.125</v>
@@ -1943,11 +1958,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B85"/>
       <c r="C85" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D85" t="n">
         <v>3.125</v>
@@ -1965,11 +1980,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86"/>
       <c r="C86" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D86" t="n">
         <v>0.78125</v>
@@ -1987,11 +2002,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B87"/>
       <c r="C87" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D87" t="n">
         <v>0.78125</v>
@@ -2009,11 +2024,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B88"/>
       <c r="C88" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D88" t="n">
         <v>0.78125</v>
@@ -2031,11 +2046,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89"/>
       <c r="C89" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D89" t="n">
         <v>0.78125</v>
@@ -2053,11 +2068,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90"/>
       <c r="C90" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D90" t="n">
         <v>1.5625</v>
@@ -2075,11 +2090,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91"/>
       <c r="C91" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D91" t="n">
         <v>1.5625</v>
@@ -2097,11 +2112,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B92"/>
       <c r="C92" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D92" t="n">
         <v>1.5625</v>
@@ -2119,11 +2134,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93"/>
       <c r="C93" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D93" t="n">
         <v>1.5625</v>
@@ -2141,11 +2156,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B94"/>
       <c r="C94" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D94" t="n">
         <v>3.125</v>
@@ -2163,11 +2178,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B95"/>
       <c r="C95" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D95" t="n">
         <v>3.125</v>
@@ -2185,11 +2200,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96"/>
       <c r="C96" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D96" t="n">
         <v>3.125</v>
@@ -2207,11 +2222,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B97"/>
       <c r="C97" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D97" t="n">
         <v>3.125</v>
@@ -2233,7 +2248,7 @@
       </c>
       <c r="B98"/>
       <c r="C98" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D98" t="n">
         <v>0.78125</v>
@@ -2255,7 +2270,7 @@
       </c>
       <c r="B99"/>
       <c r="C99" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D99" t="n">
         <v>0.78125</v>
@@ -2277,7 +2292,7 @@
       </c>
       <c r="B100"/>
       <c r="C100" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D100" t="n">
         <v>0.78125</v>
@@ -2299,7 +2314,7 @@
       </c>
       <c r="B101"/>
       <c r="C101" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D101" t="n">
         <v>0.78125</v>
@@ -2321,7 +2336,7 @@
       </c>
       <c r="B102"/>
       <c r="C102" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D102" t="n">
         <v>1.5625</v>
@@ -2343,7 +2358,7 @@
       </c>
       <c r="B103"/>
       <c r="C103" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D103" t="n">
         <v>1.5625</v>
@@ -2365,7 +2380,7 @@
       </c>
       <c r="B104"/>
       <c r="C104" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D104" t="n">
         <v>1.5625</v>
@@ -2387,7 +2402,7 @@
       </c>
       <c r="B105"/>
       <c r="C105" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D105" t="n">
         <v>1.5625</v>
@@ -2409,7 +2424,7 @@
       </c>
       <c r="B106"/>
       <c r="C106" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D106" t="n">
         <v>3.125</v>
@@ -2431,7 +2446,7 @@
       </c>
       <c r="B107"/>
       <c r="C107" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D107" t="n">
         <v>3.125</v>
@@ -2453,7 +2468,7 @@
       </c>
       <c r="B108"/>
       <c r="C108" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D108" t="n">
         <v>3.125</v>
@@ -2475,7 +2490,7 @@
       </c>
       <c r="B109"/>
       <c r="C109" t="n">
-        <v>0.2</v>
+        <v>0.005</v>
       </c>
       <c r="D109" t="n">
         <v>3.125</v>
@@ -2493,11 +2508,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110"/>
       <c r="C110" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D110" t="n">
         <v>0.78125</v>
@@ -2515,11 +2530,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B111"/>
       <c r="C111" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D111" t="n">
         <v>0.78125</v>
@@ -2537,11 +2552,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B112"/>
       <c r="C112" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D112" t="n">
         <v>0.78125</v>
@@ -2559,11 +2574,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B113"/>
       <c r="C113" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D113" t="n">
         <v>0.78125</v>
@@ -2581,11 +2596,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B114"/>
       <c r="C114" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D114" t="n">
         <v>1.5625</v>
@@ -2603,11 +2618,11 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B115"/>
       <c r="C115" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D115" t="n">
         <v>1.5625</v>
@@ -2625,11 +2640,11 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B116"/>
       <c r="C116" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D116" t="n">
         <v>1.5625</v>
@@ -2647,11 +2662,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B117"/>
       <c r="C117" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D117" t="n">
         <v>1.5625</v>
@@ -2669,11 +2684,11 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B118"/>
       <c r="C118" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D118" t="n">
         <v>3.125</v>
@@ -2691,11 +2706,11 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B119"/>
       <c r="C119" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D119" t="n">
         <v>3.125</v>
@@ -2713,11 +2728,11 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B120"/>
       <c r="C120" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D120" t="n">
         <v>3.125</v>
@@ -2735,11 +2750,11 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B121"/>
       <c r="C121" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="D121" t="n">
         <v>3.125</v>
@@ -2757,11 +2772,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B122"/>
       <c r="C122" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D122" t="n">
         <v>0.78125</v>
@@ -2779,11 +2794,11 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B123"/>
       <c r="C123" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D123" t="n">
         <v>0.78125</v>
@@ -2801,11 +2816,11 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B124"/>
       <c r="C124" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D124" t="n">
         <v>0.78125</v>
@@ -2823,11 +2838,11 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B125"/>
       <c r="C125" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D125" t="n">
         <v>0.78125</v>
@@ -2845,11 +2860,11 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B126"/>
       <c r="C126" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D126" t="n">
         <v>1.5625</v>
@@ -2867,11 +2882,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B127"/>
       <c r="C127" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D127" t="n">
         <v>1.5625</v>
@@ -2889,11 +2904,11 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B128"/>
       <c r="C128" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D128" t="n">
         <v>1.5625</v>
@@ -2911,11 +2926,11 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B129"/>
       <c r="C129" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D129" t="n">
         <v>1.5625</v>
@@ -2933,11 +2948,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B130"/>
       <c r="C130" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D130" t="n">
         <v>3.125</v>
@@ -2955,11 +2970,11 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B131"/>
       <c r="C131" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D131" t="n">
         <v>3.125</v>
@@ -2977,11 +2992,11 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B132"/>
       <c r="C132" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D132" t="n">
         <v>3.125</v>
@@ -2999,11 +3014,11 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B133"/>
       <c r="C133" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D133" t="n">
         <v>3.125</v>
@@ -3021,11 +3036,11 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B134"/>
       <c r="C134" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D134" t="n">
         <v>0.78125</v>
@@ -3043,11 +3058,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B135"/>
       <c r="C135" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D135" t="n">
         <v>0.78125</v>
@@ -3065,11 +3080,11 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B136"/>
       <c r="C136" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D136" t="n">
         <v>0.78125</v>
@@ -3087,11 +3102,11 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B137"/>
       <c r="C137" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D137" t="n">
         <v>0.78125</v>
@@ -3109,11 +3124,11 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B138"/>
       <c r="C138" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D138" t="n">
         <v>1.5625</v>
@@ -3131,11 +3146,11 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B139"/>
       <c r="C139" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D139" t="n">
         <v>1.5625</v>
@@ -3153,11 +3168,11 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B140"/>
       <c r="C140" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D140" t="n">
         <v>1.5625</v>
@@ -3175,11 +3190,11 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B141"/>
       <c r="C141" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D141" t="n">
         <v>1.5625</v>
@@ -3197,11 +3212,11 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B142"/>
       <c r="C142" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D142" t="n">
         <v>3.125</v>
@@ -3219,11 +3234,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B143"/>
       <c r="C143" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D143" t="n">
         <v>3.125</v>
@@ -3241,11 +3256,11 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B144"/>
       <c r="C144" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D144" t="n">
         <v>3.125</v>
@@ -3263,11 +3278,11 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B145"/>
       <c r="C145" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="D145" t="n">
         <v>3.125</v>
@@ -3285,11 +3300,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B146"/>
       <c r="C146" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D146" t="n">
         <v>0.78125</v>
@@ -3307,11 +3322,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B147"/>
       <c r="C147" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D147" t="n">
         <v>0.78125</v>
@@ -3329,11 +3344,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B148"/>
       <c r="C148" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D148" t="n">
         <v>0.78125</v>
@@ -3351,11 +3366,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B149"/>
       <c r="C149" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D149" t="n">
         <v>0.78125</v>
@@ -3373,11 +3388,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B150"/>
       <c r="C150" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D150" t="n">
         <v>1.5625</v>
@@ -3395,11 +3410,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B151"/>
       <c r="C151" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D151" t="n">
         <v>1.5625</v>
@@ -3417,11 +3432,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B152"/>
       <c r="C152" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D152" t="n">
         <v>1.5625</v>
@@ -3439,11 +3454,11 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B153"/>
       <c r="C153" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D153" t="n">
         <v>1.5625</v>
@@ -3461,11 +3476,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B154"/>
       <c r="C154" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D154" t="n">
         <v>3.125</v>
@@ -3483,11 +3498,11 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B155"/>
       <c r="C155" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D155" t="n">
         <v>3.125</v>
@@ -3505,11 +3520,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B156"/>
       <c r="C156" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D156" t="n">
         <v>3.125</v>
@@ -3527,11 +3542,11 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B157"/>
       <c r="C157" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="D157" t="n">
         <v>3.125</v>
@@ -3549,11 +3564,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B158"/>
       <c r="C158" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D158" t="n">
         <v>0.78125</v>
@@ -3571,11 +3586,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B159"/>
       <c r="C159" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D159" t="n">
         <v>0.78125</v>
@@ -3593,11 +3608,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B160"/>
       <c r="C160" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D160" t="n">
         <v>0.78125</v>
@@ -3615,11 +3630,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B161"/>
       <c r="C161" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D161" t="n">
         <v>0.78125</v>
@@ -3637,11 +3652,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B162"/>
       <c r="C162" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D162" t="n">
         <v>1.5625</v>
@@ -3659,11 +3674,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B163"/>
       <c r="C163" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D163" t="n">
         <v>1.5625</v>
@@ -3681,11 +3696,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B164"/>
       <c r="C164" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D164" t="n">
         <v>1.5625</v>
@@ -3703,11 +3718,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B165"/>
       <c r="C165" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D165" t="n">
         <v>1.5625</v>
@@ -3725,11 +3740,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B166"/>
       <c r="C166" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D166" t="n">
         <v>3.125</v>
@@ -3747,11 +3762,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B167"/>
       <c r="C167" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D167" t="n">
         <v>3.125</v>
@@ -3769,11 +3784,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B168"/>
       <c r="C168" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D168" t="n">
         <v>3.125</v>
@@ -3791,11 +3806,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B169"/>
       <c r="C169" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="D169" t="n">
         <v>3.125</v>
@@ -3813,11 +3828,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B170"/>
       <c r="C170" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D170" t="n">
         <v>0.78125</v>
@@ -3835,11 +3850,11 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B171"/>
       <c r="C171" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D171" t="n">
         <v>0.78125</v>
@@ -3857,11 +3872,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B172"/>
       <c r="C172" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D172" t="n">
         <v>0.78125</v>
@@ -3879,11 +3894,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B173"/>
       <c r="C173" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D173" t="n">
         <v>0.78125</v>
@@ -3901,11 +3916,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B174"/>
       <c r="C174" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D174" t="n">
         <v>1.5625</v>
@@ -3923,11 +3938,11 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B175"/>
       <c r="C175" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D175" t="n">
         <v>1.5625</v>
@@ -3945,11 +3960,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B176"/>
       <c r="C176" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D176" t="n">
         <v>1.5625</v>
@@ -3967,11 +3982,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B177"/>
       <c r="C177" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D177" t="n">
         <v>1.5625</v>
@@ -3989,11 +4004,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B178"/>
       <c r="C178" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D178" t="n">
         <v>3.125</v>
@@ -4011,11 +4026,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B179"/>
       <c r="C179" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D179" t="n">
         <v>3.125</v>
@@ -4033,11 +4048,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B180"/>
       <c r="C180" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D180" t="n">
         <v>3.125</v>
@@ -4055,11 +4070,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B181"/>
       <c r="C181" t="n">
-        <v>0.15</v>
+        <v>0.175</v>
       </c>
       <c r="D181" t="n">
         <v>3.125</v>
@@ -4077,11 +4092,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B182"/>
       <c r="C182" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D182" t="n">
         <v>0.78125</v>
@@ -4099,11 +4114,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B183"/>
       <c r="C183" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D183" t="n">
         <v>0.78125</v>
@@ -4121,11 +4136,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B184"/>
       <c r="C184" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D184" t="n">
         <v>0.78125</v>
@@ -4143,11 +4158,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B185"/>
       <c r="C185" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D185" t="n">
         <v>0.78125</v>
@@ -4165,11 +4180,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B186"/>
       <c r="C186" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D186" t="n">
         <v>1.5625</v>
@@ -4187,11 +4202,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B187"/>
       <c r="C187" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D187" t="n">
         <v>1.5625</v>
@@ -4209,11 +4224,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B188"/>
       <c r="C188" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D188" t="n">
         <v>1.5625</v>
@@ -4231,11 +4246,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B189"/>
       <c r="C189" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D189" t="n">
         <v>1.5625</v>
@@ -4253,11 +4268,11 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B190"/>
       <c r="C190" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D190" t="n">
         <v>3.125</v>
@@ -4275,11 +4290,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B191"/>
       <c r="C191" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D191" t="n">
         <v>3.125</v>
@@ -4297,11 +4312,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B192"/>
       <c r="C192" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D192" t="n">
         <v>3.125</v>
@@ -4319,11 +4334,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B193"/>
       <c r="C193" t="n">
-        <v>0.175</v>
+        <v>0.2</v>
       </c>
       <c r="D193" t="n">
         <v>3.125</v>
@@ -4339,1566 +4354,6 @@
       <c r="I193"/>
       <c r="J193"/>
     </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>12</v>
-      </c>
-      <c r="B194"/>
-      <c r="C194" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E194" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G194"/>
-      <c r="H194"/>
-      <c r="I194"/>
-      <c r="J194"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>12</v>
-      </c>
-      <c r="B195"/>
-      <c r="C195" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E195" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F195" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G195"/>
-      <c r="H195"/>
-      <c r="I195"/>
-      <c r="J195"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>12</v>
-      </c>
-      <c r="B196"/>
-      <c r="C196" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E196" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F196" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G196"/>
-      <c r="H196"/>
-      <c r="I196"/>
-      <c r="J196"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>12</v>
-      </c>
-      <c r="B197"/>
-      <c r="C197" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E197" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F197" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G197"/>
-      <c r="H197"/>
-      <c r="I197"/>
-      <c r="J197"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>12</v>
-      </c>
-      <c r="B198"/>
-      <c r="C198" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D198" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E198" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F198" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G198"/>
-      <c r="H198"/>
-      <c r="I198"/>
-      <c r="J198"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>12</v>
-      </c>
-      <c r="B199"/>
-      <c r="C199" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D199" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E199" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F199" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G199"/>
-      <c r="H199"/>
-      <c r="I199"/>
-      <c r="J199"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>12</v>
-      </c>
-      <c r="B200"/>
-      <c r="C200" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D200" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E200" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F200" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G200"/>
-      <c r="H200"/>
-      <c r="I200"/>
-      <c r="J200"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>12</v>
-      </c>
-      <c r="B201"/>
-      <c r="C201" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D201" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E201" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F201" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G201"/>
-      <c r="H201"/>
-      <c r="I201"/>
-      <c r="J201"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>12</v>
-      </c>
-      <c r="B202"/>
-      <c r="C202" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D202" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E202" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F202" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>12</v>
-      </c>
-      <c r="B203"/>
-      <c r="C203" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D203" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E203" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F203" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G203"/>
-      <c r="H203"/>
-      <c r="I203"/>
-      <c r="J203"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>12</v>
-      </c>
-      <c r="B204"/>
-      <c r="C204" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D204" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E204" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F204" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G204"/>
-      <c r="H204"/>
-      <c r="I204"/>
-      <c r="J204"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>12</v>
-      </c>
-      <c r="B205"/>
-      <c r="C205" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D205" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E205" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F205" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G205"/>
-      <c r="H205"/>
-      <c r="I205"/>
-      <c r="J205"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>13</v>
-      </c>
-      <c r="B206" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C206"/>
-      <c r="D206" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E206" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F206" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G206"/>
-      <c r="H206"/>
-      <c r="I206"/>
-      <c r="J206"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>13</v>
-      </c>
-      <c r="B207" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C207"/>
-      <c r="D207" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E207" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G207"/>
-      <c r="H207"/>
-      <c r="I207"/>
-      <c r="J207"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>13</v>
-      </c>
-      <c r="B208" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C208"/>
-      <c r="D208" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E208" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F208" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G208"/>
-      <c r="H208"/>
-      <c r="I208"/>
-      <c r="J208"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>13</v>
-      </c>
-      <c r="B209" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C209"/>
-      <c r="D209" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E209" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F209" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G209"/>
-      <c r="H209"/>
-      <c r="I209"/>
-      <c r="J209"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>13</v>
-      </c>
-      <c r="B210" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C210"/>
-      <c r="D210" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E210" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F210" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G210"/>
-      <c r="H210"/>
-      <c r="I210"/>
-      <c r="J210"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>13</v>
-      </c>
-      <c r="B211" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C211"/>
-      <c r="D211" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E211" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F211" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G211"/>
-      <c r="H211"/>
-      <c r="I211"/>
-      <c r="J211"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>13</v>
-      </c>
-      <c r="B212" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C212"/>
-      <c r="D212" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E212" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F212" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G212"/>
-      <c r="H212"/>
-      <c r="I212"/>
-      <c r="J212"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>13</v>
-      </c>
-      <c r="B213" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C213"/>
-      <c r="D213" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E213" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F213" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G213"/>
-      <c r="H213"/>
-      <c r="I213"/>
-      <c r="J213"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>13</v>
-      </c>
-      <c r="B214" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C214"/>
-      <c r="D214" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E214" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F214" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G214"/>
-      <c r="H214"/>
-      <c r="I214"/>
-      <c r="J214"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>13</v>
-      </c>
-      <c r="B215" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C215"/>
-      <c r="D215" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E215" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F215" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G215"/>
-      <c r="H215"/>
-      <c r="I215"/>
-      <c r="J215"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>13</v>
-      </c>
-      <c r="B216" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C216"/>
-      <c r="D216" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E216" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F216" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G216"/>
-      <c r="H216"/>
-      <c r="I216"/>
-      <c r="J216"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>13</v>
-      </c>
-      <c r="B217" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C217"/>
-      <c r="D217" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E217" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F217" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G217"/>
-      <c r="H217"/>
-      <c r="I217"/>
-      <c r="J217"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>13</v>
-      </c>
-      <c r="B218" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C218"/>
-      <c r="D218" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E218" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F218" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G218"/>
-      <c r="H218"/>
-      <c r="I218"/>
-      <c r="J218"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>13</v>
-      </c>
-      <c r="B219" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C219"/>
-      <c r="D219" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E219" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F219" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G219"/>
-      <c r="H219"/>
-      <c r="I219"/>
-      <c r="J219"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>13</v>
-      </c>
-      <c r="B220" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C220"/>
-      <c r="D220" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E220" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F220" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G220"/>
-      <c r="H220"/>
-      <c r="I220"/>
-      <c r="J220"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>13</v>
-      </c>
-      <c r="B221" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C221"/>
-      <c r="D221" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E221" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F221" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G221"/>
-      <c r="H221"/>
-      <c r="I221"/>
-      <c r="J221"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>13</v>
-      </c>
-      <c r="B222" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C222"/>
-      <c r="D222" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E222" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F222" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G222"/>
-      <c r="H222"/>
-      <c r="I222"/>
-      <c r="J222"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>13</v>
-      </c>
-      <c r="B223" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C223"/>
-      <c r="D223" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E223" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F223" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G223"/>
-      <c r="H223"/>
-      <c r="I223"/>
-      <c r="J223"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>13</v>
-      </c>
-      <c r="B224" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C224"/>
-      <c r="D224" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E224" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F224" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G224"/>
-      <c r="H224"/>
-      <c r="I224"/>
-      <c r="J224"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>13</v>
-      </c>
-      <c r="B225" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C225"/>
-      <c r="D225" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E225" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F225" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G225"/>
-      <c r="H225"/>
-      <c r="I225"/>
-      <c r="J225"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>13</v>
-      </c>
-      <c r="B226" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C226"/>
-      <c r="D226" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E226" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F226" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G226"/>
-      <c r="H226"/>
-      <c r="I226"/>
-      <c r="J226"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>13</v>
-      </c>
-      <c r="B227" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C227"/>
-      <c r="D227" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E227" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F227" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G227"/>
-      <c r="H227"/>
-      <c r="I227"/>
-      <c r="J227"/>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>13</v>
-      </c>
-      <c r="B228" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C228"/>
-      <c r="D228" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E228" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F228" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G228"/>
-      <c r="H228"/>
-      <c r="I228"/>
-      <c r="J228"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>13</v>
-      </c>
-      <c r="B229" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C229"/>
-      <c r="D229" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E229" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F229" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G229"/>
-      <c r="H229"/>
-      <c r="I229"/>
-      <c r="J229"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>13</v>
-      </c>
-      <c r="B230" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C230"/>
-      <c r="D230" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E230" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F230" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G230"/>
-      <c r="H230"/>
-      <c r="I230"/>
-      <c r="J230"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>13</v>
-      </c>
-      <c r="B231" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C231"/>
-      <c r="D231" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E231" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F231" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G231"/>
-      <c r="H231"/>
-      <c r="I231"/>
-      <c r="J231"/>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>13</v>
-      </c>
-      <c r="B232" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C232"/>
-      <c r="D232" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E232" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F232" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G232"/>
-      <c r="H232"/>
-      <c r="I232"/>
-      <c r="J232"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>13</v>
-      </c>
-      <c r="B233" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C233"/>
-      <c r="D233" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E233" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F233" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G233"/>
-      <c r="H233"/>
-      <c r="I233"/>
-      <c r="J233"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>13</v>
-      </c>
-      <c r="B234" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C234"/>
-      <c r="D234" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E234" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F234" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G234"/>
-      <c r="H234"/>
-      <c r="I234"/>
-      <c r="J234"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>13</v>
-      </c>
-      <c r="B235" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C235"/>
-      <c r="D235" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E235" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F235" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G235"/>
-      <c r="H235"/>
-      <c r="I235"/>
-      <c r="J235"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>13</v>
-      </c>
-      <c r="B236" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C236"/>
-      <c r="D236" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E236" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F236" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G236"/>
-      <c r="H236"/>
-      <c r="I236"/>
-      <c r="J236"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>13</v>
-      </c>
-      <c r="B237" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C237"/>
-      <c r="D237" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E237" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F237" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G237"/>
-      <c r="H237"/>
-      <c r="I237"/>
-      <c r="J237"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>13</v>
-      </c>
-      <c r="B238" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C238"/>
-      <c r="D238" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E238" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F238" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G238"/>
-      <c r="H238"/>
-      <c r="I238"/>
-      <c r="J238"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>13</v>
-      </c>
-      <c r="B239" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C239"/>
-      <c r="D239" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E239" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F239" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G239"/>
-      <c r="H239"/>
-      <c r="I239"/>
-      <c r="J239"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>13</v>
-      </c>
-      <c r="B240" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C240"/>
-      <c r="D240" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E240" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F240" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G240"/>
-      <c r="H240"/>
-      <c r="I240"/>
-      <c r="J240"/>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>13</v>
-      </c>
-      <c r="B241" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C241"/>
-      <c r="D241" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E241" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F241" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G241"/>
-      <c r="H241"/>
-      <c r="I241"/>
-      <c r="J241"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>13</v>
-      </c>
-      <c r="B242" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C242"/>
-      <c r="D242" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E242" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F242" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G242"/>
-      <c r="H242"/>
-      <c r="I242"/>
-      <c r="J242"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="s">
-        <v>13</v>
-      </c>
-      <c r="B243" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C243"/>
-      <c r="D243" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E243" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F243" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G243"/>
-      <c r="H243"/>
-      <c r="I243"/>
-      <c r="J243"/>
-    </row>
-    <row r="244">
-      <c r="A244" t="s">
-        <v>13</v>
-      </c>
-      <c r="B244" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C244"/>
-      <c r="D244" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E244" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F244" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G244"/>
-      <c r="H244"/>
-      <c r="I244"/>
-      <c r="J244"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="s">
-        <v>13</v>
-      </c>
-      <c r="B245" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C245"/>
-      <c r="D245" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E245" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F245" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G245"/>
-      <c r="H245"/>
-      <c r="I245"/>
-      <c r="J245"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="s">
-        <v>13</v>
-      </c>
-      <c r="B246" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C246"/>
-      <c r="D246" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E246" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F246" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G246"/>
-      <c r="H246"/>
-      <c r="I246"/>
-      <c r="J246"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="s">
-        <v>13</v>
-      </c>
-      <c r="B247" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C247"/>
-      <c r="D247" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E247" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F247" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G247"/>
-      <c r="H247"/>
-      <c r="I247"/>
-      <c r="J247"/>
-    </row>
-    <row r="248">
-      <c r="A248" t="s">
-        <v>13</v>
-      </c>
-      <c r="B248" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C248"/>
-      <c r="D248" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E248" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F248" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G248"/>
-      <c r="H248"/>
-      <c r="I248"/>
-      <c r="J248"/>
-    </row>
-    <row r="249">
-      <c r="A249" t="s">
-        <v>13</v>
-      </c>
-      <c r="B249" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C249"/>
-      <c r="D249" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E249" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F249" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G249"/>
-      <c r="H249"/>
-      <c r="I249"/>
-      <c r="J249"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="s">
-        <v>13</v>
-      </c>
-      <c r="B250" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C250"/>
-      <c r="D250" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E250" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F250" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G250"/>
-      <c r="H250"/>
-      <c r="I250"/>
-      <c r="J250"/>
-    </row>
-    <row r="251">
-      <c r="A251" t="s">
-        <v>13</v>
-      </c>
-      <c r="B251" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C251"/>
-      <c r="D251" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E251" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F251" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G251"/>
-      <c r="H251"/>
-      <c r="I251"/>
-      <c r="J251"/>
-    </row>
-    <row r="252">
-      <c r="A252" t="s">
-        <v>13</v>
-      </c>
-      <c r="B252" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C252"/>
-      <c r="D252" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E252" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F252" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G252"/>
-      <c r="H252"/>
-      <c r="I252"/>
-      <c r="J252"/>
-    </row>
-    <row r="253">
-      <c r="A253" t="s">
-        <v>13</v>
-      </c>
-      <c r="B253" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C253"/>
-      <c r="D253" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E253" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F253" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G253"/>
-      <c r="H253"/>
-      <c r="I253"/>
-      <c r="J253"/>
-    </row>
-    <row r="254">
-      <c r="A254" t="s">
-        <v>14</v>
-      </c>
-      <c r="B254"/>
-      <c r="C254"/>
-      <c r="D254" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E254" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F254" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G254"/>
-      <c r="H254"/>
-      <c r="I254"/>
-      <c r="J254"/>
-    </row>
-    <row r="255">
-      <c r="A255" t="s">
-        <v>14</v>
-      </c>
-      <c r="B255"/>
-      <c r="C255"/>
-      <c r="D255" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E255" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F255" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G255"/>
-      <c r="H255"/>
-      <c r="I255"/>
-      <c r="J255"/>
-    </row>
-    <row r="256">
-      <c r="A256" t="s">
-        <v>14</v>
-      </c>
-      <c r="B256"/>
-      <c r="C256"/>
-      <c r="D256" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E256" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F256" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G256"/>
-      <c r="H256"/>
-      <c r="I256"/>
-      <c r="J256"/>
-    </row>
-    <row r="257">
-      <c r="A257" t="s">
-        <v>14</v>
-      </c>
-      <c r="B257"/>
-      <c r="C257"/>
-      <c r="D257" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="E257" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F257" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G257"/>
-      <c r="H257"/>
-      <c r="I257"/>
-      <c r="J257"/>
-    </row>
-    <row r="258">
-      <c r="A258" t="s">
-        <v>14</v>
-      </c>
-      <c r="B258"/>
-      <c r="C258"/>
-      <c r="D258" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E258" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F258" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G258"/>
-      <c r="H258"/>
-      <c r="I258"/>
-      <c r="J258"/>
-    </row>
-    <row r="259">
-      <c r="A259" t="s">
-        <v>14</v>
-      </c>
-      <c r="B259"/>
-      <c r="C259"/>
-      <c r="D259" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E259" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F259" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G259"/>
-      <c r="H259"/>
-      <c r="I259"/>
-      <c r="J259"/>
-    </row>
-    <row r="260">
-      <c r="A260" t="s">
-        <v>14</v>
-      </c>
-      <c r="B260"/>
-      <c r="C260"/>
-      <c r="D260" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E260" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F260" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G260"/>
-      <c r="H260"/>
-      <c r="I260"/>
-      <c r="J260"/>
-    </row>
-    <row r="261">
-      <c r="A261" t="s">
-        <v>14</v>
-      </c>
-      <c r="B261"/>
-      <c r="C261"/>
-      <c r="D261" t="n">
-        <v>1.5625</v>
-      </c>
-      <c r="E261" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F261" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G261"/>
-      <c r="H261"/>
-      <c r="I261"/>
-      <c r="J261"/>
-    </row>
-    <row r="262">
-      <c r="A262" t="s">
-        <v>14</v>
-      </c>
-      <c r="B262"/>
-      <c r="C262"/>
-      <c r="D262" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E262" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F262" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G262"/>
-      <c r="H262"/>
-      <c r="I262"/>
-      <c r="J262"/>
-    </row>
-    <row r="263">
-      <c r="A263" t="s">
-        <v>14</v>
-      </c>
-      <c r="B263"/>
-      <c r="C263"/>
-      <c r="D263" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E263" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="F263" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G263"/>
-      <c r="H263"/>
-      <c r="I263"/>
-      <c r="J263"/>
-    </row>
-    <row r="264">
-      <c r="A264" t="s">
-        <v>14</v>
-      </c>
-      <c r="B264"/>
-      <c r="C264"/>
-      <c r="D264" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E264" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F264" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="G264"/>
-      <c r="H264"/>
-      <c r="I264"/>
-      <c r="J264"/>
-    </row>
-    <row r="265">
-      <c r="A265" t="s">
-        <v>14</v>
-      </c>
-      <c r="B265"/>
-      <c r="C265"/>
-      <c r="D265" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="E265" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F265" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="G265"/>
-      <c r="H265"/>
-      <c r="I265"/>
-      <c r="J265"/>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows,granularity) post adj.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -44,10 +44,19 @@
     <t>Correctly.Unscheduled</t>
   </si>
   <si>
+    <t>AR1</t>
+  </si>
+  <si>
     <t>AR1_logistic_kmeans</t>
   </si>
   <si>
     <t>AR1_logistic_lm</t>
+  </si>
+  <si>
+    <t>AR1_state_based_logistic</t>
+  </si>
+  <si>
+    <t>VAR1</t>
   </si>
 </sst>
 </file>
@@ -1188,11 +1197,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50"/>
       <c r="C50" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D50" t="n">
         <v>0.78125</v>
@@ -1210,11 +1219,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51"/>
       <c r="C51" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D51" t="n">
         <v>0.78125</v>
@@ -1232,11 +1241,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52"/>
       <c r="C52" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D52" t="n">
         <v>0.78125</v>
@@ -1254,11 +1263,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53"/>
       <c r="C53" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D53" t="n">
         <v>0.78125</v>
@@ -1276,11 +1285,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54"/>
       <c r="C54" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D54" t="n">
         <v>1.5625</v>
@@ -1298,11 +1307,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55"/>
       <c r="C55" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D55" t="n">
         <v>1.5625</v>
@@ -1320,11 +1329,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56"/>
       <c r="C56" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D56" t="n">
         <v>1.5625</v>
@@ -1342,11 +1351,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57"/>
       <c r="C57" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D57" t="n">
         <v>1.5625</v>
@@ -1364,11 +1373,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58"/>
       <c r="C58" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D58" t="n">
         <v>3.125</v>
@@ -1386,11 +1395,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59"/>
       <c r="C59" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D59" t="n">
         <v>3.125</v>
@@ -1408,11 +1417,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60"/>
       <c r="C60" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D60" t="n">
         <v>3.125</v>
@@ -1430,11 +1439,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61"/>
       <c r="C61" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D61" t="n">
         <v>3.125</v>
@@ -1452,11 +1461,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B62"/>
       <c r="C62" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D62" t="n">
         <v>0.78125</v>
@@ -1474,11 +1483,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D63" t="n">
         <v>0.78125</v>
@@ -1496,11 +1505,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D64" t="n">
         <v>0.78125</v>
@@ -1518,11 +1527,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65"/>
       <c r="C65" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D65" t="n">
         <v>0.78125</v>
@@ -1540,11 +1549,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66"/>
       <c r="C66" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D66" t="n">
         <v>1.5625</v>
@@ -1562,11 +1571,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D67" t="n">
         <v>1.5625</v>
@@ -1584,11 +1593,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D68" t="n">
         <v>1.5625</v>
@@ -1606,11 +1615,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69"/>
       <c r="C69" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D69" t="n">
         <v>1.5625</v>
@@ -1628,11 +1637,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B70"/>
       <c r="C70" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D70" t="n">
         <v>3.125</v>
@@ -1650,11 +1659,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71"/>
       <c r="C71" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D71" t="n">
         <v>3.125</v>
@@ -1672,11 +1681,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72"/>
       <c r="C72" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D72" t="n">
         <v>3.125</v>
@@ -1694,11 +1703,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B73"/>
       <c r="C73" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D73" t="n">
         <v>3.125</v>
@@ -1716,11 +1725,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B74"/>
       <c r="C74" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D74" t="n">
         <v>0.78125</v>
@@ -1738,11 +1747,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B75"/>
       <c r="C75" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D75" t="n">
         <v>0.78125</v>
@@ -1760,11 +1769,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D76" t="n">
         <v>0.78125</v>
@@ -1782,11 +1791,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B77"/>
       <c r="C77" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D77" t="n">
         <v>0.78125</v>
@@ -1804,11 +1813,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B78"/>
       <c r="C78" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D78" t="n">
         <v>1.5625</v>
@@ -1826,11 +1835,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B79"/>
       <c r="C79" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D79" t="n">
         <v>1.5625</v>
@@ -1848,11 +1857,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D80" t="n">
         <v>1.5625</v>
@@ -1870,11 +1879,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B81"/>
       <c r="C81" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D81" t="n">
         <v>1.5625</v>
@@ -1892,11 +1901,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B82"/>
       <c r="C82" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D82" t="n">
         <v>3.125</v>
@@ -1914,11 +1923,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B83"/>
       <c r="C83" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D83" t="n">
         <v>3.125</v>
@@ -1936,11 +1945,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84"/>
       <c r="C84" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D84" t="n">
         <v>3.125</v>
@@ -1958,11 +1967,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85"/>
       <c r="C85" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D85" t="n">
         <v>3.125</v>
@@ -1980,11 +1989,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B86"/>
       <c r="C86" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D86" t="n">
         <v>0.78125</v>
@@ -2002,11 +2011,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87"/>
       <c r="C87" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D87" t="n">
         <v>0.78125</v>
@@ -2024,11 +2033,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B88"/>
       <c r="C88" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D88" t="n">
         <v>0.78125</v>
@@ -2046,11 +2055,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B89"/>
       <c r="C89" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D89" t="n">
         <v>0.78125</v>
@@ -2068,11 +2077,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B90"/>
       <c r="C90" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D90" t="n">
         <v>1.5625</v>
@@ -2090,11 +2099,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B91"/>
       <c r="C91" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D91" t="n">
         <v>1.5625</v>
@@ -2112,11 +2121,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B92"/>
       <c r="C92" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D92" t="n">
         <v>1.5625</v>
@@ -2134,11 +2143,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B93"/>
       <c r="C93" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D93" t="n">
         <v>1.5625</v>
@@ -2156,11 +2165,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B94"/>
       <c r="C94" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D94" t="n">
         <v>3.125</v>
@@ -2178,11 +2187,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B95"/>
       <c r="C95" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D95" t="n">
         <v>3.125</v>
@@ -2200,11 +2209,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B96"/>
       <c r="C96" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D96" t="n">
         <v>3.125</v>
@@ -2222,11 +2231,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B97"/>
       <c r="C97" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D97" t="n">
         <v>3.125</v>
@@ -2248,7 +2257,7 @@
       </c>
       <c r="B98"/>
       <c r="C98" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D98" t="n">
         <v>0.78125</v>
@@ -2270,7 +2279,7 @@
       </c>
       <c r="B99"/>
       <c r="C99" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D99" t="n">
         <v>0.78125</v>
@@ -2292,7 +2301,7 @@
       </c>
       <c r="B100"/>
       <c r="C100" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D100" t="n">
         <v>0.78125</v>
@@ -2314,7 +2323,7 @@
       </c>
       <c r="B101"/>
       <c r="C101" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D101" t="n">
         <v>0.78125</v>
@@ -2336,7 +2345,7 @@
       </c>
       <c r="B102"/>
       <c r="C102" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D102" t="n">
         <v>1.5625</v>
@@ -2358,7 +2367,7 @@
       </c>
       <c r="B103"/>
       <c r="C103" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D103" t="n">
         <v>1.5625</v>
@@ -2380,7 +2389,7 @@
       </c>
       <c r="B104"/>
       <c r="C104" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D104" t="n">
         <v>1.5625</v>
@@ -2402,7 +2411,7 @@
       </c>
       <c r="B105"/>
       <c r="C105" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D105" t="n">
         <v>1.5625</v>
@@ -2424,7 +2433,7 @@
       </c>
       <c r="B106"/>
       <c r="C106" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D106" t="n">
         <v>3.125</v>
@@ -2446,7 +2455,7 @@
       </c>
       <c r="B107"/>
       <c r="C107" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D107" t="n">
         <v>3.125</v>
@@ -2468,7 +2477,7 @@
       </c>
       <c r="B108"/>
       <c r="C108" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D108" t="n">
         <v>3.125</v>
@@ -2490,7 +2499,7 @@
       </c>
       <c r="B109"/>
       <c r="C109" t="n">
-        <v>0.005</v>
+        <v>0.125</v>
       </c>
       <c r="D109" t="n">
         <v>3.125</v>
@@ -2512,7 +2521,7 @@
       </c>
       <c r="B110"/>
       <c r="C110" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D110" t="n">
         <v>0.78125</v>
@@ -2534,7 +2543,7 @@
       </c>
       <c r="B111"/>
       <c r="C111" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D111" t="n">
         <v>0.78125</v>
@@ -2556,7 +2565,7 @@
       </c>
       <c r="B112"/>
       <c r="C112" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D112" t="n">
         <v>0.78125</v>
@@ -2578,7 +2587,7 @@
       </c>
       <c r="B113"/>
       <c r="C113" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D113" t="n">
         <v>0.78125</v>
@@ -2600,7 +2609,7 @@
       </c>
       <c r="B114"/>
       <c r="C114" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D114" t="n">
         <v>1.5625</v>
@@ -2622,7 +2631,7 @@
       </c>
       <c r="B115"/>
       <c r="C115" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D115" t="n">
         <v>1.5625</v>
@@ -2644,7 +2653,7 @@
       </c>
       <c r="B116"/>
       <c r="C116" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D116" t="n">
         <v>1.5625</v>
@@ -2666,7 +2675,7 @@
       </c>
       <c r="B117"/>
       <c r="C117" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D117" t="n">
         <v>1.5625</v>
@@ -2688,7 +2697,7 @@
       </c>
       <c r="B118"/>
       <c r="C118" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D118" t="n">
         <v>3.125</v>
@@ -2710,7 +2719,7 @@
       </c>
       <c r="B119"/>
       <c r="C119" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D119" t="n">
         <v>3.125</v>
@@ -2732,7 +2741,7 @@
       </c>
       <c r="B120"/>
       <c r="C120" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D120" t="n">
         <v>3.125</v>
@@ -2754,7 +2763,7 @@
       </c>
       <c r="B121"/>
       <c r="C121" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
       <c r="D121" t="n">
         <v>3.125</v>
@@ -2776,7 +2785,7 @@
       </c>
       <c r="B122"/>
       <c r="C122" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D122" t="n">
         <v>0.78125</v>
@@ -2798,7 +2807,7 @@
       </c>
       <c r="B123"/>
       <c r="C123" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D123" t="n">
         <v>0.78125</v>
@@ -2820,7 +2829,7 @@
       </c>
       <c r="B124"/>
       <c r="C124" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D124" t="n">
         <v>0.78125</v>
@@ -2842,7 +2851,7 @@
       </c>
       <c r="B125"/>
       <c r="C125" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D125" t="n">
         <v>0.78125</v>
@@ -2864,7 +2873,7 @@
       </c>
       <c r="B126"/>
       <c r="C126" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D126" t="n">
         <v>1.5625</v>
@@ -2886,7 +2895,7 @@
       </c>
       <c r="B127"/>
       <c r="C127" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D127" t="n">
         <v>1.5625</v>
@@ -2908,7 +2917,7 @@
       </c>
       <c r="B128"/>
       <c r="C128" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D128" t="n">
         <v>1.5625</v>
@@ -2930,7 +2939,7 @@
       </c>
       <c r="B129"/>
       <c r="C129" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D129" t="n">
         <v>1.5625</v>
@@ -2952,7 +2961,7 @@
       </c>
       <c r="B130"/>
       <c r="C130" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D130" t="n">
         <v>3.125</v>
@@ -2974,7 +2983,7 @@
       </c>
       <c r="B131"/>
       <c r="C131" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D131" t="n">
         <v>3.125</v>
@@ -2996,7 +3005,7 @@
       </c>
       <c r="B132"/>
       <c r="C132" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D132" t="n">
         <v>3.125</v>
@@ -3018,7 +3027,7 @@
       </c>
       <c r="B133"/>
       <c r="C133" t="n">
-        <v>0.02</v>
+        <v>0.175</v>
       </c>
       <c r="D133" t="n">
         <v>3.125</v>
@@ -3040,7 +3049,7 @@
       </c>
       <c r="B134"/>
       <c r="C134" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D134" t="n">
         <v>0.78125</v>
@@ -3062,7 +3071,7 @@
       </c>
       <c r="B135"/>
       <c r="C135" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D135" t="n">
         <v>0.78125</v>
@@ -3084,7 +3093,7 @@
       </c>
       <c r="B136"/>
       <c r="C136" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D136" t="n">
         <v>0.78125</v>
@@ -3106,7 +3115,7 @@
       </c>
       <c r="B137"/>
       <c r="C137" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D137" t="n">
         <v>0.78125</v>
@@ -3128,7 +3137,7 @@
       </c>
       <c r="B138"/>
       <c r="C138" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D138" t="n">
         <v>1.5625</v>
@@ -3150,7 +3159,7 @@
       </c>
       <c r="B139"/>
       <c r="C139" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D139" t="n">
         <v>1.5625</v>
@@ -3172,7 +3181,7 @@
       </c>
       <c r="B140"/>
       <c r="C140" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D140" t="n">
         <v>1.5625</v>
@@ -3194,7 +3203,7 @@
       </c>
       <c r="B141"/>
       <c r="C141" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D141" t="n">
         <v>1.5625</v>
@@ -3216,7 +3225,7 @@
       </c>
       <c r="B142"/>
       <c r="C142" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D142" t="n">
         <v>3.125</v>
@@ -3238,7 +3247,7 @@
       </c>
       <c r="B143"/>
       <c r="C143" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D143" t="n">
         <v>3.125</v>
@@ -3260,7 +3269,7 @@
       </c>
       <c r="B144"/>
       <c r="C144" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D144" t="n">
         <v>3.125</v>
@@ -3282,7 +3291,7 @@
       </c>
       <c r="B145"/>
       <c r="C145" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D145" t="n">
         <v>3.125</v>
@@ -3300,11 +3309,11 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B146"/>
       <c r="C146" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D146" t="n">
         <v>0.78125</v>
@@ -3322,11 +3331,11 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B147"/>
       <c r="C147" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D147" t="n">
         <v>0.78125</v>
@@ -3344,11 +3353,11 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B148"/>
       <c r="C148" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D148" t="n">
         <v>0.78125</v>
@@ -3366,11 +3375,11 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B149"/>
       <c r="C149" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D149" t="n">
         <v>0.78125</v>
@@ -3388,11 +3397,11 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B150"/>
       <c r="C150" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D150" t="n">
         <v>1.5625</v>
@@ -3410,11 +3419,11 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B151"/>
       <c r="C151" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D151" t="n">
         <v>1.5625</v>
@@ -3432,11 +3441,11 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B152"/>
       <c r="C152" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D152" t="n">
         <v>1.5625</v>
@@ -3454,11 +3463,11 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B153"/>
       <c r="C153" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D153" t="n">
         <v>1.5625</v>
@@ -3476,11 +3485,11 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B154"/>
       <c r="C154" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D154" t="n">
         <v>3.125</v>
@@ -3498,11 +3507,11 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B155"/>
       <c r="C155" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D155" t="n">
         <v>3.125</v>
@@ -3520,11 +3529,11 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B156"/>
       <c r="C156" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D156" t="n">
         <v>3.125</v>
@@ -3542,11 +3551,11 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B157"/>
       <c r="C157" t="n">
-        <v>0.125</v>
+        <v>0.005</v>
       </c>
       <c r="D157" t="n">
         <v>3.125</v>
@@ -3564,11 +3573,11 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B158"/>
       <c r="C158" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D158" t="n">
         <v>0.78125</v>
@@ -3586,11 +3595,11 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B159"/>
       <c r="C159" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D159" t="n">
         <v>0.78125</v>
@@ -3608,11 +3617,11 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B160"/>
       <c r="C160" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D160" t="n">
         <v>0.78125</v>
@@ -3630,11 +3639,11 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B161"/>
       <c r="C161" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D161" t="n">
         <v>0.78125</v>
@@ -3652,11 +3661,11 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B162"/>
       <c r="C162" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D162" t="n">
         <v>1.5625</v>
@@ -3674,11 +3683,11 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B163"/>
       <c r="C163" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D163" t="n">
         <v>1.5625</v>
@@ -3696,11 +3705,11 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B164"/>
       <c r="C164" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D164" t="n">
         <v>1.5625</v>
@@ -3718,11 +3727,11 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B165"/>
       <c r="C165" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D165" t="n">
         <v>1.5625</v>
@@ -3740,11 +3749,11 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B166"/>
       <c r="C166" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D166" t="n">
         <v>3.125</v>
@@ -3762,11 +3771,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B167"/>
       <c r="C167" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D167" t="n">
         <v>3.125</v>
@@ -3784,11 +3793,11 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B168"/>
       <c r="C168" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D168" t="n">
         <v>3.125</v>
@@ -3806,11 +3815,11 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B169"/>
       <c r="C169" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="D169" t="n">
         <v>3.125</v>
@@ -3828,11 +3837,11 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B170"/>
       <c r="C170" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D170" t="n">
         <v>0.78125</v>
@@ -3850,11 +3859,11 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B171"/>
       <c r="C171" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D171" t="n">
         <v>0.78125</v>
@@ -3872,11 +3881,11 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B172"/>
       <c r="C172" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D172" t="n">
         <v>0.78125</v>
@@ -3894,11 +3903,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B173"/>
       <c r="C173" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D173" t="n">
         <v>0.78125</v>
@@ -3916,11 +3925,11 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B174"/>
       <c r="C174" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D174" t="n">
         <v>1.5625</v>
@@ -3938,11 +3947,11 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B175"/>
       <c r="C175" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D175" t="n">
         <v>1.5625</v>
@@ -3960,11 +3969,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B176"/>
       <c r="C176" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D176" t="n">
         <v>1.5625</v>
@@ -3982,11 +3991,11 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B177"/>
       <c r="C177" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D177" t="n">
         <v>1.5625</v>
@@ -4004,11 +4013,11 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B178"/>
       <c r="C178" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D178" t="n">
         <v>3.125</v>
@@ -4026,11 +4035,11 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B179"/>
       <c r="C179" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D179" t="n">
         <v>3.125</v>
@@ -4048,11 +4057,11 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B180"/>
       <c r="C180" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D180" t="n">
         <v>3.125</v>
@@ -4070,11 +4079,11 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B181"/>
       <c r="C181" t="n">
-        <v>0.175</v>
+        <v>0.02</v>
       </c>
       <c r="D181" t="n">
         <v>3.125</v>
@@ -4092,11 +4101,11 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B182"/>
       <c r="C182" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D182" t="n">
         <v>0.78125</v>
@@ -4114,11 +4123,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B183"/>
       <c r="C183" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D183" t="n">
         <v>0.78125</v>
@@ -4136,11 +4145,11 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B184"/>
       <c r="C184" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D184" t="n">
         <v>0.78125</v>
@@ -4158,11 +4167,11 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B185"/>
       <c r="C185" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D185" t="n">
         <v>0.78125</v>
@@ -4180,11 +4189,11 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B186"/>
       <c r="C186" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D186" t="n">
         <v>1.5625</v>
@@ -4202,11 +4211,11 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B187"/>
       <c r="C187" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D187" t="n">
         <v>1.5625</v>
@@ -4224,11 +4233,11 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B188"/>
       <c r="C188" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D188" t="n">
         <v>1.5625</v>
@@ -4246,11 +4255,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B189"/>
       <c r="C189" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D189" t="n">
         <v>1.5625</v>
@@ -4268,11 +4277,11 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B190"/>
       <c r="C190" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D190" t="n">
         <v>3.125</v>
@@ -4290,11 +4299,11 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B191"/>
       <c r="C191" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D191" t="n">
         <v>3.125</v>
@@ -4312,11 +4321,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B192"/>
       <c r="C192" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D192" t="n">
         <v>3.125</v>
@@ -4334,11 +4343,11 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B193"/>
       <c r="C193" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D193" t="n">
         <v>3.125</v>
@@ -4354,6 +4363,6726 @@
       <c r="I193"/>
       <c r="J193"/>
     </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B194"/>
+      <c r="C194" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E194" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194"/>
+      <c r="J194"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B195"/>
+      <c r="C195" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E195" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G195"/>
+      <c r="H195"/>
+      <c r="I195"/>
+      <c r="J195"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196"/>
+      <c r="C196" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E196" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G196"/>
+      <c r="H196"/>
+      <c r="I196"/>
+      <c r="J196"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B197"/>
+      <c r="C197" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E197" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B198"/>
+      <c r="C198" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E198" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B199"/>
+      <c r="C199" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E199" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B200"/>
+      <c r="C200" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E200" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B201"/>
+      <c r="C201" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E201" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201"/>
+      <c r="J201"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B202"/>
+      <c r="C202" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E202" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B203"/>
+      <c r="C203" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E203" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G203"/>
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>12</v>
+      </c>
+      <c r="B204"/>
+      <c r="C204" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E204" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G204"/>
+      <c r="H204"/>
+      <c r="I204"/>
+      <c r="J204"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>12</v>
+      </c>
+      <c r="B205"/>
+      <c r="C205" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D205" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E205" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>12</v>
+      </c>
+      <c r="B206"/>
+      <c r="C206" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E206" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G206"/>
+      <c r="H206"/>
+      <c r="I206"/>
+      <c r="J206"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>12</v>
+      </c>
+      <c r="B207"/>
+      <c r="C207" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E207" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G207"/>
+      <c r="H207"/>
+      <c r="I207"/>
+      <c r="J207"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>12</v>
+      </c>
+      <c r="B208"/>
+      <c r="C208" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E208" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>12</v>
+      </c>
+      <c r="B209"/>
+      <c r="C209" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E209" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>12</v>
+      </c>
+      <c r="B210"/>
+      <c r="C210" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E210" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>12</v>
+      </c>
+      <c r="B211"/>
+      <c r="C211" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E211" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211"/>
+      <c r="J211"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>12</v>
+      </c>
+      <c r="B212"/>
+      <c r="C212" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E212" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G212"/>
+      <c r="H212"/>
+      <c r="I212"/>
+      <c r="J212"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>12</v>
+      </c>
+      <c r="B213"/>
+      <c r="C213" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E213" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G213"/>
+      <c r="H213"/>
+      <c r="I213"/>
+      <c r="J213"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>12</v>
+      </c>
+      <c r="B214"/>
+      <c r="C214" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E214" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G214"/>
+      <c r="H214"/>
+      <c r="I214"/>
+      <c r="J214"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>12</v>
+      </c>
+      <c r="B215"/>
+      <c r="C215" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D215" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E215" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G215"/>
+      <c r="H215"/>
+      <c r="I215"/>
+      <c r="J215"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>12</v>
+      </c>
+      <c r="B216"/>
+      <c r="C216" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D216" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E216" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G216"/>
+      <c r="H216"/>
+      <c r="I216"/>
+      <c r="J216"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>12</v>
+      </c>
+      <c r="B217"/>
+      <c r="C217" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E217" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G217"/>
+      <c r="H217"/>
+      <c r="I217"/>
+      <c r="J217"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>12</v>
+      </c>
+      <c r="B218"/>
+      <c r="C218" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E218" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G218"/>
+      <c r="H218"/>
+      <c r="I218"/>
+      <c r="J218"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>12</v>
+      </c>
+      <c r="B219"/>
+      <c r="C219" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E219" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G219"/>
+      <c r="H219"/>
+      <c r="I219"/>
+      <c r="J219"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>12</v>
+      </c>
+      <c r="B220"/>
+      <c r="C220" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E220" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G220"/>
+      <c r="H220"/>
+      <c r="I220"/>
+      <c r="J220"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>12</v>
+      </c>
+      <c r="B221"/>
+      <c r="C221" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E221" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G221"/>
+      <c r="H221"/>
+      <c r="I221"/>
+      <c r="J221"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>12</v>
+      </c>
+      <c r="B222"/>
+      <c r="C222" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E222" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G222"/>
+      <c r="H222"/>
+      <c r="I222"/>
+      <c r="J222"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>12</v>
+      </c>
+      <c r="B223"/>
+      <c r="C223" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E223" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G223"/>
+      <c r="H223"/>
+      <c r="I223"/>
+      <c r="J223"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>12</v>
+      </c>
+      <c r="B224"/>
+      <c r="C224" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E224" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G224"/>
+      <c r="H224"/>
+      <c r="I224"/>
+      <c r="J224"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>12</v>
+      </c>
+      <c r="B225"/>
+      <c r="C225" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E225" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G225"/>
+      <c r="H225"/>
+      <c r="I225"/>
+      <c r="J225"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>12</v>
+      </c>
+      <c r="B226"/>
+      <c r="C226" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D226" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E226" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G226"/>
+      <c r="H226"/>
+      <c r="I226"/>
+      <c r="J226"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>12</v>
+      </c>
+      <c r="B227"/>
+      <c r="C227" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E227" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G227"/>
+      <c r="H227"/>
+      <c r="I227"/>
+      <c r="J227"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228"/>
+      <c r="C228" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D228" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E228" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G228"/>
+      <c r="H228"/>
+      <c r="I228"/>
+      <c r="J228"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>12</v>
+      </c>
+      <c r="B229"/>
+      <c r="C229" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="D229" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E229" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G229"/>
+      <c r="H229"/>
+      <c r="I229"/>
+      <c r="J229"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>12</v>
+      </c>
+      <c r="B230"/>
+      <c r="C230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E230" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G230"/>
+      <c r="H230"/>
+      <c r="I230"/>
+      <c r="J230"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>12</v>
+      </c>
+      <c r="B231"/>
+      <c r="C231" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E231" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G231"/>
+      <c r="H231"/>
+      <c r="I231"/>
+      <c r="J231"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>12</v>
+      </c>
+      <c r="B232"/>
+      <c r="C232" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E232" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G232"/>
+      <c r="H232"/>
+      <c r="I232"/>
+      <c r="J232"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>12</v>
+      </c>
+      <c r="B233"/>
+      <c r="C233" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E233" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G233"/>
+      <c r="H233"/>
+      <c r="I233"/>
+      <c r="J233"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>12</v>
+      </c>
+      <c r="B234"/>
+      <c r="C234" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D234" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E234" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G234"/>
+      <c r="H234"/>
+      <c r="I234"/>
+      <c r="J234"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>12</v>
+      </c>
+      <c r="B235"/>
+      <c r="C235" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E235" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G235"/>
+      <c r="H235"/>
+      <c r="I235"/>
+      <c r="J235"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>12</v>
+      </c>
+      <c r="B236"/>
+      <c r="C236" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E236" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G236"/>
+      <c r="H236"/>
+      <c r="I236"/>
+      <c r="J236"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>12</v>
+      </c>
+      <c r="B237"/>
+      <c r="C237" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E237" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G237"/>
+      <c r="H237"/>
+      <c r="I237"/>
+      <c r="J237"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>12</v>
+      </c>
+      <c r="B238"/>
+      <c r="C238" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D238" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E238" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G238"/>
+      <c r="H238"/>
+      <c r="I238"/>
+      <c r="J238"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>12</v>
+      </c>
+      <c r="B239"/>
+      <c r="C239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D239" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E239" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G239"/>
+      <c r="H239"/>
+      <c r="I239"/>
+      <c r="J239"/>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>12</v>
+      </c>
+      <c r="B240"/>
+      <c r="C240" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E240" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G240"/>
+      <c r="H240"/>
+      <c r="I240"/>
+      <c r="J240"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>12</v>
+      </c>
+      <c r="B241"/>
+      <c r="C241" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E241" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G241"/>
+      <c r="H241"/>
+      <c r="I241"/>
+      <c r="J241"/>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>13</v>
+      </c>
+      <c r="B242" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E242" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G242"/>
+      <c r="H242"/>
+      <c r="I242"/>
+      <c r="J242"/>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>13</v>
+      </c>
+      <c r="B243" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E243" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G243"/>
+      <c r="H243"/>
+      <c r="I243"/>
+      <c r="J243"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>13</v>
+      </c>
+      <c r="B244" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E244" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G244"/>
+      <c r="H244"/>
+      <c r="I244"/>
+      <c r="J244"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>13</v>
+      </c>
+      <c r="B245" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E245" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G245"/>
+      <c r="H245"/>
+      <c r="I245"/>
+      <c r="J245"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>13</v>
+      </c>
+      <c r="B246" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E246" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G246"/>
+      <c r="H246"/>
+      <c r="I246"/>
+      <c r="J246"/>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>13</v>
+      </c>
+      <c r="B247" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E247" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G247"/>
+      <c r="H247"/>
+      <c r="I247"/>
+      <c r="J247"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>13</v>
+      </c>
+      <c r="B248" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E248" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G248"/>
+      <c r="H248"/>
+      <c r="I248"/>
+      <c r="J248"/>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>13</v>
+      </c>
+      <c r="B249" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E249" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G249"/>
+      <c r="H249"/>
+      <c r="I249"/>
+      <c r="J249"/>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>13</v>
+      </c>
+      <c r="B250" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D250" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E250" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G250"/>
+      <c r="H250"/>
+      <c r="I250"/>
+      <c r="J250"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D251" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E251" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G251"/>
+      <c r="H251"/>
+      <c r="I251"/>
+      <c r="J251"/>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D252" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E252" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G252"/>
+      <c r="H252"/>
+      <c r="I252"/>
+      <c r="J252"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>13</v>
+      </c>
+      <c r="B253" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D253" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E253" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G253"/>
+      <c r="H253"/>
+      <c r="I253"/>
+      <c r="J253"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>13</v>
+      </c>
+      <c r="B254" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E254" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G254"/>
+      <c r="H254"/>
+      <c r="I254"/>
+      <c r="J254"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>13</v>
+      </c>
+      <c r="B255" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E255" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G255"/>
+      <c r="H255"/>
+      <c r="I255"/>
+      <c r="J255"/>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>13</v>
+      </c>
+      <c r="B256" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E256" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G256"/>
+      <c r="H256"/>
+      <c r="I256"/>
+      <c r="J256"/>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>13</v>
+      </c>
+      <c r="B257" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E257" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G257"/>
+      <c r="H257"/>
+      <c r="I257"/>
+      <c r="J257"/>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>13</v>
+      </c>
+      <c r="B258" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E258" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G258"/>
+      <c r="H258"/>
+      <c r="I258"/>
+      <c r="J258"/>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>13</v>
+      </c>
+      <c r="B259" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E259" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G259"/>
+      <c r="H259"/>
+      <c r="I259"/>
+      <c r="J259"/>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>13</v>
+      </c>
+      <c r="B260" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E260" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G260"/>
+      <c r="H260"/>
+      <c r="I260"/>
+      <c r="J260"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E261" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G261"/>
+      <c r="H261"/>
+      <c r="I261"/>
+      <c r="J261"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>13</v>
+      </c>
+      <c r="B262" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D262" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E262" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G262"/>
+      <c r="H262"/>
+      <c r="I262"/>
+      <c r="J262"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>13</v>
+      </c>
+      <c r="B263" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D263" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E263" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G263"/>
+      <c r="H263"/>
+      <c r="I263"/>
+      <c r="J263"/>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>13</v>
+      </c>
+      <c r="B264" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E264" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G264"/>
+      <c r="H264"/>
+      <c r="I264"/>
+      <c r="J264"/>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>13</v>
+      </c>
+      <c r="B265" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D265" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E265" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G265"/>
+      <c r="H265"/>
+      <c r="I265"/>
+      <c r="J265"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>13</v>
+      </c>
+      <c r="B266" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E266" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G266"/>
+      <c r="H266"/>
+      <c r="I266"/>
+      <c r="J266"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>13</v>
+      </c>
+      <c r="B267" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E267" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G267"/>
+      <c r="H267"/>
+      <c r="I267"/>
+      <c r="J267"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>13</v>
+      </c>
+      <c r="B268" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E268" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G268"/>
+      <c r="H268"/>
+      <c r="I268"/>
+      <c r="J268"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>13</v>
+      </c>
+      <c r="B269" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E269" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G269"/>
+      <c r="H269"/>
+      <c r="I269"/>
+      <c r="J269"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>13</v>
+      </c>
+      <c r="B270" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E270" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G270"/>
+      <c r="H270"/>
+      <c r="I270"/>
+      <c r="J270"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>13</v>
+      </c>
+      <c r="B271" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E271" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G271"/>
+      <c r="H271"/>
+      <c r="I271"/>
+      <c r="J271"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E272" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G272"/>
+      <c r="H272"/>
+      <c r="I272"/>
+      <c r="J272"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>13</v>
+      </c>
+      <c r="B273" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E273" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G273"/>
+      <c r="H273"/>
+      <c r="I273"/>
+      <c r="J273"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D274" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F274" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G274"/>
+      <c r="H274"/>
+      <c r="I274"/>
+      <c r="J274"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>13</v>
+      </c>
+      <c r="B275" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D275" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E275" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G275"/>
+      <c r="H275"/>
+      <c r="I275"/>
+      <c r="J275"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>13</v>
+      </c>
+      <c r="B276" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D276" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E276" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G276"/>
+      <c r="H276"/>
+      <c r="I276"/>
+      <c r="J276"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>13</v>
+      </c>
+      <c r="B277" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E277" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G277"/>
+      <c r="H277"/>
+      <c r="I277"/>
+      <c r="J277"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>13</v>
+      </c>
+      <c r="B278" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E278" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F278" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G278"/>
+      <c r="H278"/>
+      <c r="I278"/>
+      <c r="J278"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>13</v>
+      </c>
+      <c r="B279" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E279" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G279"/>
+      <c r="H279"/>
+      <c r="I279"/>
+      <c r="J279"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>13</v>
+      </c>
+      <c r="B280" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E280" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G280"/>
+      <c r="H280"/>
+      <c r="I280"/>
+      <c r="J280"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>13</v>
+      </c>
+      <c r="B281" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E281" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G281"/>
+      <c r="H281"/>
+      <c r="I281"/>
+      <c r="J281"/>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>13</v>
+      </c>
+      <c r="B282" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E282" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G282"/>
+      <c r="H282"/>
+      <c r="I282"/>
+      <c r="J282"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>13</v>
+      </c>
+      <c r="B283" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E283" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G283"/>
+      <c r="H283"/>
+      <c r="I283"/>
+      <c r="J283"/>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>13</v>
+      </c>
+      <c r="B284" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E284" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F284" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G284"/>
+      <c r="H284"/>
+      <c r="I284"/>
+      <c r="J284"/>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>13</v>
+      </c>
+      <c r="B285" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E285" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G285"/>
+      <c r="H285"/>
+      <c r="I285"/>
+      <c r="J285"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>13</v>
+      </c>
+      <c r="B286" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D286" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E286" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F286" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G286"/>
+      <c r="H286"/>
+      <c r="I286"/>
+      <c r="J286"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>13</v>
+      </c>
+      <c r="B287" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D287" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E287" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G287"/>
+      <c r="H287"/>
+      <c r="I287"/>
+      <c r="J287"/>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>13</v>
+      </c>
+      <c r="B288" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D288" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E288" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F288" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G288"/>
+      <c r="H288"/>
+      <c r="I288"/>
+      <c r="J288"/>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>13</v>
+      </c>
+      <c r="B289" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D289" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E289" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G289"/>
+      <c r="H289"/>
+      <c r="I289"/>
+      <c r="J289"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E290" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G290"/>
+      <c r="H290"/>
+      <c r="I290"/>
+      <c r="J290"/>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>13</v>
+      </c>
+      <c r="B291" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E291" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G291"/>
+      <c r="H291"/>
+      <c r="I291"/>
+      <c r="J291"/>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>13</v>
+      </c>
+      <c r="B292" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E292" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F292" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G292"/>
+      <c r="H292"/>
+      <c r="I292"/>
+      <c r="J292"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>13</v>
+      </c>
+      <c r="B293" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E293" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G293"/>
+      <c r="H293"/>
+      <c r="I293"/>
+      <c r="J293"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E294" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F294" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G294"/>
+      <c r="H294"/>
+      <c r="I294"/>
+      <c r="J294"/>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>13</v>
+      </c>
+      <c r="B295" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E295" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G295"/>
+      <c r="H295"/>
+      <c r="I295"/>
+      <c r="J295"/>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>13</v>
+      </c>
+      <c r="B296" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E296" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F296" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G296"/>
+      <c r="H296"/>
+      <c r="I296"/>
+      <c r="J296"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>13</v>
+      </c>
+      <c r="B297" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E297" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F297" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G297"/>
+      <c r="H297"/>
+      <c r="I297"/>
+      <c r="J297"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>13</v>
+      </c>
+      <c r="B298" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E298" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G298"/>
+      <c r="H298"/>
+      <c r="I298"/>
+      <c r="J298"/>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>13</v>
+      </c>
+      <c r="B299" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D299" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E299" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G299"/>
+      <c r="H299"/>
+      <c r="I299"/>
+      <c r="J299"/>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>13</v>
+      </c>
+      <c r="B300" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D300" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E300" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F300" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G300"/>
+      <c r="H300"/>
+      <c r="I300"/>
+      <c r="J300"/>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>13</v>
+      </c>
+      <c r="B301" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D301" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E301" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F301" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G301"/>
+      <c r="H301"/>
+      <c r="I301"/>
+      <c r="J301"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>13</v>
+      </c>
+      <c r="B302" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E302" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F302" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G302"/>
+      <c r="H302"/>
+      <c r="I302"/>
+      <c r="J302"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>13</v>
+      </c>
+      <c r="B303" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E303" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F303" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G303"/>
+      <c r="H303"/>
+      <c r="I303"/>
+      <c r="J303"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E304" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F304" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G304"/>
+      <c r="H304"/>
+      <c r="I304"/>
+      <c r="J304"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>13</v>
+      </c>
+      <c r="B305" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E305" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G305"/>
+      <c r="H305"/>
+      <c r="I305"/>
+      <c r="J305"/>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>13</v>
+      </c>
+      <c r="B306" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E306" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F306" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G306"/>
+      <c r="H306"/>
+      <c r="I306"/>
+      <c r="J306"/>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>13</v>
+      </c>
+      <c r="B307" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E307" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F307" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G307"/>
+      <c r="H307"/>
+      <c r="I307"/>
+      <c r="J307"/>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>13</v>
+      </c>
+      <c r="B308" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E308" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F308" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G308"/>
+      <c r="H308"/>
+      <c r="I308"/>
+      <c r="J308"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>13</v>
+      </c>
+      <c r="B309" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E309" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F309" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G309"/>
+      <c r="H309"/>
+      <c r="I309"/>
+      <c r="J309"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>13</v>
+      </c>
+      <c r="B310" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D310" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E310" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F310" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G310"/>
+      <c r="H310"/>
+      <c r="I310"/>
+      <c r="J310"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>13</v>
+      </c>
+      <c r="B311" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D311" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E311" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F311" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G311"/>
+      <c r="H311"/>
+      <c r="I311"/>
+      <c r="J311"/>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>13</v>
+      </c>
+      <c r="B312" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D312" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E312" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F312" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G312"/>
+      <c r="H312"/>
+      <c r="I312"/>
+      <c r="J312"/>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>13</v>
+      </c>
+      <c r="B313" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D313" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E313" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F313" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G313"/>
+      <c r="H313"/>
+      <c r="I313"/>
+      <c r="J313"/>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>13</v>
+      </c>
+      <c r="B314" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E314" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F314" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G314"/>
+      <c r="H314"/>
+      <c r="I314"/>
+      <c r="J314"/>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>13</v>
+      </c>
+      <c r="B315" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E315" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F315" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G315"/>
+      <c r="H315"/>
+      <c r="I315"/>
+      <c r="J315"/>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>13</v>
+      </c>
+      <c r="B316" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E316" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F316" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G316"/>
+      <c r="H316"/>
+      <c r="I316"/>
+      <c r="J316"/>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>13</v>
+      </c>
+      <c r="B317" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E317" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F317" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G317"/>
+      <c r="H317"/>
+      <c r="I317"/>
+      <c r="J317"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>13</v>
+      </c>
+      <c r="B318" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E318" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F318" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G318"/>
+      <c r="H318"/>
+      <c r="I318"/>
+      <c r="J318"/>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>13</v>
+      </c>
+      <c r="B319" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E319" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F319" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G319"/>
+      <c r="H319"/>
+      <c r="I319"/>
+      <c r="J319"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>13</v>
+      </c>
+      <c r="B320" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E320" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F320" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G320"/>
+      <c r="H320"/>
+      <c r="I320"/>
+      <c r="J320"/>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>13</v>
+      </c>
+      <c r="B321" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E321" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F321" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G321"/>
+      <c r="H321"/>
+      <c r="I321"/>
+      <c r="J321"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>13</v>
+      </c>
+      <c r="B322" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D322" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E322" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F322" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G322"/>
+      <c r="H322"/>
+      <c r="I322"/>
+      <c r="J322"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>13</v>
+      </c>
+      <c r="B323" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D323" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E323" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F323" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G323"/>
+      <c r="H323"/>
+      <c r="I323"/>
+      <c r="J323"/>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>13</v>
+      </c>
+      <c r="B324" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D324" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E324" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F324" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G324"/>
+      <c r="H324"/>
+      <c r="I324"/>
+      <c r="J324"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>13</v>
+      </c>
+      <c r="B325" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D325" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E325" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F325" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G325"/>
+      <c r="H325"/>
+      <c r="I325"/>
+      <c r="J325"/>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>13</v>
+      </c>
+      <c r="B326" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E326" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F326" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G326"/>
+      <c r="H326"/>
+      <c r="I326"/>
+      <c r="J326"/>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>13</v>
+      </c>
+      <c r="B327" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E327" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F327" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G327"/>
+      <c r="H327"/>
+      <c r="I327"/>
+      <c r="J327"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>13</v>
+      </c>
+      <c r="B328" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E328" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F328" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G328"/>
+      <c r="H328"/>
+      <c r="I328"/>
+      <c r="J328"/>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>13</v>
+      </c>
+      <c r="B329" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E329" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F329" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G329"/>
+      <c r="H329"/>
+      <c r="I329"/>
+      <c r="J329"/>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E330" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F330" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G330"/>
+      <c r="H330"/>
+      <c r="I330"/>
+      <c r="J330"/>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>13</v>
+      </c>
+      <c r="B331" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E331" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F331" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G331"/>
+      <c r="H331"/>
+      <c r="I331"/>
+      <c r="J331"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>13</v>
+      </c>
+      <c r="B332" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E332" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F332" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G332"/>
+      <c r="H332"/>
+      <c r="I332"/>
+      <c r="J332"/>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>13</v>
+      </c>
+      <c r="B333" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E333" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F333" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G333"/>
+      <c r="H333"/>
+      <c r="I333"/>
+      <c r="J333"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>13</v>
+      </c>
+      <c r="B334" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E334" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F334" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G334"/>
+      <c r="H334"/>
+      <c r="I334"/>
+      <c r="J334"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>13</v>
+      </c>
+      <c r="B335" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D335" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E335" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F335" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G335"/>
+      <c r="H335"/>
+      <c r="I335"/>
+      <c r="J335"/>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>13</v>
+      </c>
+      <c r="B336" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D336" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E336" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F336" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G336"/>
+      <c r="H336"/>
+      <c r="I336"/>
+      <c r="J336"/>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>13</v>
+      </c>
+      <c r="B337" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D337" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E337" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F337" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G337"/>
+      <c r="H337"/>
+      <c r="I337"/>
+      <c r="J337"/>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>13</v>
+      </c>
+      <c r="B338" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E338" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F338" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G338"/>
+      <c r="H338"/>
+      <c r="I338"/>
+      <c r="J338"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>13</v>
+      </c>
+      <c r="B339" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E339" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F339" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G339"/>
+      <c r="H339"/>
+      <c r="I339"/>
+      <c r="J339"/>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>13</v>
+      </c>
+      <c r="B340" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E340" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F340" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G340"/>
+      <c r="H340"/>
+      <c r="I340"/>
+      <c r="J340"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>13</v>
+      </c>
+      <c r="B341" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E341" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F341" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G341"/>
+      <c r="H341"/>
+      <c r="I341"/>
+      <c r="J341"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>13</v>
+      </c>
+      <c r="B342" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E342" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F342" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G342"/>
+      <c r="H342"/>
+      <c r="I342"/>
+      <c r="J342"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>13</v>
+      </c>
+      <c r="B343" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E343" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F343" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G343"/>
+      <c r="H343"/>
+      <c r="I343"/>
+      <c r="J343"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>13</v>
+      </c>
+      <c r="B344" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E344" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F344" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G344"/>
+      <c r="H344"/>
+      <c r="I344"/>
+      <c r="J344"/>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>13</v>
+      </c>
+      <c r="B345" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E345" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F345" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G345"/>
+      <c r="H345"/>
+      <c r="I345"/>
+      <c r="J345"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>13</v>
+      </c>
+      <c r="B346" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D346" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E346" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F346" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G346"/>
+      <c r="H346"/>
+      <c r="I346"/>
+      <c r="J346"/>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>13</v>
+      </c>
+      <c r="B347" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D347" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E347" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F347" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G347"/>
+      <c r="H347"/>
+      <c r="I347"/>
+      <c r="J347"/>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>13</v>
+      </c>
+      <c r="B348" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D348" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E348" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F348" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G348"/>
+      <c r="H348"/>
+      <c r="I348"/>
+      <c r="J348"/>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>13</v>
+      </c>
+      <c r="B349" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D349" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E349" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F349" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G349"/>
+      <c r="H349"/>
+      <c r="I349"/>
+      <c r="J349"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>13</v>
+      </c>
+      <c r="B350" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E350" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F350" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G350"/>
+      <c r="H350"/>
+      <c r="I350"/>
+      <c r="J350"/>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>13</v>
+      </c>
+      <c r="B351" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E351" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F351" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G351"/>
+      <c r="H351"/>
+      <c r="I351"/>
+      <c r="J351"/>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>13</v>
+      </c>
+      <c r="B352" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E352" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F352" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G352"/>
+      <c r="H352"/>
+      <c r="I352"/>
+      <c r="J352"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>13</v>
+      </c>
+      <c r="B353" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E353" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F353" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G353"/>
+      <c r="H353"/>
+      <c r="I353"/>
+      <c r="J353"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>13</v>
+      </c>
+      <c r="B354" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E354" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F354" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G354"/>
+      <c r="H354"/>
+      <c r="I354"/>
+      <c r="J354"/>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>13</v>
+      </c>
+      <c r="B355" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E355" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F355" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G355"/>
+      <c r="H355"/>
+      <c r="I355"/>
+      <c r="J355"/>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>13</v>
+      </c>
+      <c r="B356" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E356" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F356" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G356"/>
+      <c r="H356"/>
+      <c r="I356"/>
+      <c r="J356"/>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>13</v>
+      </c>
+      <c r="B357" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E357" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F357" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G357"/>
+      <c r="H357"/>
+      <c r="I357"/>
+      <c r="J357"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>13</v>
+      </c>
+      <c r="B358" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D358" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E358" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F358" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G358"/>
+      <c r="H358"/>
+      <c r="I358"/>
+      <c r="J358"/>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>13</v>
+      </c>
+      <c r="B359" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D359" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E359" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F359" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G359"/>
+      <c r="H359"/>
+      <c r="I359"/>
+      <c r="J359"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>13</v>
+      </c>
+      <c r="B360" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D360" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E360" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F360" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G360"/>
+      <c r="H360"/>
+      <c r="I360"/>
+      <c r="J360"/>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>13</v>
+      </c>
+      <c r="B361" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D361" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E361" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F361" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G361"/>
+      <c r="H361"/>
+      <c r="I361"/>
+      <c r="J361"/>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>13</v>
+      </c>
+      <c r="B362" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E362" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F362" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G362"/>
+      <c r="H362"/>
+      <c r="I362"/>
+      <c r="J362"/>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>13</v>
+      </c>
+      <c r="B363" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E363" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F363" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G363"/>
+      <c r="H363"/>
+      <c r="I363"/>
+      <c r="J363"/>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>13</v>
+      </c>
+      <c r="B364" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E364" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F364" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G364"/>
+      <c r="H364"/>
+      <c r="I364"/>
+      <c r="J364"/>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>13</v>
+      </c>
+      <c r="B365" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E365" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F365" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G365"/>
+      <c r="H365"/>
+      <c r="I365"/>
+      <c r="J365"/>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>13</v>
+      </c>
+      <c r="B366" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E366" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F366" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G366"/>
+      <c r="H366"/>
+      <c r="I366"/>
+      <c r="J366"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>13</v>
+      </c>
+      <c r="B367" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E367" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F367" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G367"/>
+      <c r="H367"/>
+      <c r="I367"/>
+      <c r="J367"/>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>13</v>
+      </c>
+      <c r="B368" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E368" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F368" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G368"/>
+      <c r="H368"/>
+      <c r="I368"/>
+      <c r="J368"/>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>13</v>
+      </c>
+      <c r="B369" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E369" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F369" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G369"/>
+      <c r="H369"/>
+      <c r="I369"/>
+      <c r="J369"/>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>13</v>
+      </c>
+      <c r="B370" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D370" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E370" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F370" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G370"/>
+      <c r="H370"/>
+      <c r="I370"/>
+      <c r="J370"/>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>13</v>
+      </c>
+      <c r="B371" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D371" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E371" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F371" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G371"/>
+      <c r="H371"/>
+      <c r="I371"/>
+      <c r="J371"/>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>13</v>
+      </c>
+      <c r="B372" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D372" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E372" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F372" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G372"/>
+      <c r="H372"/>
+      <c r="I372"/>
+      <c r="J372"/>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>13</v>
+      </c>
+      <c r="B373" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D373" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E373" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F373" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G373"/>
+      <c r="H373"/>
+      <c r="I373"/>
+      <c r="J373"/>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>13</v>
+      </c>
+      <c r="B374" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E374" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F374" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G374"/>
+      <c r="H374"/>
+      <c r="I374"/>
+      <c r="J374"/>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>13</v>
+      </c>
+      <c r="B375" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E375" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F375" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G375"/>
+      <c r="H375"/>
+      <c r="I375"/>
+      <c r="J375"/>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>13</v>
+      </c>
+      <c r="B376" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E376" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F376" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G376"/>
+      <c r="H376"/>
+      <c r="I376"/>
+      <c r="J376"/>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>13</v>
+      </c>
+      <c r="B377" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E377" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F377" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G377"/>
+      <c r="H377"/>
+      <c r="I377"/>
+      <c r="J377"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>13</v>
+      </c>
+      <c r="B378" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E378" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F378" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G378"/>
+      <c r="H378"/>
+      <c r="I378"/>
+      <c r="J378"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>13</v>
+      </c>
+      <c r="B379" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E379" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F379" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G379"/>
+      <c r="H379"/>
+      <c r="I379"/>
+      <c r="J379"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>13</v>
+      </c>
+      <c r="B380" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E380" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F380" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G380"/>
+      <c r="H380"/>
+      <c r="I380"/>
+      <c r="J380"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>13</v>
+      </c>
+      <c r="B381" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E381" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F381" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G381"/>
+      <c r="H381"/>
+      <c r="I381"/>
+      <c r="J381"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>13</v>
+      </c>
+      <c r="B382" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E382" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F382" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G382"/>
+      <c r="H382"/>
+      <c r="I382"/>
+      <c r="J382"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>13</v>
+      </c>
+      <c r="B383" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D383" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E383" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F383" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G383"/>
+      <c r="H383"/>
+      <c r="I383"/>
+      <c r="J383"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>13</v>
+      </c>
+      <c r="B384" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D384" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E384" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F384" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G384"/>
+      <c r="H384"/>
+      <c r="I384"/>
+      <c r="J384"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>13</v>
+      </c>
+      <c r="B385" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D385" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E385" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F385" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G385"/>
+      <c r="H385"/>
+      <c r="I385"/>
+      <c r="J385"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>13</v>
+      </c>
+      <c r="B386" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E386" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F386" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G386"/>
+      <c r="H386"/>
+      <c r="I386"/>
+      <c r="J386"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>13</v>
+      </c>
+      <c r="B387" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E387" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F387" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G387"/>
+      <c r="H387"/>
+      <c r="I387"/>
+      <c r="J387"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>13</v>
+      </c>
+      <c r="B388" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E388" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F388" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G388"/>
+      <c r="H388"/>
+      <c r="I388"/>
+      <c r="J388"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>13</v>
+      </c>
+      <c r="B389" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E389" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F389" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G389"/>
+      <c r="H389"/>
+      <c r="I389"/>
+      <c r="J389"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>13</v>
+      </c>
+      <c r="B390" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E390" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F390" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G390"/>
+      <c r="H390"/>
+      <c r="I390"/>
+      <c r="J390"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>13</v>
+      </c>
+      <c r="B391" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E391" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F391" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G391"/>
+      <c r="H391"/>
+      <c r="I391"/>
+      <c r="J391"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>13</v>
+      </c>
+      <c r="B392" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E392" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F392" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G392"/>
+      <c r="H392"/>
+      <c r="I392"/>
+      <c r="J392"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>13</v>
+      </c>
+      <c r="B393" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E393" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F393" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G393"/>
+      <c r="H393"/>
+      <c r="I393"/>
+      <c r="J393"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>13</v>
+      </c>
+      <c r="B394" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D394" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E394" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F394" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G394"/>
+      <c r="H394"/>
+      <c r="I394"/>
+      <c r="J394"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>13</v>
+      </c>
+      <c r="B395" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D395" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E395" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F395" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G395"/>
+      <c r="H395"/>
+      <c r="I395"/>
+      <c r="J395"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>13</v>
+      </c>
+      <c r="B396" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D396" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E396" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F396" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G396"/>
+      <c r="H396"/>
+      <c r="I396"/>
+      <c r="J396"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>13</v>
+      </c>
+      <c r="B397" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D397" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E397" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F397" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G397"/>
+      <c r="H397"/>
+      <c r="I397"/>
+      <c r="J397"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>13</v>
+      </c>
+      <c r="B398" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E398" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F398" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G398"/>
+      <c r="H398"/>
+      <c r="I398"/>
+      <c r="J398"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>13</v>
+      </c>
+      <c r="B399" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E399" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F399" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G399"/>
+      <c r="H399"/>
+      <c r="I399"/>
+      <c r="J399"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>13</v>
+      </c>
+      <c r="B400" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E400" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F400" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G400"/>
+      <c r="H400"/>
+      <c r="I400"/>
+      <c r="J400"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>13</v>
+      </c>
+      <c r="B401" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E401" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F401" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G401"/>
+      <c r="H401"/>
+      <c r="I401"/>
+      <c r="J401"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>13</v>
+      </c>
+      <c r="B402" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E402" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F402" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G402"/>
+      <c r="H402"/>
+      <c r="I402"/>
+      <c r="J402"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>13</v>
+      </c>
+      <c r="B403" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E403" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F403" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G403"/>
+      <c r="H403"/>
+      <c r="I403"/>
+      <c r="J403"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>13</v>
+      </c>
+      <c r="B404" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E404" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F404" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G404"/>
+      <c r="H404"/>
+      <c r="I404"/>
+      <c r="J404"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>13</v>
+      </c>
+      <c r="B405" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E405" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F405" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G405"/>
+      <c r="H405"/>
+      <c r="I405"/>
+      <c r="J405"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>13</v>
+      </c>
+      <c r="B406" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D406" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E406" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F406" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G406"/>
+      <c r="H406"/>
+      <c r="I406"/>
+      <c r="J406"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>13</v>
+      </c>
+      <c r="B407" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D407" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E407" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F407" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G407"/>
+      <c r="H407"/>
+      <c r="I407"/>
+      <c r="J407"/>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>13</v>
+      </c>
+      <c r="B408" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D408" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E408" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F408" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G408"/>
+      <c r="H408"/>
+      <c r="I408"/>
+      <c r="J408"/>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>13</v>
+      </c>
+      <c r="B409" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D409" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E409" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F409" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G409"/>
+      <c r="H409"/>
+      <c r="I409"/>
+      <c r="J409"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>13</v>
+      </c>
+      <c r="B410" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E410" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F410" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G410"/>
+      <c r="H410"/>
+      <c r="I410"/>
+      <c r="J410"/>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>13</v>
+      </c>
+      <c r="B411" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E411" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F411" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G411"/>
+      <c r="H411"/>
+      <c r="I411"/>
+      <c r="J411"/>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>13</v>
+      </c>
+      <c r="B412" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E412" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F412" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G412"/>
+      <c r="H412"/>
+      <c r="I412"/>
+      <c r="J412"/>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>13</v>
+      </c>
+      <c r="B413" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E413" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F413" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G413"/>
+      <c r="H413"/>
+      <c r="I413"/>
+      <c r="J413"/>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>13</v>
+      </c>
+      <c r="B414" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E414" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F414" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G414"/>
+      <c r="H414"/>
+      <c r="I414"/>
+      <c r="J414"/>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>13</v>
+      </c>
+      <c r="B415" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D415" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E415" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F415" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G415"/>
+      <c r="H415"/>
+      <c r="I415"/>
+      <c r="J415"/>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>13</v>
+      </c>
+      <c r="B416" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E416" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F416" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G416"/>
+      <c r="H416"/>
+      <c r="I416"/>
+      <c r="J416"/>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>13</v>
+      </c>
+      <c r="B417" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D417" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E417" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F417" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G417"/>
+      <c r="H417"/>
+      <c r="I417"/>
+      <c r="J417"/>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>13</v>
+      </c>
+      <c r="B418" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D418" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E418" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F418" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G418"/>
+      <c r="H418"/>
+      <c r="I418"/>
+      <c r="J418"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>13</v>
+      </c>
+      <c r="B419" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D419" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E419" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F419" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G419"/>
+      <c r="H419"/>
+      <c r="I419"/>
+      <c r="J419"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>13</v>
+      </c>
+      <c r="B420" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D420" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E420" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F420" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G420"/>
+      <c r="H420"/>
+      <c r="I420"/>
+      <c r="J420"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>13</v>
+      </c>
+      <c r="B421" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D421" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E421" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F421" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G421"/>
+      <c r="H421"/>
+      <c r="I421"/>
+      <c r="J421"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>13</v>
+      </c>
+      <c r="B422" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E422" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F422" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G422"/>
+      <c r="H422"/>
+      <c r="I422"/>
+      <c r="J422"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>13</v>
+      </c>
+      <c r="B423" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E423" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F423" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G423"/>
+      <c r="H423"/>
+      <c r="I423"/>
+      <c r="J423"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>13</v>
+      </c>
+      <c r="B424" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E424" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F424" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G424"/>
+      <c r="H424"/>
+      <c r="I424"/>
+      <c r="J424"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>13</v>
+      </c>
+      <c r="B425" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E425" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F425" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G425"/>
+      <c r="H425"/>
+      <c r="I425"/>
+      <c r="J425"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>13</v>
+      </c>
+      <c r="B426" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D426" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E426" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F426" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G426"/>
+      <c r="H426"/>
+      <c r="I426"/>
+      <c r="J426"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>13</v>
+      </c>
+      <c r="B427" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D427" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E427" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F427" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G427"/>
+      <c r="H427"/>
+      <c r="I427"/>
+      <c r="J427"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>13</v>
+      </c>
+      <c r="B428" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D428" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E428" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F428" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G428"/>
+      <c r="H428"/>
+      <c r="I428"/>
+      <c r="J428"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>13</v>
+      </c>
+      <c r="B429" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D429" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E429" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F429" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G429"/>
+      <c r="H429"/>
+      <c r="I429"/>
+      <c r="J429"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>13</v>
+      </c>
+      <c r="B430" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D430" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E430" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F430" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G430"/>
+      <c r="H430"/>
+      <c r="I430"/>
+      <c r="J430"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>13</v>
+      </c>
+      <c r="B431" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D431" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E431" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F431" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G431"/>
+      <c r="H431"/>
+      <c r="I431"/>
+      <c r="J431"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>13</v>
+      </c>
+      <c r="B432" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D432" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E432" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F432" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G432"/>
+      <c r="H432"/>
+      <c r="I432"/>
+      <c r="J432"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>13</v>
+      </c>
+      <c r="B433" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D433" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E433" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F433" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G433"/>
+      <c r="H433"/>
+      <c r="I433"/>
+      <c r="J433"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>14</v>
+      </c>
+      <c r="B434"/>
+      <c r="C434" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E434" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F434" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G434"/>
+      <c r="H434"/>
+      <c r="I434"/>
+      <c r="J434"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>14</v>
+      </c>
+      <c r="B435"/>
+      <c r="C435" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E435" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F435" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G435"/>
+      <c r="H435"/>
+      <c r="I435"/>
+      <c r="J435"/>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>14</v>
+      </c>
+      <c r="B436"/>
+      <c r="C436" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E436" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F436" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G436"/>
+      <c r="H436"/>
+      <c r="I436"/>
+      <c r="J436"/>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>14</v>
+      </c>
+      <c r="B437"/>
+      <c r="C437" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E437" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F437" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G437"/>
+      <c r="H437"/>
+      <c r="I437"/>
+      <c r="J437"/>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>14</v>
+      </c>
+      <c r="B438"/>
+      <c r="C438" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D438" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E438" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F438" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G438"/>
+      <c r="H438"/>
+      <c r="I438"/>
+      <c r="J438"/>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>14</v>
+      </c>
+      <c r="B439"/>
+      <c r="C439" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D439" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E439" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F439" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G439"/>
+      <c r="H439"/>
+      <c r="I439"/>
+      <c r="J439"/>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>14</v>
+      </c>
+      <c r="B440"/>
+      <c r="C440" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D440" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E440" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F440" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G440"/>
+      <c r="H440"/>
+      <c r="I440"/>
+      <c r="J440"/>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>14</v>
+      </c>
+      <c r="B441"/>
+      <c r="C441" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D441" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E441" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F441" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G441"/>
+      <c r="H441"/>
+      <c r="I441"/>
+      <c r="J441"/>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>14</v>
+      </c>
+      <c r="B442"/>
+      <c r="C442" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D442" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E442" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F442" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G442"/>
+      <c r="H442"/>
+      <c r="I442"/>
+      <c r="J442"/>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>14</v>
+      </c>
+      <c r="B443"/>
+      <c r="C443" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D443" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E443" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F443" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G443"/>
+      <c r="H443"/>
+      <c r="I443"/>
+      <c r="J443"/>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>14</v>
+      </c>
+      <c r="B444"/>
+      <c r="C444" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D444" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E444" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F444" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G444"/>
+      <c r="H444"/>
+      <c r="I444"/>
+      <c r="J444"/>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>14</v>
+      </c>
+      <c r="B445"/>
+      <c r="C445" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D445" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E445" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F445" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G445"/>
+      <c r="H445"/>
+      <c r="I445"/>
+      <c r="J445"/>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>14</v>
+      </c>
+      <c r="B446"/>
+      <c r="C446" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E446" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F446" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G446"/>
+      <c r="H446"/>
+      <c r="I446"/>
+      <c r="J446"/>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>14</v>
+      </c>
+      <c r="B447"/>
+      <c r="C447" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E447" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F447" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G447"/>
+      <c r="H447"/>
+      <c r="I447"/>
+      <c r="J447"/>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>14</v>
+      </c>
+      <c r="B448"/>
+      <c r="C448" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E448" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F448" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G448"/>
+      <c r="H448"/>
+      <c r="I448"/>
+      <c r="J448"/>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>14</v>
+      </c>
+      <c r="B449"/>
+      <c r="C449" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E449" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F449" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G449"/>
+      <c r="H449"/>
+      <c r="I449"/>
+      <c r="J449"/>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>14</v>
+      </c>
+      <c r="B450"/>
+      <c r="C450" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D450" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E450" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F450" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G450"/>
+      <c r="H450"/>
+      <c r="I450"/>
+      <c r="J450"/>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>14</v>
+      </c>
+      <c r="B451"/>
+      <c r="C451" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D451" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E451" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F451" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G451"/>
+      <c r="H451"/>
+      <c r="I451"/>
+      <c r="J451"/>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>14</v>
+      </c>
+      <c r="B452"/>
+      <c r="C452" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D452" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E452" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F452" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G452"/>
+      <c r="H452"/>
+      <c r="I452"/>
+      <c r="J452"/>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>14</v>
+      </c>
+      <c r="B453"/>
+      <c r="C453" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D453" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E453" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F453" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G453"/>
+      <c r="H453"/>
+      <c r="I453"/>
+      <c r="J453"/>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>14</v>
+      </c>
+      <c r="B454"/>
+      <c r="C454" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D454" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E454" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F454" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G454"/>
+      <c r="H454"/>
+      <c r="I454"/>
+      <c r="J454"/>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>14</v>
+      </c>
+      <c r="B455"/>
+      <c r="C455" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D455" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E455" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F455" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G455"/>
+      <c r="H455"/>
+      <c r="I455"/>
+      <c r="J455"/>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>14</v>
+      </c>
+      <c r="B456"/>
+      <c r="C456" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D456" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E456" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F456" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G456"/>
+      <c r="H456"/>
+      <c r="I456"/>
+      <c r="J456"/>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>14</v>
+      </c>
+      <c r="B457"/>
+      <c r="C457" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D457" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E457" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F457" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G457"/>
+      <c r="H457"/>
+      <c r="I457"/>
+      <c r="J457"/>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>14</v>
+      </c>
+      <c r="B458"/>
+      <c r="C458" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E458" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F458" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G458"/>
+      <c r="H458"/>
+      <c r="I458"/>
+      <c r="J458"/>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>14</v>
+      </c>
+      <c r="B459"/>
+      <c r="C459" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E459" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F459" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G459"/>
+      <c r="H459"/>
+      <c r="I459"/>
+      <c r="J459"/>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>14</v>
+      </c>
+      <c r="B460"/>
+      <c r="C460" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E460" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F460" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G460"/>
+      <c r="H460"/>
+      <c r="I460"/>
+      <c r="J460"/>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>14</v>
+      </c>
+      <c r="B461"/>
+      <c r="C461" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E461" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F461" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G461"/>
+      <c r="H461"/>
+      <c r="I461"/>
+      <c r="J461"/>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>14</v>
+      </c>
+      <c r="B462"/>
+      <c r="C462" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D462" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E462" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F462" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G462"/>
+      <c r="H462"/>
+      <c r="I462"/>
+      <c r="J462"/>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>14</v>
+      </c>
+      <c r="B463"/>
+      <c r="C463" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D463" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E463" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F463" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G463"/>
+      <c r="H463"/>
+      <c r="I463"/>
+      <c r="J463"/>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>14</v>
+      </c>
+      <c r="B464"/>
+      <c r="C464" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E464" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F464" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G464"/>
+      <c r="H464"/>
+      <c r="I464"/>
+      <c r="J464"/>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>14</v>
+      </c>
+      <c r="B465"/>
+      <c r="C465" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E465" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F465" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G465"/>
+      <c r="H465"/>
+      <c r="I465"/>
+      <c r="J465"/>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>14</v>
+      </c>
+      <c r="B466"/>
+      <c r="C466" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D466" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E466" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F466" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G466"/>
+      <c r="H466"/>
+      <c r="I466"/>
+      <c r="J466"/>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>14</v>
+      </c>
+      <c r="B467"/>
+      <c r="C467" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D467" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E467" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F467" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G467"/>
+      <c r="H467"/>
+      <c r="I467"/>
+      <c r="J467"/>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>14</v>
+      </c>
+      <c r="B468"/>
+      <c r="C468" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D468" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E468" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F468" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G468"/>
+      <c r="H468"/>
+      <c r="I468"/>
+      <c r="J468"/>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>14</v>
+      </c>
+      <c r="B469"/>
+      <c r="C469" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D469" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E469" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F469" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G469"/>
+      <c r="H469"/>
+      <c r="I469"/>
+      <c r="J469"/>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>14</v>
+      </c>
+      <c r="B470"/>
+      <c r="C470" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E470" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F470" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G470"/>
+      <c r="H470"/>
+      <c r="I470"/>
+      <c r="J470"/>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>14</v>
+      </c>
+      <c r="B471"/>
+      <c r="C471" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E471" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F471" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G471"/>
+      <c r="H471"/>
+      <c r="I471"/>
+      <c r="J471"/>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>14</v>
+      </c>
+      <c r="B472"/>
+      <c r="C472" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E472" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G472"/>
+      <c r="H472"/>
+      <c r="I472"/>
+      <c r="J472"/>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>14</v>
+      </c>
+      <c r="B473"/>
+      <c r="C473" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E473" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F473" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G473"/>
+      <c r="H473"/>
+      <c r="I473"/>
+      <c r="J473"/>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>14</v>
+      </c>
+      <c r="B474"/>
+      <c r="C474" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D474" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E474" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F474" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G474"/>
+      <c r="H474"/>
+      <c r="I474"/>
+      <c r="J474"/>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>14</v>
+      </c>
+      <c r="B475"/>
+      <c r="C475" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D475" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E475" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F475" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G475"/>
+      <c r="H475"/>
+      <c r="I475"/>
+      <c r="J475"/>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>14</v>
+      </c>
+      <c r="B476"/>
+      <c r="C476" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E476" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F476" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G476"/>
+      <c r="H476"/>
+      <c r="I476"/>
+      <c r="J476"/>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>14</v>
+      </c>
+      <c r="B477"/>
+      <c r="C477" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D477" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E477" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F477" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G477"/>
+      <c r="H477"/>
+      <c r="I477"/>
+      <c r="J477"/>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>14</v>
+      </c>
+      <c r="B478"/>
+      <c r="C478" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D478" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E478" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F478" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G478"/>
+      <c r="H478"/>
+      <c r="I478"/>
+      <c r="J478"/>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>14</v>
+      </c>
+      <c r="B479"/>
+      <c r="C479" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D479" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E479" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F479" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G479"/>
+      <c r="H479"/>
+      <c r="I479"/>
+      <c r="J479"/>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>14</v>
+      </c>
+      <c r="B480"/>
+      <c r="C480" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D480" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E480" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F480" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G480"/>
+      <c r="H480"/>
+      <c r="I480"/>
+      <c r="J480"/>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>14</v>
+      </c>
+      <c r="B481"/>
+      <c r="C481" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D481" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E481" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F481" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G481"/>
+      <c r="H481"/>
+      <c r="I481"/>
+      <c r="J481"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows,granularity) post adj.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="15">
   <si>
     <t>Model</t>
   </si>
@@ -5424,7 +5424,7 @@
         <v>13</v>
       </c>
       <c r="B242" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C242" t="n">
         <v>0.005</v>
@@ -5448,7 +5448,7 @@
         <v>13</v>
       </c>
       <c r="B243" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C243" t="n">
         <v>0.005</v>
@@ -5472,7 +5472,7 @@
         <v>13</v>
       </c>
       <c r="B244" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C244" t="n">
         <v>0.005</v>
@@ -5496,7 +5496,7 @@
         <v>13</v>
       </c>
       <c r="B245" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C245" t="n">
         <v>0.005</v>
@@ -5520,7 +5520,7 @@
         <v>13</v>
       </c>
       <c r="B246" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C246" t="n">
         <v>0.005</v>
@@ -5544,7 +5544,7 @@
         <v>13</v>
       </c>
       <c r="B247" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C247" t="n">
         <v>0.005</v>
@@ -5568,7 +5568,7 @@
         <v>13</v>
       </c>
       <c r="B248" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C248" t="n">
         <v>0.005</v>
@@ -5592,7 +5592,7 @@
         <v>13</v>
       </c>
       <c r="B249" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C249" t="n">
         <v>0.005</v>
@@ -5616,7 +5616,7 @@
         <v>13</v>
       </c>
       <c r="B250" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C250" t="n">
         <v>0.005</v>
@@ -5640,7 +5640,7 @@
         <v>13</v>
       </c>
       <c r="B251" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C251" t="n">
         <v>0.005</v>
@@ -5664,7 +5664,7 @@
         <v>13</v>
       </c>
       <c r="B252" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C252" t="n">
         <v>0.005</v>
@@ -5688,7 +5688,7 @@
         <v>13</v>
       </c>
       <c r="B253" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C253" t="n">
         <v>0.005</v>
@@ -5712,7 +5712,7 @@
         <v>13</v>
       </c>
       <c r="B254" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C254" t="n">
         <v>0.01</v>
@@ -5736,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="B255" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C255" t="n">
         <v>0.01</v>
@@ -5760,7 +5760,7 @@
         <v>13</v>
       </c>
       <c r="B256" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C256" t="n">
         <v>0.01</v>
@@ -5784,7 +5784,7 @@
         <v>13</v>
       </c>
       <c r="B257" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C257" t="n">
         <v>0.01</v>
@@ -5808,7 +5808,7 @@
         <v>13</v>
       </c>
       <c r="B258" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C258" t="n">
         <v>0.01</v>
@@ -5832,7 +5832,7 @@
         <v>13</v>
       </c>
       <c r="B259" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C259" t="n">
         <v>0.01</v>
@@ -5856,7 +5856,7 @@
         <v>13</v>
       </c>
       <c r="B260" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C260" t="n">
         <v>0.01</v>
@@ -5880,7 +5880,7 @@
         <v>13</v>
       </c>
       <c r="B261" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C261" t="n">
         <v>0.01</v>
@@ -5904,7 +5904,7 @@
         <v>13</v>
       </c>
       <c r="B262" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C262" t="n">
         <v>0.01</v>
@@ -5928,7 +5928,7 @@
         <v>13</v>
       </c>
       <c r="B263" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C263" t="n">
         <v>0.01</v>
@@ -5952,7 +5952,7 @@
         <v>13</v>
       </c>
       <c r="B264" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C264" t="n">
         <v>0.01</v>
@@ -5976,7 +5976,7 @@
         <v>13</v>
       </c>
       <c r="B265" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C265" t="n">
         <v>0.01</v>
@@ -6000,7 +6000,7 @@
         <v>13</v>
       </c>
       <c r="B266" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C266" t="n">
         <v>0.02</v>
@@ -6024,7 +6024,7 @@
         <v>13</v>
       </c>
       <c r="B267" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C267" t="n">
         <v>0.02</v>
@@ -6048,7 +6048,7 @@
         <v>13</v>
       </c>
       <c r="B268" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C268" t="n">
         <v>0.02</v>
@@ -6072,7 +6072,7 @@
         <v>13</v>
       </c>
       <c r="B269" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C269" t="n">
         <v>0.02</v>
@@ -6096,7 +6096,7 @@
         <v>13</v>
       </c>
       <c r="B270" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C270" t="n">
         <v>0.02</v>
@@ -6120,7 +6120,7 @@
         <v>13</v>
       </c>
       <c r="B271" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C271" t="n">
         <v>0.02</v>
@@ -6144,7 +6144,7 @@
         <v>13</v>
       </c>
       <c r="B272" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C272" t="n">
         <v>0.02</v>
@@ -6168,7 +6168,7 @@
         <v>13</v>
       </c>
       <c r="B273" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C273" t="n">
         <v>0.02</v>
@@ -6192,7 +6192,7 @@
         <v>13</v>
       </c>
       <c r="B274" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C274" t="n">
         <v>0.02</v>
@@ -6216,7 +6216,7 @@
         <v>13</v>
       </c>
       <c r="B275" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C275" t="n">
         <v>0.02</v>
@@ -6240,7 +6240,7 @@
         <v>13</v>
       </c>
       <c r="B276" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C276" t="n">
         <v>0.02</v>
@@ -6264,7 +6264,7 @@
         <v>13</v>
       </c>
       <c r="B277" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C277" t="n">
         <v>0.02</v>
@@ -6288,7 +6288,7 @@
         <v>13</v>
       </c>
       <c r="B278" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C278" t="n">
         <v>0.1</v>
@@ -6312,7 +6312,7 @@
         <v>13</v>
       </c>
       <c r="B279" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C279" t="n">
         <v>0.1</v>
@@ -6336,7 +6336,7 @@
         <v>13</v>
       </c>
       <c r="B280" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C280" t="n">
         <v>0.1</v>
@@ -6360,7 +6360,7 @@
         <v>13</v>
       </c>
       <c r="B281" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C281" t="n">
         <v>0.1</v>
@@ -6384,7 +6384,7 @@
         <v>13</v>
       </c>
       <c r="B282" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C282" t="n">
         <v>0.1</v>
@@ -6408,7 +6408,7 @@
         <v>13</v>
       </c>
       <c r="B283" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C283" t="n">
         <v>0.1</v>
@@ -6432,7 +6432,7 @@
         <v>13</v>
       </c>
       <c r="B284" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C284" t="n">
         <v>0.1</v>
@@ -6456,7 +6456,7 @@
         <v>13</v>
       </c>
       <c r="B285" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C285" t="n">
         <v>0.1</v>
@@ -6480,7 +6480,7 @@
         <v>13</v>
       </c>
       <c r="B286" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C286" t="n">
         <v>0.1</v>
@@ -6504,7 +6504,7 @@
         <v>13</v>
       </c>
       <c r="B287" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C287" t="n">
         <v>0.1</v>
@@ -6528,7 +6528,7 @@
         <v>13</v>
       </c>
       <c r="B288" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C288" t="n">
         <v>0.1</v>
@@ -6552,7 +6552,7 @@
         <v>13</v>
       </c>
       <c r="B289" t="n">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="C289" t="n">
         <v>0.1</v>
@@ -6576,7 +6576,7 @@
         <v>13</v>
       </c>
       <c r="B290" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C290" t="n">
         <v>0.005</v>
@@ -6600,7 +6600,7 @@
         <v>13</v>
       </c>
       <c r="B291" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C291" t="n">
         <v>0.005</v>
@@ -6624,7 +6624,7 @@
         <v>13</v>
       </c>
       <c r="B292" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C292" t="n">
         <v>0.005</v>
@@ -6648,7 +6648,7 @@
         <v>13</v>
       </c>
       <c r="B293" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C293" t="n">
         <v>0.005</v>
@@ -6672,7 +6672,7 @@
         <v>13</v>
       </c>
       <c r="B294" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C294" t="n">
         <v>0.005</v>
@@ -6696,7 +6696,7 @@
         <v>13</v>
       </c>
       <c r="B295" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C295" t="n">
         <v>0.005</v>
@@ -6720,7 +6720,7 @@
         <v>13</v>
       </c>
       <c r="B296" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C296" t="n">
         <v>0.005</v>
@@ -6744,7 +6744,7 @@
         <v>13</v>
       </c>
       <c r="B297" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C297" t="n">
         <v>0.005</v>
@@ -6768,7 +6768,7 @@
         <v>13</v>
       </c>
       <c r="B298" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C298" t="n">
         <v>0.005</v>
@@ -6792,7 +6792,7 @@
         <v>13</v>
       </c>
       <c r="B299" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C299" t="n">
         <v>0.005</v>
@@ -6816,7 +6816,7 @@
         <v>13</v>
       </c>
       <c r="B300" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C300" t="n">
         <v>0.005</v>
@@ -6840,7 +6840,7 @@
         <v>13</v>
       </c>
       <c r="B301" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C301" t="n">
         <v>0.005</v>
@@ -6864,7 +6864,7 @@
         <v>13</v>
       </c>
       <c r="B302" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C302" t="n">
         <v>0.01</v>
@@ -6888,7 +6888,7 @@
         <v>13</v>
       </c>
       <c r="B303" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C303" t="n">
         <v>0.01</v>
@@ -6912,7 +6912,7 @@
         <v>13</v>
       </c>
       <c r="B304" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C304" t="n">
         <v>0.01</v>
@@ -6936,7 +6936,7 @@
         <v>13</v>
       </c>
       <c r="B305" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C305" t="n">
         <v>0.01</v>
@@ -6960,7 +6960,7 @@
         <v>13</v>
       </c>
       <c r="B306" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C306" t="n">
         <v>0.01</v>
@@ -6984,7 +6984,7 @@
         <v>13</v>
       </c>
       <c r="B307" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C307" t="n">
         <v>0.01</v>
@@ -7008,7 +7008,7 @@
         <v>13</v>
       </c>
       <c r="B308" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C308" t="n">
         <v>0.01</v>
@@ -7032,7 +7032,7 @@
         <v>13</v>
       </c>
       <c r="B309" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C309" t="n">
         <v>0.01</v>
@@ -7056,7 +7056,7 @@
         <v>13</v>
       </c>
       <c r="B310" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C310" t="n">
         <v>0.01</v>
@@ -7080,7 +7080,7 @@
         <v>13</v>
       </c>
       <c r="B311" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C311" t="n">
         <v>0.01</v>
@@ -7104,7 +7104,7 @@
         <v>13</v>
       </c>
       <c r="B312" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C312" t="n">
         <v>0.01</v>
@@ -7128,7 +7128,7 @@
         <v>13</v>
       </c>
       <c r="B313" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C313" t="n">
         <v>0.01</v>
@@ -7152,7 +7152,7 @@
         <v>13</v>
       </c>
       <c r="B314" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C314" t="n">
         <v>0.02</v>
@@ -7176,7 +7176,7 @@
         <v>13</v>
       </c>
       <c r="B315" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C315" t="n">
         <v>0.02</v>
@@ -7200,7 +7200,7 @@
         <v>13</v>
       </c>
       <c r="B316" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C316" t="n">
         <v>0.02</v>
@@ -7224,7 +7224,7 @@
         <v>13</v>
       </c>
       <c r="B317" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C317" t="n">
         <v>0.02</v>
@@ -7248,7 +7248,7 @@
         <v>13</v>
       </c>
       <c r="B318" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C318" t="n">
         <v>0.02</v>
@@ -7272,7 +7272,7 @@
         <v>13</v>
       </c>
       <c r="B319" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C319" t="n">
         <v>0.02</v>
@@ -7296,7 +7296,7 @@
         <v>13</v>
       </c>
       <c r="B320" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C320" t="n">
         <v>0.02</v>
@@ -7320,7 +7320,7 @@
         <v>13</v>
       </c>
       <c r="B321" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C321" t="n">
         <v>0.02</v>
@@ -7344,7 +7344,7 @@
         <v>13</v>
       </c>
       <c r="B322" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C322" t="n">
         <v>0.02</v>
@@ -7368,7 +7368,7 @@
         <v>13</v>
       </c>
       <c r="B323" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C323" t="n">
         <v>0.02</v>
@@ -7392,7 +7392,7 @@
         <v>13</v>
       </c>
       <c r="B324" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C324" t="n">
         <v>0.02</v>
@@ -7416,7 +7416,7 @@
         <v>13</v>
       </c>
       <c r="B325" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C325" t="n">
         <v>0.02</v>
@@ -7440,7 +7440,7 @@
         <v>13</v>
       </c>
       <c r="B326" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C326" t="n">
         <v>0.1</v>
@@ -7464,7 +7464,7 @@
         <v>13</v>
       </c>
       <c r="B327" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C327" t="n">
         <v>0.1</v>
@@ -7488,7 +7488,7 @@
         <v>13</v>
       </c>
       <c r="B328" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C328" t="n">
         <v>0.1</v>
@@ -7512,7 +7512,7 @@
         <v>13</v>
       </c>
       <c r="B329" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C329" t="n">
         <v>0.1</v>
@@ -7536,7 +7536,7 @@
         <v>13</v>
       </c>
       <c r="B330" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C330" t="n">
         <v>0.1</v>
@@ -7560,7 +7560,7 @@
         <v>13</v>
       </c>
       <c r="B331" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C331" t="n">
         <v>0.1</v>
@@ -7584,7 +7584,7 @@
         <v>13</v>
       </c>
       <c r="B332" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C332" t="n">
         <v>0.1</v>
@@ -7608,7 +7608,7 @@
         <v>13</v>
       </c>
       <c r="B333" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C333" t="n">
         <v>0.1</v>
@@ -7632,7 +7632,7 @@
         <v>13</v>
       </c>
       <c r="B334" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C334" t="n">
         <v>0.1</v>
@@ -7656,7 +7656,7 @@
         <v>13</v>
       </c>
       <c r="B335" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C335" t="n">
         <v>0.1</v>
@@ -7680,7 +7680,7 @@
         <v>13</v>
       </c>
       <c r="B336" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C336" t="n">
         <v>0.1</v>
@@ -7704,7 +7704,7 @@
         <v>13</v>
       </c>
       <c r="B337" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
       </c>
       <c r="C337" t="n">
         <v>0.1</v>
@@ -7728,7 +7728,7 @@
         <v>13</v>
       </c>
       <c r="B338" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C338" t="n">
         <v>0.005</v>
@@ -7752,7 +7752,7 @@
         <v>13</v>
       </c>
       <c r="B339" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C339" t="n">
         <v>0.005</v>
@@ -7776,7 +7776,7 @@
         <v>13</v>
       </c>
       <c r="B340" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C340" t="n">
         <v>0.005</v>
@@ -7800,7 +7800,7 @@
         <v>13</v>
       </c>
       <c r="B341" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C341" t="n">
         <v>0.005</v>
@@ -7824,7 +7824,7 @@
         <v>13</v>
       </c>
       <c r="B342" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C342" t="n">
         <v>0.005</v>
@@ -7848,7 +7848,7 @@
         <v>13</v>
       </c>
       <c r="B343" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C343" t="n">
         <v>0.005</v>
@@ -7872,7 +7872,7 @@
         <v>13</v>
       </c>
       <c r="B344" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C344" t="n">
         <v>0.005</v>
@@ -7896,7 +7896,7 @@
         <v>13</v>
       </c>
       <c r="B345" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C345" t="n">
         <v>0.005</v>
@@ -7920,7 +7920,7 @@
         <v>13</v>
       </c>
       <c r="B346" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C346" t="n">
         <v>0.005</v>
@@ -7944,7 +7944,7 @@
         <v>13</v>
       </c>
       <c r="B347" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C347" t="n">
         <v>0.005</v>
@@ -7968,7 +7968,7 @@
         <v>13</v>
       </c>
       <c r="B348" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C348" t="n">
         <v>0.005</v>
@@ -7992,7 +7992,7 @@
         <v>13</v>
       </c>
       <c r="B349" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C349" t="n">
         <v>0.005</v>
@@ -8016,7 +8016,7 @@
         <v>13</v>
       </c>
       <c r="B350" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C350" t="n">
         <v>0.01</v>
@@ -8040,7 +8040,7 @@
         <v>13</v>
       </c>
       <c r="B351" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C351" t="n">
         <v>0.01</v>
@@ -8064,7 +8064,7 @@
         <v>13</v>
       </c>
       <c r="B352" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C352" t="n">
         <v>0.01</v>
@@ -8088,7 +8088,7 @@
         <v>13</v>
       </c>
       <c r="B353" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C353" t="n">
         <v>0.01</v>
@@ -8112,7 +8112,7 @@
         <v>13</v>
       </c>
       <c r="B354" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C354" t="n">
         <v>0.01</v>
@@ -8136,7 +8136,7 @@
         <v>13</v>
       </c>
       <c r="B355" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C355" t="n">
         <v>0.01</v>
@@ -8160,7 +8160,7 @@
         <v>13</v>
       </c>
       <c r="B356" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C356" t="n">
         <v>0.01</v>
@@ -8184,7 +8184,7 @@
         <v>13</v>
       </c>
       <c r="B357" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C357" t="n">
         <v>0.01</v>
@@ -8208,7 +8208,7 @@
         <v>13</v>
       </c>
       <c r="B358" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C358" t="n">
         <v>0.01</v>
@@ -8232,7 +8232,7 @@
         <v>13</v>
       </c>
       <c r="B359" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C359" t="n">
         <v>0.01</v>
@@ -8256,7 +8256,7 @@
         <v>13</v>
       </c>
       <c r="B360" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C360" t="n">
         <v>0.01</v>
@@ -8280,7 +8280,7 @@
         <v>13</v>
       </c>
       <c r="B361" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C361" t="n">
         <v>0.01</v>
@@ -8304,7 +8304,7 @@
         <v>13</v>
       </c>
       <c r="B362" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C362" t="n">
         <v>0.02</v>
@@ -8328,7 +8328,7 @@
         <v>13</v>
       </c>
       <c r="B363" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C363" t="n">
         <v>0.02</v>
@@ -8352,7 +8352,7 @@
         <v>13</v>
       </c>
       <c r="B364" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C364" t="n">
         <v>0.02</v>
@@ -8376,7 +8376,7 @@
         <v>13</v>
       </c>
       <c r="B365" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C365" t="n">
         <v>0.02</v>
@@ -8400,7 +8400,7 @@
         <v>13</v>
       </c>
       <c r="B366" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C366" t="n">
         <v>0.02</v>
@@ -8424,7 +8424,7 @@
         <v>13</v>
       </c>
       <c r="B367" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C367" t="n">
         <v>0.02</v>
@@ -8448,7 +8448,7 @@
         <v>13</v>
       </c>
       <c r="B368" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C368" t="n">
         <v>0.02</v>
@@ -8472,7 +8472,7 @@
         <v>13</v>
       </c>
       <c r="B369" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C369" t="n">
         <v>0.02</v>
@@ -8496,7 +8496,7 @@
         <v>13</v>
       </c>
       <c r="B370" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C370" t="n">
         <v>0.02</v>
@@ -8520,7 +8520,7 @@
         <v>13</v>
       </c>
       <c r="B371" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C371" t="n">
         <v>0.02</v>
@@ -8544,7 +8544,7 @@
         <v>13</v>
       </c>
       <c r="B372" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C372" t="n">
         <v>0.02</v>
@@ -8568,7 +8568,7 @@
         <v>13</v>
       </c>
       <c r="B373" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C373" t="n">
         <v>0.02</v>
@@ -8592,7 +8592,7 @@
         <v>13</v>
       </c>
       <c r="B374" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C374" t="n">
         <v>0.1</v>
@@ -8616,7 +8616,7 @@
         <v>13</v>
       </c>
       <c r="B375" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C375" t="n">
         <v>0.1</v>
@@ -8640,7 +8640,7 @@
         <v>13</v>
       </c>
       <c r="B376" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C376" t="n">
         <v>0.1</v>
@@ -8664,7 +8664,7 @@
         <v>13</v>
       </c>
       <c r="B377" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C377" t="n">
         <v>0.1</v>
@@ -8688,7 +8688,7 @@
         <v>13</v>
       </c>
       <c r="B378" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C378" t="n">
         <v>0.1</v>
@@ -8712,7 +8712,7 @@
         <v>13</v>
       </c>
       <c r="B379" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C379" t="n">
         <v>0.1</v>
@@ -8736,7 +8736,7 @@
         <v>13</v>
       </c>
       <c r="B380" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C380" t="n">
         <v>0.1</v>
@@ -8760,7 +8760,7 @@
         <v>13</v>
       </c>
       <c r="B381" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C381" t="n">
         <v>0.1</v>
@@ -8784,7 +8784,7 @@
         <v>13</v>
       </c>
       <c r="B382" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C382" t="n">
         <v>0.1</v>
@@ -8808,7 +8808,7 @@
         <v>13</v>
       </c>
       <c r="B383" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C383" t="n">
         <v>0.1</v>
@@ -8832,7 +8832,7 @@
         <v>13</v>
       </c>
       <c r="B384" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C384" t="n">
         <v>0.1</v>
@@ -8856,7 +8856,7 @@
         <v>13</v>
       </c>
       <c r="B385" t="n">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="C385" t="n">
         <v>0.1</v>
@@ -8880,7 +8880,7 @@
         <v>13</v>
       </c>
       <c r="B386" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C386" t="n">
         <v>0.005</v>
@@ -8904,7 +8904,7 @@
         <v>13</v>
       </c>
       <c r="B387" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C387" t="n">
         <v>0.005</v>
@@ -8928,7 +8928,7 @@
         <v>13</v>
       </c>
       <c r="B388" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C388" t="n">
         <v>0.005</v>
@@ -8952,7 +8952,7 @@
         <v>13</v>
       </c>
       <c r="B389" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C389" t="n">
         <v>0.005</v>
@@ -8976,7 +8976,7 @@
         <v>13</v>
       </c>
       <c r="B390" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C390" t="n">
         <v>0.005</v>
@@ -9000,7 +9000,7 @@
         <v>13</v>
       </c>
       <c r="B391" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C391" t="n">
         <v>0.005</v>
@@ -9024,7 +9024,7 @@
         <v>13</v>
       </c>
       <c r="B392" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C392" t="n">
         <v>0.005</v>
@@ -9048,7 +9048,7 @@
         <v>13</v>
       </c>
       <c r="B393" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C393" t="n">
         <v>0.005</v>
@@ -9072,7 +9072,7 @@
         <v>13</v>
       </c>
       <c r="B394" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C394" t="n">
         <v>0.005</v>
@@ -9096,7 +9096,7 @@
         <v>13</v>
       </c>
       <c r="B395" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C395" t="n">
         <v>0.005</v>
@@ -9120,7 +9120,7 @@
         <v>13</v>
       </c>
       <c r="B396" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C396" t="n">
         <v>0.005</v>
@@ -9144,7 +9144,7 @@
         <v>13</v>
       </c>
       <c r="B397" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C397" t="n">
         <v>0.005</v>
@@ -9168,7 +9168,7 @@
         <v>13</v>
       </c>
       <c r="B398" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C398" t="n">
         <v>0.01</v>
@@ -9192,7 +9192,7 @@
         <v>13</v>
       </c>
       <c r="B399" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C399" t="n">
         <v>0.01</v>
@@ -9216,7 +9216,7 @@
         <v>13</v>
       </c>
       <c r="B400" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C400" t="n">
         <v>0.01</v>
@@ -9240,7 +9240,7 @@
         <v>13</v>
       </c>
       <c r="B401" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C401" t="n">
         <v>0.01</v>
@@ -9264,7 +9264,7 @@
         <v>13</v>
       </c>
       <c r="B402" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C402" t="n">
         <v>0.01</v>
@@ -9288,7 +9288,7 @@
         <v>13</v>
       </c>
       <c r="B403" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C403" t="n">
         <v>0.01</v>
@@ -9312,7 +9312,7 @@
         <v>13</v>
       </c>
       <c r="B404" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C404" t="n">
         <v>0.01</v>
@@ -9336,7 +9336,7 @@
         <v>13</v>
       </c>
       <c r="B405" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C405" t="n">
         <v>0.01</v>
@@ -9360,7 +9360,7 @@
         <v>13</v>
       </c>
       <c r="B406" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C406" t="n">
         <v>0.01</v>
@@ -9384,7 +9384,7 @@
         <v>13</v>
       </c>
       <c r="B407" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C407" t="n">
         <v>0.01</v>
@@ -9408,7 +9408,7 @@
         <v>13</v>
       </c>
       <c r="B408" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C408" t="n">
         <v>0.01</v>
@@ -9432,7 +9432,7 @@
         <v>13</v>
       </c>
       <c r="B409" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C409" t="n">
         <v>0.01</v>
@@ -9456,7 +9456,7 @@
         <v>13</v>
       </c>
       <c r="B410" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C410" t="n">
         <v>0.02</v>
@@ -9480,7 +9480,7 @@
         <v>13</v>
       </c>
       <c r="B411" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C411" t="n">
         <v>0.02</v>
@@ -9504,7 +9504,7 @@
         <v>13</v>
       </c>
       <c r="B412" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C412" t="n">
         <v>0.02</v>
@@ -9528,7 +9528,7 @@
         <v>13</v>
       </c>
       <c r="B413" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C413" t="n">
         <v>0.02</v>
@@ -9552,7 +9552,7 @@
         <v>13</v>
       </c>
       <c r="B414" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C414" t="n">
         <v>0.02</v>
@@ -9576,7 +9576,7 @@
         <v>13</v>
       </c>
       <c r="B415" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C415" t="n">
         <v>0.02</v>
@@ -9600,7 +9600,7 @@
         <v>13</v>
       </c>
       <c r="B416" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C416" t="n">
         <v>0.02</v>
@@ -9624,7 +9624,7 @@
         <v>13</v>
       </c>
       <c r="B417" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C417" t="n">
         <v>0.02</v>
@@ -9648,7 +9648,7 @@
         <v>13</v>
       </c>
       <c r="B418" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C418" t="n">
         <v>0.02</v>
@@ -9672,7 +9672,7 @@
         <v>13</v>
       </c>
       <c r="B419" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C419" t="n">
         <v>0.02</v>
@@ -9696,7 +9696,7 @@
         <v>13</v>
       </c>
       <c r="B420" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C420" t="n">
         <v>0.02</v>
@@ -9720,7 +9720,7 @@
         <v>13</v>
       </c>
       <c r="B421" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C421" t="n">
         <v>0.02</v>
@@ -9744,7 +9744,7 @@
         <v>13</v>
       </c>
       <c r="B422" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C422" t="n">
         <v>0.1</v>
@@ -9768,7 +9768,7 @@
         <v>13</v>
       </c>
       <c r="B423" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C423" t="n">
         <v>0.1</v>
@@ -9792,7 +9792,7 @@
         <v>13</v>
       </c>
       <c r="B424" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C424" t="n">
         <v>0.1</v>
@@ -9816,7 +9816,7 @@
         <v>13</v>
       </c>
       <c r="B425" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C425" t="n">
         <v>0.1</v>
@@ -9840,7 +9840,7 @@
         <v>13</v>
       </c>
       <c r="B426" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C426" t="n">
         <v>0.1</v>
@@ -9864,7 +9864,7 @@
         <v>13</v>
       </c>
       <c r="B427" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C427" t="n">
         <v>0.1</v>
@@ -9888,7 +9888,7 @@
         <v>13</v>
       </c>
       <c r="B428" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C428" t="n">
         <v>0.1</v>
@@ -9912,7 +9912,7 @@
         <v>13</v>
       </c>
       <c r="B429" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C429" t="n">
         <v>0.1</v>
@@ -9936,7 +9936,7 @@
         <v>13</v>
       </c>
       <c r="B430" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C430" t="n">
         <v>0.1</v>
@@ -9960,7 +9960,7 @@
         <v>13</v>
       </c>
       <c r="B431" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C431" t="n">
         <v>0.1</v>
@@ -9984,7 +9984,7 @@
         <v>13</v>
       </c>
       <c r="B432" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C432" t="n">
         <v>0.1</v>
@@ -10008,7 +10008,7 @@
         <v>13</v>
       </c>
       <c r="B433" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
       <c r="C433" t="n">
         <v>0.1</v>
@@ -10029,9 +10029,11 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>14</v>
-      </c>
-      <c r="B434"/>
+        <v>13</v>
+      </c>
+      <c r="B434" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C434" t="n">
         <v>0.005</v>
       </c>
@@ -10051,9 +10053,11 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>14</v>
-      </c>
-      <c r="B435"/>
+        <v>13</v>
+      </c>
+      <c r="B435" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C435" t="n">
         <v>0.005</v>
       </c>
@@ -10073,9 +10077,11 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>14</v>
-      </c>
-      <c r="B436"/>
+        <v>13</v>
+      </c>
+      <c r="B436" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C436" t="n">
         <v>0.005</v>
       </c>
@@ -10095,9 +10101,11 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>14</v>
-      </c>
-      <c r="B437"/>
+        <v>13</v>
+      </c>
+      <c r="B437" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C437" t="n">
         <v>0.005</v>
       </c>
@@ -10117,9 +10125,11 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>14</v>
-      </c>
-      <c r="B438"/>
+        <v>13</v>
+      </c>
+      <c r="B438" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C438" t="n">
         <v>0.005</v>
       </c>
@@ -10139,9 +10149,11 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>14</v>
-      </c>
-      <c r="B439"/>
+        <v>13</v>
+      </c>
+      <c r="B439" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C439" t="n">
         <v>0.005</v>
       </c>
@@ -10161,9 +10173,11 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>14</v>
-      </c>
-      <c r="B440"/>
+        <v>13</v>
+      </c>
+      <c r="B440" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C440" t="n">
         <v>0.005</v>
       </c>
@@ -10183,9 +10197,11 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>14</v>
-      </c>
-      <c r="B441"/>
+        <v>13</v>
+      </c>
+      <c r="B441" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C441" t="n">
         <v>0.005</v>
       </c>
@@ -10205,9 +10221,11 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>14</v>
-      </c>
-      <c r="B442"/>
+        <v>13</v>
+      </c>
+      <c r="B442" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C442" t="n">
         <v>0.005</v>
       </c>
@@ -10227,9 +10245,11 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>14</v>
-      </c>
-      <c r="B443"/>
+        <v>13</v>
+      </c>
+      <c r="B443" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C443" t="n">
         <v>0.005</v>
       </c>
@@ -10249,9 +10269,11 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>14</v>
-      </c>
-      <c r="B444"/>
+        <v>13</v>
+      </c>
+      <c r="B444" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C444" t="n">
         <v>0.005</v>
       </c>
@@ -10271,9 +10293,11 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>14</v>
-      </c>
-      <c r="B445"/>
+        <v>13</v>
+      </c>
+      <c r="B445" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C445" t="n">
         <v>0.005</v>
       </c>
@@ -10293,9 +10317,11 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>14</v>
-      </c>
-      <c r="B446"/>
+        <v>13</v>
+      </c>
+      <c r="B446" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C446" t="n">
         <v>0.01</v>
       </c>
@@ -10315,9 +10341,11 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>14</v>
-      </c>
-      <c r="B447"/>
+        <v>13</v>
+      </c>
+      <c r="B447" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C447" t="n">
         <v>0.01</v>
       </c>
@@ -10337,9 +10365,11 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>14</v>
-      </c>
-      <c r="B448"/>
+        <v>13</v>
+      </c>
+      <c r="B448" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C448" t="n">
         <v>0.01</v>
       </c>
@@ -10359,9 +10389,11 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>14</v>
-      </c>
-      <c r="B449"/>
+        <v>13</v>
+      </c>
+      <c r="B449" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C449" t="n">
         <v>0.01</v>
       </c>
@@ -10381,9 +10413,11 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>14</v>
-      </c>
-      <c r="B450"/>
+        <v>13</v>
+      </c>
+      <c r="B450" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C450" t="n">
         <v>0.01</v>
       </c>
@@ -10403,9 +10437,11 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>14</v>
-      </c>
-      <c r="B451"/>
+        <v>13</v>
+      </c>
+      <c r="B451" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C451" t="n">
         <v>0.01</v>
       </c>
@@ -10425,9 +10461,11 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>14</v>
-      </c>
-      <c r="B452"/>
+        <v>13</v>
+      </c>
+      <c r="B452" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C452" t="n">
         <v>0.01</v>
       </c>
@@ -10447,9 +10485,11 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>14</v>
-      </c>
-      <c r="B453"/>
+        <v>13</v>
+      </c>
+      <c r="B453" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C453" t="n">
         <v>0.01</v>
       </c>
@@ -10469,9 +10509,11 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>14</v>
-      </c>
-      <c r="B454"/>
+        <v>13</v>
+      </c>
+      <c r="B454" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C454" t="n">
         <v>0.01</v>
       </c>
@@ -10491,9 +10533,11 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>14</v>
-      </c>
-      <c r="B455"/>
+        <v>13</v>
+      </c>
+      <c r="B455" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C455" t="n">
         <v>0.01</v>
       </c>
@@ -10513,9 +10557,11 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>14</v>
-      </c>
-      <c r="B456"/>
+        <v>13</v>
+      </c>
+      <c r="B456" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C456" t="n">
         <v>0.01</v>
       </c>
@@ -10535,9 +10581,11 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>14</v>
-      </c>
-      <c r="B457"/>
+        <v>13</v>
+      </c>
+      <c r="B457" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C457" t="n">
         <v>0.01</v>
       </c>
@@ -10557,9 +10605,11 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>14</v>
-      </c>
-      <c r="B458"/>
+        <v>13</v>
+      </c>
+      <c r="B458" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C458" t="n">
         <v>0.02</v>
       </c>
@@ -10579,9 +10629,11 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>14</v>
-      </c>
-      <c r="B459"/>
+        <v>13</v>
+      </c>
+      <c r="B459" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C459" t="n">
         <v>0.02</v>
       </c>
@@ -10601,9 +10653,11 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>14</v>
-      </c>
-      <c r="B460"/>
+        <v>13</v>
+      </c>
+      <c r="B460" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C460" t="n">
         <v>0.02</v>
       </c>
@@ -10623,9 +10677,11 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>14</v>
-      </c>
-      <c r="B461"/>
+        <v>13</v>
+      </c>
+      <c r="B461" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C461" t="n">
         <v>0.02</v>
       </c>
@@ -10645,9 +10701,11 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>14</v>
-      </c>
-      <c r="B462"/>
+        <v>13</v>
+      </c>
+      <c r="B462" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C462" t="n">
         <v>0.02</v>
       </c>
@@ -10667,9 +10725,11 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>14</v>
-      </c>
-      <c r="B463"/>
+        <v>13</v>
+      </c>
+      <c r="B463" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C463" t="n">
         <v>0.02</v>
       </c>
@@ -10689,9 +10749,11 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>14</v>
-      </c>
-      <c r="B464"/>
+        <v>13</v>
+      </c>
+      <c r="B464" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C464" t="n">
         <v>0.02</v>
       </c>
@@ -10711,9 +10773,11 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>14</v>
-      </c>
-      <c r="B465"/>
+        <v>13</v>
+      </c>
+      <c r="B465" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C465" t="n">
         <v>0.02</v>
       </c>
@@ -10733,9 +10797,11 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>14</v>
-      </c>
-      <c r="B466"/>
+        <v>13</v>
+      </c>
+      <c r="B466" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C466" t="n">
         <v>0.02</v>
       </c>
@@ -10755,9 +10821,11 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>14</v>
-      </c>
-      <c r="B467"/>
+        <v>13</v>
+      </c>
+      <c r="B467" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C467" t="n">
         <v>0.02</v>
       </c>
@@ -10777,9 +10845,11 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>14</v>
-      </c>
-      <c r="B468"/>
+        <v>13</v>
+      </c>
+      <c r="B468" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C468" t="n">
         <v>0.02</v>
       </c>
@@ -10799,9 +10869,11 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>14</v>
-      </c>
-      <c r="B469"/>
+        <v>13</v>
+      </c>
+      <c r="B469" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C469" t="n">
         <v>0.02</v>
       </c>
@@ -10821,9 +10893,11 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>14</v>
-      </c>
-      <c r="B470"/>
+        <v>13</v>
+      </c>
+      <c r="B470" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C470" t="n">
         <v>0.1</v>
       </c>
@@ -10843,9 +10917,11 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>14</v>
-      </c>
-      <c r="B471"/>
+        <v>13</v>
+      </c>
+      <c r="B471" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C471" t="n">
         <v>0.1</v>
       </c>
@@ -10865,9 +10941,11 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>14</v>
-      </c>
-      <c r="B472"/>
+        <v>13</v>
+      </c>
+      <c r="B472" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C472" t="n">
         <v>0.1</v>
       </c>
@@ -10887,9 +10965,11 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>14</v>
-      </c>
-      <c r="B473"/>
+        <v>13</v>
+      </c>
+      <c r="B473" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C473" t="n">
         <v>0.1</v>
       </c>
@@ -10909,9 +10989,11 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>14</v>
-      </c>
-      <c r="B474"/>
+        <v>13</v>
+      </c>
+      <c r="B474" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C474" t="n">
         <v>0.1</v>
       </c>
@@ -10931,9 +11013,11 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>14</v>
-      </c>
-      <c r="B475"/>
+        <v>13</v>
+      </c>
+      <c r="B475" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C475" t="n">
         <v>0.1</v>
       </c>
@@ -10953,9 +11037,11 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>14</v>
-      </c>
-      <c r="B476"/>
+        <v>13</v>
+      </c>
+      <c r="B476" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C476" t="n">
         <v>0.1</v>
       </c>
@@ -10975,9 +11061,11 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>14</v>
-      </c>
-      <c r="B477"/>
+        <v>13</v>
+      </c>
+      <c r="B477" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C477" t="n">
         <v>0.1</v>
       </c>
@@ -10997,9 +11085,11 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>14</v>
-      </c>
-      <c r="B478"/>
+        <v>13</v>
+      </c>
+      <c r="B478" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C478" t="n">
         <v>0.1</v>
       </c>
@@ -11019,9 +11109,11 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>14</v>
-      </c>
-      <c r="B479"/>
+        <v>13</v>
+      </c>
+      <c r="B479" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C479" t="n">
         <v>0.1</v>
       </c>
@@ -11041,9 +11133,11 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>14</v>
-      </c>
-      <c r="B480"/>
+        <v>13</v>
+      </c>
+      <c r="B480" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C480" t="n">
         <v>0.1</v>
       </c>
@@ -11063,9 +11157,11 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>14</v>
-      </c>
-      <c r="B481"/>
+        <v>13</v>
+      </c>
+      <c r="B481" t="n">
+        <v>30.0</v>
+      </c>
       <c r="C481" t="n">
         <v>0.1</v>
       </c>
@@ -11083,6 +11179,2214 @@
       <c r="I481"/>
       <c r="J481"/>
     </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>13</v>
+      </c>
+      <c r="B482" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E482" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F482" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G482"/>
+      <c r="H482"/>
+      <c r="I482"/>
+      <c r="J482"/>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>13</v>
+      </c>
+      <c r="B483" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E483" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F483" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G483"/>
+      <c r="H483"/>
+      <c r="I483"/>
+      <c r="J483"/>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>13</v>
+      </c>
+      <c r="B484" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E484" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F484" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G484"/>
+      <c r="H484"/>
+      <c r="I484"/>
+      <c r="J484"/>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>13</v>
+      </c>
+      <c r="B485" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E485" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F485" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G485"/>
+      <c r="H485"/>
+      <c r="I485"/>
+      <c r="J485"/>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>13</v>
+      </c>
+      <c r="B486" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E486" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F486" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G486"/>
+      <c r="H486"/>
+      <c r="I486"/>
+      <c r="J486"/>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>13</v>
+      </c>
+      <c r="B487" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D487" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E487" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F487" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G487"/>
+      <c r="H487"/>
+      <c r="I487"/>
+      <c r="J487"/>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>13</v>
+      </c>
+      <c r="B488" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D488" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E488" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F488" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G488"/>
+      <c r="H488"/>
+      <c r="I488"/>
+      <c r="J488"/>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>13</v>
+      </c>
+      <c r="B489" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D489" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E489" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F489" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G489"/>
+      <c r="H489"/>
+      <c r="I489"/>
+      <c r="J489"/>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>13</v>
+      </c>
+      <c r="B490" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D490" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E490" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F490" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G490"/>
+      <c r="H490"/>
+      <c r="I490"/>
+      <c r="J490"/>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>13</v>
+      </c>
+      <c r="B491" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D491" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E491" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F491" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G491"/>
+      <c r="H491"/>
+      <c r="I491"/>
+      <c r="J491"/>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>13</v>
+      </c>
+      <c r="B492" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D492" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E492" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F492" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G492"/>
+      <c r="H492"/>
+      <c r="I492"/>
+      <c r="J492"/>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>13</v>
+      </c>
+      <c r="B493" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D493" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E493" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F493" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G493"/>
+      <c r="H493"/>
+      <c r="I493"/>
+      <c r="J493"/>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>13</v>
+      </c>
+      <c r="B494" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D494" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E494" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F494" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G494"/>
+      <c r="H494"/>
+      <c r="I494"/>
+      <c r="J494"/>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>13</v>
+      </c>
+      <c r="B495" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E495" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F495" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G495"/>
+      <c r="H495"/>
+      <c r="I495"/>
+      <c r="J495"/>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>13</v>
+      </c>
+      <c r="B496" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E496" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F496" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G496"/>
+      <c r="H496"/>
+      <c r="I496"/>
+      <c r="J496"/>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>13</v>
+      </c>
+      <c r="B497" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E497" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F497" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G497"/>
+      <c r="H497"/>
+      <c r="I497"/>
+      <c r="J497"/>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>13</v>
+      </c>
+      <c r="B498" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E498" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F498" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G498"/>
+      <c r="H498"/>
+      <c r="I498"/>
+      <c r="J498"/>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>13</v>
+      </c>
+      <c r="B499" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D499" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E499" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F499" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G499"/>
+      <c r="H499"/>
+      <c r="I499"/>
+      <c r="J499"/>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>13</v>
+      </c>
+      <c r="B500" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D500" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E500" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F500" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G500"/>
+      <c r="H500"/>
+      <c r="I500"/>
+      <c r="J500"/>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>13</v>
+      </c>
+      <c r="B501" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E501" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F501" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G501"/>
+      <c r="H501"/>
+      <c r="I501"/>
+      <c r="J501"/>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>13</v>
+      </c>
+      <c r="B502" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D502" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E502" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F502" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G502"/>
+      <c r="H502"/>
+      <c r="I502"/>
+      <c r="J502"/>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>13</v>
+      </c>
+      <c r="B503" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D503" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E503" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F503" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G503"/>
+      <c r="H503"/>
+      <c r="I503"/>
+      <c r="J503"/>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>13</v>
+      </c>
+      <c r="B504" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D504" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E504" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F504" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G504"/>
+      <c r="H504"/>
+      <c r="I504"/>
+      <c r="J504"/>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>13</v>
+      </c>
+      <c r="B505" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D505" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E505" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F505" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G505"/>
+      <c r="H505"/>
+      <c r="I505"/>
+      <c r="J505"/>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>13</v>
+      </c>
+      <c r="B506" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E506" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F506" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G506"/>
+      <c r="H506"/>
+      <c r="I506"/>
+      <c r="J506"/>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>13</v>
+      </c>
+      <c r="B507" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E507" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F507" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G507"/>
+      <c r="H507"/>
+      <c r="I507"/>
+      <c r="J507"/>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>13</v>
+      </c>
+      <c r="B508" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E508" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F508" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G508"/>
+      <c r="H508"/>
+      <c r="I508"/>
+      <c r="J508"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>13</v>
+      </c>
+      <c r="B509" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E509" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F509" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G509"/>
+      <c r="H509"/>
+      <c r="I509"/>
+      <c r="J509"/>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>13</v>
+      </c>
+      <c r="B510" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D510" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E510" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F510" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G510"/>
+      <c r="H510"/>
+      <c r="I510"/>
+      <c r="J510"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>13</v>
+      </c>
+      <c r="B511" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D511" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E511" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F511" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G511"/>
+      <c r="H511"/>
+      <c r="I511"/>
+      <c r="J511"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>13</v>
+      </c>
+      <c r="B512" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D512" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E512" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F512" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G512"/>
+      <c r="H512"/>
+      <c r="I512"/>
+      <c r="J512"/>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>13</v>
+      </c>
+      <c r="B513" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D513" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E513" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F513" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G513"/>
+      <c r="H513"/>
+      <c r="I513"/>
+      <c r="J513"/>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>13</v>
+      </c>
+      <c r="B514" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D514" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E514" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F514" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G514"/>
+      <c r="H514"/>
+      <c r="I514"/>
+      <c r="J514"/>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>13</v>
+      </c>
+      <c r="B515" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D515" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E515" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F515" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G515"/>
+      <c r="H515"/>
+      <c r="I515"/>
+      <c r="J515"/>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>13</v>
+      </c>
+      <c r="B516" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D516" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E516" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F516" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G516"/>
+      <c r="H516"/>
+      <c r="I516"/>
+      <c r="J516"/>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>13</v>
+      </c>
+      <c r="B517" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D517" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E517" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F517" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G517"/>
+      <c r="H517"/>
+      <c r="I517"/>
+      <c r="J517"/>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>13</v>
+      </c>
+      <c r="B518" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E518" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F518" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G518"/>
+      <c r="H518"/>
+      <c r="I518"/>
+      <c r="J518"/>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>13</v>
+      </c>
+      <c r="B519" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E519" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F519" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G519"/>
+      <c r="H519"/>
+      <c r="I519"/>
+      <c r="J519"/>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>13</v>
+      </c>
+      <c r="B520" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E520" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F520" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G520"/>
+      <c r="H520"/>
+      <c r="I520"/>
+      <c r="J520"/>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>13</v>
+      </c>
+      <c r="B521" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E521" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F521" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G521"/>
+      <c r="H521"/>
+      <c r="I521"/>
+      <c r="J521"/>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>13</v>
+      </c>
+      <c r="B522" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D522" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E522" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F522" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G522"/>
+      <c r="H522"/>
+      <c r="I522"/>
+      <c r="J522"/>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>13</v>
+      </c>
+      <c r="B523" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E523" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F523" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G523"/>
+      <c r="H523"/>
+      <c r="I523"/>
+      <c r="J523"/>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>13</v>
+      </c>
+      <c r="B524" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D524" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E524" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F524" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G524"/>
+      <c r="H524"/>
+      <c r="I524"/>
+      <c r="J524"/>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>13</v>
+      </c>
+      <c r="B525" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D525" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E525" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F525" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G525"/>
+      <c r="H525"/>
+      <c r="I525"/>
+      <c r="J525"/>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>13</v>
+      </c>
+      <c r="B526" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D526" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E526" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F526" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G526"/>
+      <c r="H526"/>
+      <c r="I526"/>
+      <c r="J526"/>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>13</v>
+      </c>
+      <c r="B527" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D527" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E527" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F527" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G527"/>
+      <c r="H527"/>
+      <c r="I527"/>
+      <c r="J527"/>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>13</v>
+      </c>
+      <c r="B528" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D528" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E528" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F528" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G528"/>
+      <c r="H528"/>
+      <c r="I528"/>
+      <c r="J528"/>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>13</v>
+      </c>
+      <c r="B529" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D529" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E529" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F529" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G529"/>
+      <c r="H529"/>
+      <c r="I529"/>
+      <c r="J529"/>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>14</v>
+      </c>
+      <c r="B530"/>
+      <c r="C530" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E530" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F530" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G530"/>
+      <c r="H530"/>
+      <c r="I530"/>
+      <c r="J530"/>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>14</v>
+      </c>
+      <c r="B531"/>
+      <c r="C531" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E531" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F531" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G531"/>
+      <c r="H531"/>
+      <c r="I531"/>
+      <c r="J531"/>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>14</v>
+      </c>
+      <c r="B532"/>
+      <c r="C532" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E532" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F532" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G532"/>
+      <c r="H532"/>
+      <c r="I532"/>
+      <c r="J532"/>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>14</v>
+      </c>
+      <c r="B533"/>
+      <c r="C533" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E533" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F533" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G533"/>
+      <c r="H533"/>
+      <c r="I533"/>
+      <c r="J533"/>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>14</v>
+      </c>
+      <c r="B534"/>
+      <c r="C534" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D534" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E534" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F534" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G534"/>
+      <c r="H534"/>
+      <c r="I534"/>
+      <c r="J534"/>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>14</v>
+      </c>
+      <c r="B535"/>
+      <c r="C535" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D535" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E535" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F535" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G535"/>
+      <c r="H535"/>
+      <c r="I535"/>
+      <c r="J535"/>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>14</v>
+      </c>
+      <c r="B536"/>
+      <c r="C536" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E536" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F536" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G536"/>
+      <c r="H536"/>
+      <c r="I536"/>
+      <c r="J536"/>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>14</v>
+      </c>
+      <c r="B537"/>
+      <c r="C537" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D537" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E537" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F537" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G537"/>
+      <c r="H537"/>
+      <c r="I537"/>
+      <c r="J537"/>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>14</v>
+      </c>
+      <c r="B538"/>
+      <c r="C538" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D538" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E538" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F538" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G538"/>
+      <c r="H538"/>
+      <c r="I538"/>
+      <c r="J538"/>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>14</v>
+      </c>
+      <c r="B539"/>
+      <c r="C539" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D539" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E539" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F539" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G539"/>
+      <c r="H539"/>
+      <c r="I539"/>
+      <c r="J539"/>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>14</v>
+      </c>
+      <c r="B540"/>
+      <c r="C540" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D540" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E540" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F540" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G540"/>
+      <c r="H540"/>
+      <c r="I540"/>
+      <c r="J540"/>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>14</v>
+      </c>
+      <c r="B541"/>
+      <c r="C541" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D541" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E541" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F541" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G541"/>
+      <c r="H541"/>
+      <c r="I541"/>
+      <c r="J541"/>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>14</v>
+      </c>
+      <c r="B542"/>
+      <c r="C542" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E542" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F542" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G542"/>
+      <c r="H542"/>
+      <c r="I542"/>
+      <c r="J542"/>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>14</v>
+      </c>
+      <c r="B543"/>
+      <c r="C543" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E543" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F543" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G543"/>
+      <c r="H543"/>
+      <c r="I543"/>
+      <c r="J543"/>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>14</v>
+      </c>
+      <c r="B544"/>
+      <c r="C544" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E544" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F544" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G544"/>
+      <c r="H544"/>
+      <c r="I544"/>
+      <c r="J544"/>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>14</v>
+      </c>
+      <c r="B545"/>
+      <c r="C545" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E545" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F545" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G545"/>
+      <c r="H545"/>
+      <c r="I545"/>
+      <c r="J545"/>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>14</v>
+      </c>
+      <c r="B546"/>
+      <c r="C546" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D546" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E546" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F546" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G546"/>
+      <c r="H546"/>
+      <c r="I546"/>
+      <c r="J546"/>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>14</v>
+      </c>
+      <c r="B547"/>
+      <c r="C547" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E547" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F547" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G547"/>
+      <c r="H547"/>
+      <c r="I547"/>
+      <c r="J547"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>14</v>
+      </c>
+      <c r="B548"/>
+      <c r="C548" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D548" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E548" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F548" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G548"/>
+      <c r="H548"/>
+      <c r="I548"/>
+      <c r="J548"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>14</v>
+      </c>
+      <c r="B549"/>
+      <c r="C549" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D549" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E549" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F549" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G549"/>
+      <c r="H549"/>
+      <c r="I549"/>
+      <c r="J549"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>14</v>
+      </c>
+      <c r="B550"/>
+      <c r="C550" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D550" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E550" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F550" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G550"/>
+      <c r="H550"/>
+      <c r="I550"/>
+      <c r="J550"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>14</v>
+      </c>
+      <c r="B551"/>
+      <c r="C551" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D551" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E551" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F551" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G551"/>
+      <c r="H551"/>
+      <c r="I551"/>
+      <c r="J551"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>14</v>
+      </c>
+      <c r="B552"/>
+      <c r="C552" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D552" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E552" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F552" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G552"/>
+      <c r="H552"/>
+      <c r="I552"/>
+      <c r="J552"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>14</v>
+      </c>
+      <c r="B553"/>
+      <c r="C553" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D553" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E553" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F553" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G553"/>
+      <c r="H553"/>
+      <c r="I553"/>
+      <c r="J553"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>14</v>
+      </c>
+      <c r="B554"/>
+      <c r="C554" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E554" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F554" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G554"/>
+      <c r="H554"/>
+      <c r="I554"/>
+      <c r="J554"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>14</v>
+      </c>
+      <c r="B555"/>
+      <c r="C555" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D555" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E555" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F555" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G555"/>
+      <c r="H555"/>
+      <c r="I555"/>
+      <c r="J555"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>14</v>
+      </c>
+      <c r="B556"/>
+      <c r="C556" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D556" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E556" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F556" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G556"/>
+      <c r="H556"/>
+      <c r="I556"/>
+      <c r="J556"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>14</v>
+      </c>
+      <c r="B557"/>
+      <c r="C557" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D557" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E557" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F557" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G557"/>
+      <c r="H557"/>
+      <c r="I557"/>
+      <c r="J557"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>14</v>
+      </c>
+      <c r="B558"/>
+      <c r="C558" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D558" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E558" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F558" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G558"/>
+      <c r="H558"/>
+      <c r="I558"/>
+      <c r="J558"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>14</v>
+      </c>
+      <c r="B559"/>
+      <c r="C559" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D559" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E559" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F559" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G559"/>
+      <c r="H559"/>
+      <c r="I559"/>
+      <c r="J559"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>14</v>
+      </c>
+      <c r="B560"/>
+      <c r="C560" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D560" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E560" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F560" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G560"/>
+      <c r="H560"/>
+      <c r="I560"/>
+      <c r="J560"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>14</v>
+      </c>
+      <c r="B561"/>
+      <c r="C561" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D561" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E561" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F561" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G561"/>
+      <c r="H561"/>
+      <c r="I561"/>
+      <c r="J561"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>14</v>
+      </c>
+      <c r="B562"/>
+      <c r="C562" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D562" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E562" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F562" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G562"/>
+      <c r="H562"/>
+      <c r="I562"/>
+      <c r="J562"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>14</v>
+      </c>
+      <c r="B563"/>
+      <c r="C563" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D563" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E563" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F563" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G563"/>
+      <c r="H563"/>
+      <c r="I563"/>
+      <c r="J563"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>14</v>
+      </c>
+      <c r="B564"/>
+      <c r="C564" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D564" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E564" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F564" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G564"/>
+      <c r="H564"/>
+      <c r="I564"/>
+      <c r="J564"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>14</v>
+      </c>
+      <c r="B565"/>
+      <c r="C565" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D565" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E565" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F565" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G565"/>
+      <c r="H565"/>
+      <c r="I565"/>
+      <c r="J565"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>14</v>
+      </c>
+      <c r="B566"/>
+      <c r="C566" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E566" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F566" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G566"/>
+      <c r="H566"/>
+      <c r="I566"/>
+      <c r="J566"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>14</v>
+      </c>
+      <c r="B567"/>
+      <c r="C567" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E567" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F567" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G567"/>
+      <c r="H567"/>
+      <c r="I567"/>
+      <c r="J567"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>14</v>
+      </c>
+      <c r="B568"/>
+      <c r="C568" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E568" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F568" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G568"/>
+      <c r="H568"/>
+      <c r="I568"/>
+      <c r="J568"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>14</v>
+      </c>
+      <c r="B569"/>
+      <c r="C569" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="E569" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F569" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G569"/>
+      <c r="H569"/>
+      <c r="I569"/>
+      <c r="J569"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>14</v>
+      </c>
+      <c r="B570"/>
+      <c r="C570" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D570" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E570" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F570" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G570"/>
+      <c r="H570"/>
+      <c r="I570"/>
+      <c r="J570"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>14</v>
+      </c>
+      <c r="B571"/>
+      <c r="C571" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D571" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E571" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F571" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G571"/>
+      <c r="H571"/>
+      <c r="I571"/>
+      <c r="J571"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>14</v>
+      </c>
+      <c r="B572"/>
+      <c r="C572" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D572" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E572" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F572" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G572"/>
+      <c r="H572"/>
+      <c r="I572"/>
+      <c r="J572"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>14</v>
+      </c>
+      <c r="B573"/>
+      <c r="C573" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D573" t="n">
+        <v>1.5625</v>
+      </c>
+      <c r="E573" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F573" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G573"/>
+      <c r="H573"/>
+      <c r="I573"/>
+      <c r="J573"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>14</v>
+      </c>
+      <c r="B574"/>
+      <c r="C574" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D574" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E574" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F574" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G574"/>
+      <c r="H574"/>
+      <c r="I574"/>
+      <c r="J574"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>14</v>
+      </c>
+      <c r="B575"/>
+      <c r="C575" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D575" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E575" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="F575" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G575"/>
+      <c r="H575"/>
+      <c r="I575"/>
+      <c r="J575"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>14</v>
+      </c>
+      <c r="B576"/>
+      <c r="C576" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D576" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E576" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F576" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="G576"/>
+      <c r="H576"/>
+      <c r="I576"/>
+      <c r="J576"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>14</v>
+      </c>
+      <c r="B577"/>
+      <c r="C577" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D577" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="E577" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="F577" t="n">
+        <v>3000.0</v>
+      </c>
+      <c r="G577"/>
+      <c r="H577"/>
+      <c r="I577"/>
+      <c r="J577"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows,granularity) post adj.xlsx
+++ b/ForegroundJobScheduler/results/Nonoverlapping windows/summary (windows,granularity) post adj.xlsx
@@ -156,10 +156,18 @@
       <c r="F2" t="n">
         <v>100.0</v>
       </c>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="G2" t="n">
+        <v>0.33875537186453425</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9728753367621846</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6670909862399224</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -200,10 +208,16 @@
       <c r="F4" t="n">
         <v>100.0</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="G4" t="n">
+        <v>0.16974133408103617</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9787793427230047</v>
+      </c>
       <c r="I4"/>
-      <c r="J4"/>
+      <c r="J4" t="n">
+        <v>0.8605555555555555</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -244,10 +258,18 @@
       <c r="F6" t="n">
         <v>100.0</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
+      <c r="G6" t="n">
+        <v>0.3460524013870436</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9728178607467205</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7019458083287871</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
@@ -288,10 +310,16 @@
       <c r="F8" t="n">
         <v>100.0</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="G8" t="n">
+        <v>0.17396816645711238</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9787275950364388</v>
+      </c>
       <c r="I8"/>
-      <c r="J8"/>
+      <c r="J8" t="n">
+        <v>0.8738888888888889</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
@@ -332,10 +360,18 @@
       <c r="F10" t="n">
         <v>100.0</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
+      <c r="G10" t="n">
+        <v>0.3497051952288692</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9728547536343753</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.7266169606595139</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -376,10 +412,16 @@
       <c r="F12" t="n">
         <v>100.0</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
+      <c r="G12" t="n">
+        <v>0.17664165967282913</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9784026079869601</v>
+      </c>
       <c r="I12"/>
-      <c r="J12"/>
+      <c r="J12" t="n">
+        <v>0.8781481481481481</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -420,10 +462,18 @@
       <c r="F14" t="n">
         <v>100.0</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
+      <c r="G14" t="n">
+        <v>0.3476285815703992</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.974167100468506</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.772774107521668</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
@@ -464,10 +514,16 @@
       <c r="F16" t="n">
         <v>100.0</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
+      <c r="G16" t="n">
+        <v>0.17299594972798682</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9785907295780503</v>
+      </c>
       <c r="I16"/>
-      <c r="J16"/>
+      <c r="J16" t="n">
+        <v>0.8912962962962963</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
@@ -508,10 +564,18 @@
       <c r="F18" t="n">
         <v>100.0</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
+      <c r="G18" t="n">
+        <v>0.3809640099915847</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9672040703733219</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.6672123196313811</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -552,10 +616,16 @@
       <c r="F20" t="n">
         <v>100.0</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
+      <c r="G20" t="n">
+        <v>0.21286062017741395</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9684269874083818</v>
+      </c>
       <c r="I20"/>
-      <c r="J20"/>
+      <c r="J20" t="n">
+        <v>0.8605555555555555</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -596,10 +666,18 @@
       <c r="F22" t="n">
         <v>100.0</v>
       </c>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="G22" t="n">
+        <v>0.3895464461346116</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9671168896743246</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.7020734812659148</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -640,10 +718,16 @@
       <c r="F24" t="n">
         <v>100.0</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
+      <c r="G24" t="n">
+        <v>0.21747492310393085</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9680913925546583</v>
+      </c>
       <c r="I24"/>
-      <c r="J24"/>
+      <c r="J24" t="n">
+        <v>0.8738888888888889</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -684,10 +768,18 @@
       <c r="F26" t="n">
         <v>100.0</v>
       </c>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
+      <c r="G26" t="n">
+        <v>0.3941929515166779</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9668810289389067</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.7267491208924457</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -728,10 +820,16 @@
       <c r="F28" t="n">
         <v>100.0</v>
       </c>
-      <c r="G28"/>
-      <c r="H28"/>
+      <c r="G28" t="n">
+        <v>0.22080555517808947</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9692714692714692</v>
+      </c>
       <c r="I28"/>
-      <c r="J28"/>
+      <c r="J28" t="n">
+        <v>0.8781481481481481</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -772,10 +870,18 @@
       <c r="F30" t="n">
         <v>100.0</v>
       </c>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
+      <c r="G30" t="n">
+        <v>0.393080914356759</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.968390243902439</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.7728677941443899</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -816,10 +922,16 @@
       <c r="F32" t="n">
         <v>100.0</v>
       </c>
-      <c r="G32"/>
-      <c r="H32"/>
+      <c r="G32" t="n">
+        <v>0.21684603300394423</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9721760797342193</v>
+      </c>
       <c r="I32"/>
-      <c r="J32"/>
+      <c r="J32" t="n">
+        <v>0.8912962962962963</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -860,10 +972,18 @@
       <c r="F34" t="n">
         <v>100.0</v>
       </c>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
+      <c r="G34" t="n">
+        <v>0.4266875168488378</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9609807054196878</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.6673741661613098</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -904,10 +1024,16 @@
       <c r="F36" t="n">
         <v>100.0</v>
       </c>
-      <c r="G36"/>
-      <c r="H36"/>
+      <c r="G36" t="n">
+        <v>0.2702126486256718</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.949830252734817</v>
+      </c>
       <c r="I36"/>
-      <c r="J36"/>
+      <c r="J36" t="n">
+        <v>0.8605555555555555</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -948,10 +1074,18 @@
       <c r="F38" t="n">
         <v>100.0</v>
       </c>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
+      <c r="G38" t="n">
+        <v>0.4369753471871765</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9606045276337423</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.7022012006549027</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -992,10 +1126,16 @@
       <c r="F40" t="n">
         <v>100.0</v>
       </c>
-      <c r="G40"/>
-      <c r="H40"/>
+      <c r="G40" t="n">
+        <v>0.2755068321414924</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9497932663910219</v>
+      </c>
       <c r="I40"/>
-      <c r="J40"/>
+      <c r="J40" t="n">
+        <v>0.8738888888888889</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1036,10 +1176,18 @@
       <c r="F42" t="n">
         <v>100.0</v>
       </c>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
+      <c r="G42" t="n">
+        <v>0.4424339343465518</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9604610728314766</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.726881329209872</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1080,10 +1228,16 @@
       <c r="F44" t="n">
         <v>100.0</v>
       </c>
-      <c r="G44"/>
-      <c r="H44"/>
+      <c r="G44" t="n">
+        <v>0.2787191698681196</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.9507399148591121</v>
+      </c>
       <c r="I44"/>
-      <c r="J44"/>
+      <c r="J44" t="n">
+        <v>0.8781481481481481</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1124,10 +1278,18 @@
       <c r="F46" t="n">
         <v>100.0</v>
       </c>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
+      <c r="G46" t="n">
+        <v>0.4417328848084756</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9616636292632127</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.7730883512218786</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1168,10 +1330,16 @@
       <c r="F48" t="n">
         <v>100.0</v>
       </c>
-      <c r="G48"/>
-      <c r="H48"/>
+      <c r="G48" t="n">
+        <v>0.2735112423137792</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9520378756689996</v>
+      </c>
       <c r="I48"/>
-      <c r="J48"/>
+      <c r="J48" t="n">
+        <v>0.8912962962962963</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1212,10 +1380,18 @@
       <c r="F50" t="n">
         <v>100.0</v>
       </c>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
+      <c r="G50" t="n">
+        <v>0.5804113409598435</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9063848414733288</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9032258064516129</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.6757322175732218</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
@@ -1256,10 +1432,18 @@
       <c r="F52" t="n">
         <v>100.0</v>
       </c>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
+      <c r="G52" t="n">
+        <v>0.4534859321011006</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8967828418230563</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.8632224493588553</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1300,10 +1484,18 @@
       <c r="F54" t="n">
         <v>100.0</v>
       </c>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
+      <c r="G54" t="n">
+        <v>0.5914235601254529</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.907449064849926</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.902127659574468</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.7106055948355364</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1344,10 +1536,18 @@
       <c r="F56" t="n">
         <v>100.0</v>
       </c>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
+      <c r="G56" t="n">
+        <v>0.46335581627362776</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.8960702174346699</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8764170228582048</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
@@ -1388,10 +1588,18 @@
       <c r="F58" t="n">
         <v>100.0</v>
       </c>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
+      <c r="G58" t="n">
+        <v>0.5959523039271087</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.909037673238337</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.7355707173151392</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
@@ -1432,10 +1640,18 @@
       <c r="F60" t="n">
         <v>100.0</v>
       </c>
-      <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
+      <c r="G60" t="n">
+        <v>0.46803121679582776</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8963128946832348</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.8806913213157406</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
@@ -1476,10 +1692,18 @@
       <c r="F62" t="n">
         <v>100.0</v>
       </c>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
+      <c r="G62" t="n">
+        <v>0.5923829503517583</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.913769396975054</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.9150326797385621</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.7791643726677678</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
@@ -1520,10 +1744,18 @@
       <c r="F64" t="n">
         <v>100.0</v>
       </c>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
-      <c r="J64"/>
+      <c r="G64" t="n">
+        <v>0.4625078941598958</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9002267573696145</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.893719806763285</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
@@ -1564,10 +1796,18 @@
       <c r="F66" t="n">
         <v>100.0</v>
       </c>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
+      <c r="G66" t="n">
+        <v>0.210610301690904</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9967716391545349</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.16077705827937094</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
@@ -1608,10 +1848,18 @@
       <c r="F68" t="n">
         <v>100.0</v>
       </c>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
-      <c r="J68"/>
+      <c r="G68" t="n">
+        <v>0.13034094153537665</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9934944237918215</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.1487915407854985</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
@@ -1652,10 +1900,18 @@
       <c r="F70" t="n">
         <v>100.0</v>
       </c>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
+      <c r="G70" t="n">
+        <v>0.19648188310801212</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9970154708247045</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.7243816254416962</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.19892705185916015</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
@@ -1696,10 +1952,18 @@
       <c r="F72" t="n">
         <v>100.0</v>
       </c>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
+      <c r="G72" t="n">
+        <v>0.10517510906717331</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.9946096654275093</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.19710090361445784</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
@@ -1740,10 +2004,18 @@
       <c r="F74" t="n">
         <v>100.0</v>
       </c>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
-      <c r="J74"/>
+      <c r="G74" t="n">
+        <v>0.1823537221655119</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9970152890296644</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.22653841410778147</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
@@ -1784,10 +2056,18 @@
       <c r="F76" t="n">
         <v>100.0</v>
       </c>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
-      <c r="J76"/>
+      <c r="G76" t="n">
+        <v>0.09769700890222745</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9947965062256087</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.23933070125963526</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
@@ -1828,10 +2108,18 @@
       <c r="F78" t="n">
         <v>100.0</v>
       </c>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
+      <c r="G78" t="n">
+        <v>0.16088802918800854</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9971369395711501</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.7392739273927392</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.3145026856825338</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
@@ -1872,10 +2160,18 @@
       <c r="F80" t="n">
         <v>100.0</v>
       </c>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
+      <c r="G80" t="n">
+        <v>0.09058979462932586</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.996840735922691</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.34319080806178187</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
@@ -1916,10 +2212,18 @@
       <c r="F82" t="n">
         <v>100.0</v>
       </c>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
+      <c r="G82" t="n">
+        <v>0.23726537715787802</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9968325516233173</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.16077705827937094</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
@@ -1960,10 +2264,18 @@
       <c r="F84" t="n">
         <v>100.0</v>
       </c>
-      <c r="G84"/>
-      <c r="H84"/>
-      <c r="I84"/>
-      <c r="J84"/>
+      <c r="G84" t="n">
+        <v>0.14078007700667944</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9933085501858736</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.6509433962264151</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.14865885908575746</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
@@ -2004,10 +2316,18 @@
       <c r="F86" t="n">
         <v>100.0</v>
       </c>
-      <c r="G86"/>
-      <c r="H86"/>
-      <c r="I86"/>
-      <c r="J86"/>
+      <c r="G86" t="n">
+        <v>0.2147436602019515</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9969545620660251</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.7243816254416962</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.19892705185916015</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
@@ -2048,10 +2368,18 @@
       <c r="F88" t="n">
         <v>100.0</v>
       </c>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="I88"/>
-      <c r="J88"/>
+      <c r="G88" t="n">
+        <v>0.11817108246361253</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.9944237918215614</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.19710090361445784</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -2092,10 +2420,18 @@
       <c r="F90" t="n">
         <v>100.0</v>
       </c>
-      <c r="G90"/>
-      <c r="H90"/>
-      <c r="I90"/>
-      <c r="J90"/>
+      <c r="G90" t="n">
+        <v>0.20284092476479193</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.9969541910331384</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.22653841410778147</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
@@ -2136,10 +2472,18 @@
       <c r="F92" t="n">
         <v>100.0</v>
       </c>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="I92"/>
-      <c r="J92"/>
+      <c r="G92" t="n">
+        <v>0.10265029446835945</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.9949823452889798</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.23933070125963526</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
@@ -2180,10 +2524,18 @@
       <c r="F94" t="n">
         <v>100.0</v>
       </c>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94"/>
+      <c r="G94" t="n">
+        <v>0.17636515761056237</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.9970758452634785</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.7435064935064936</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.3145998023715415</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
@@ -2224,10 +2576,18 @@
       <c r="F96" t="n">
         <v>100.0</v>
       </c>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
+      <c r="G96" t="n">
+        <v>0.09785383938227683</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.996840735922691</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.34319080806178187</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -2268,10 +2628,18 @@
       <c r="F98" t="n">
         <v>100.0</v>
       </c>
-      <c r="G98"/>
-      <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98"/>
+      <c r="G98" t="n">
+        <v>0.25973492285528177</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.996588693957115</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.1611626468769326</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -2312,10 +2680,18 @@
       <c r="F100" t="n">
         <v>100.0</v>
       </c>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="I100"/>
-      <c r="J100"/>
+      <c r="G100" t="n">
+        <v>0.15106794911232385</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.9929368029739777</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.14833711262282692</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
@@ -2356,10 +2732,18 @@
       <c r="F102" t="n">
         <v>100.0</v>
       </c>
-      <c r="G102"/>
-      <c r="H102"/>
-      <c r="I102"/>
-      <c r="J102"/>
+      <c r="G102" t="n">
+        <v>0.23975363504999556</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.996832358674464</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.7614678899082569</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.19946824955172202</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
@@ -2400,10 +2784,18 @@
       <c r="F104" t="n">
         <v>100.0</v>
       </c>
-      <c r="G104"/>
-      <c r="H104"/>
-      <c r="I104"/>
-      <c r="J104"/>
+      <c r="G104" t="n">
+        <v>0.12742313672687225</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9940520446096655</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.7415730337078652</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.19694972698173602</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
@@ -2444,10 +2836,18 @@
       <c r="F106" t="n">
         <v>100.0</v>
       </c>
-      <c r="G106"/>
-      <c r="H106"/>
-      <c r="I106"/>
-      <c r="J106"/>
+      <c r="G106" t="n">
+        <v>0.22742163338150168</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.9968321657021018</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.7492354740061162</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.22710690657268287</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
@@ -2488,10 +2888,18 @@
       <c r="F108" t="n">
         <v>100.0</v>
       </c>
-      <c r="G108"/>
-      <c r="H108"/>
-      <c r="I108"/>
-      <c r="J108"/>
+      <c r="G108" t="n">
+        <v>0.10920348750984848</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.9947965062256087</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.23832831325301204</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
@@ -2532,10 +2940,18 @@
       <c r="F110" t="n">
         <v>100.0</v>
       </c>
-      <c r="G110"/>
-      <c r="H110"/>
-      <c r="I110"/>
-      <c r="J110"/>
+      <c r="G110" t="n">
+        <v>0.20117989663250102</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.9970758452634785</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.7799442896935933</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.3155938293786011</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
@@ -2576,10 +2992,18 @@
       <c r="F112" t="n">
         <v>100.0</v>
       </c>
-      <c r="G112"/>
-      <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112"/>
+      <c r="G112" t="n">
+        <v>0.10004735386204039</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9962832187325776</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.34319080806178187</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
@@ -2620,10 +3044,18 @@
       <c r="F114" t="n">
         <v>100.0</v>
       </c>
-      <c r="G114"/>
-      <c r="H114"/>
-      <c r="I114"/>
-      <c r="J114"/>
+      <c r="G114" t="n">
+        <v>0.3493909380342041</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.9956126987995857</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.8728139904610492</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.16407283725033078</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
@@ -2664,10 +3096,18 @@
       <c r="F116" t="n">
         <v>100.0</v>
       </c>
-      <c r="G116"/>
-      <c r="H116"/>
-      <c r="I116"/>
-      <c r="J116"/>
+      <c r="G116" t="n">
+        <v>0.20324905489762463</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.9903237811685895</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.6766917293233082</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.14828175431934687</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
@@ -2708,10 +3148,18 @@
       <c r="F118" t="n">
         <v>100.0</v>
       </c>
-      <c r="G118"/>
-      <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118"/>
+      <c r="G118" t="n">
+        <v>0.32686421137451915</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9960394833048989</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.8729903536977492</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.20311122307595414</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
@@ -2752,10 +3200,18 @@
       <c r="F120" t="n">
         <v>100.0</v>
       </c>
-      <c r="G120"/>
-      <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120"/>
+      <c r="G120" t="n">
+        <v>0.17340777648627465</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.9927441860465116</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.7422680412371134</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.19686969639826513</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
@@ -2796,10 +3252,18 @@
       <c r="F122" t="n">
         <v>100.0</v>
       </c>
-      <c r="G122"/>
-      <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122"/>
+      <c r="G122" t="n">
+        <v>0.3127939273266636</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.9961001767107428</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.8651685393258427</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.231214965043774</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
@@ -2840,10 +3304,18 @@
       <c r="F124" t="n">
         <v>100.0</v>
       </c>
-      <c r="G124"/>
-      <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124"/>
+      <c r="G124" t="n">
+        <v>0.1485865100038233</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.9931213980293735</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.7578947368421053</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.23845428840716307</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
@@ -2884,10 +3356,18 @@
       <c r="F126" t="n">
         <v>100.0</v>
       </c>
-      <c r="G126"/>
-      <c r="H126"/>
-      <c r="I126"/>
-      <c r="J126"/>
+      <c r="G126" t="n">
+        <v>0.27353187139307616</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.99652714311826</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.8360323886639676</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.3181307009871298</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
@@ -2928,10 +3408,18 @@
       <c r="F128" t="n">
         <v>100.0</v>
       </c>
-      <c r="G128"/>
-      <c r="H128"/>
-      <c r="I128"/>
-      <c r="J128"/>
+      <c r="G128" t="n">
+        <v>0.1305502455516076</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.995539033457249</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
@@ -2972,10 +3460,18 @@
       <c r="F130" t="n">
         <v>100.0</v>
       </c>
-      <c r="G130"/>
-      <c r="H130"/>
-      <c r="I130"/>
-      <c r="J130"/>
+      <c r="G130" t="n">
+        <v>0.366138480554736</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.9938452163315051</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9027946537059538</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.16610320852203866</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
@@ -3016,10 +3512,18 @@
       <c r="F132" t="n">
         <v>100.0</v>
       </c>
-      <c r="G132"/>
-      <c r="H132"/>
-      <c r="I132"/>
-      <c r="J132"/>
+      <c r="G132" t="n">
+        <v>0.21274585613337957</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.9895794566430964</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.674074074074074</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.14814814814814814</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
@@ -3060,10 +3564,18 @@
       <c r="F134" t="n">
         <v>100.0</v>
       </c>
-      <c r="G134"/>
-      <c r="H134"/>
-      <c r="I134"/>
-      <c r="J134"/>
+      <c r="G134" t="n">
+        <v>0.3407830640768792</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.9946374162096283</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.8910081743869209</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.20449067613852595</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
@@ -3104,10 +3616,18 @@
       <c r="F136" t="n">
         <v>100.0</v>
       </c>
-      <c r="G136"/>
-      <c r="H136"/>
-      <c r="I136"/>
-      <c r="J136"/>
+      <c r="G136" t="n">
+        <v>0.18002057696390297</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.9921860465116279</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.7614678899082569</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.19712719712719712</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
@@ -3148,10 +3668,18 @@
       <c r="F138" t="n">
         <v>100.0</v>
       </c>
-      <c r="G138"/>
-      <c r="H138"/>
-      <c r="I138"/>
-      <c r="J138"/>
+      <c r="G138" t="n">
+        <v>0.325932694295322</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.994759293113955</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.8852459016393442</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.2328132927447996</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
@@ -3192,10 +3720,18 @@
       <c r="F140" t="n">
         <v>100.0</v>
       </c>
-      <c r="G140"/>
-      <c r="H140"/>
-      <c r="I140"/>
-      <c r="J140"/>
+      <c r="G140" t="n">
+        <v>0.15995756413720952</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.9925581395348837</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.7830188679245284</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.23894975443898753</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
@@ -3236,10 +3772,18 @@
       <c r="F142" t="n">
         <v>100.0</v>
       </c>
-      <c r="G142"/>
-      <c r="H142"/>
-      <c r="I142"/>
-      <c r="J142"/>
+      <c r="G142" t="n">
+        <v>0.29024081770942595</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.9959775719161384</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.848314606741573</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.31892772140799197</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
@@ -3280,10 +3824,18 @@
       <c r="F144" t="n">
         <v>100.0</v>
       </c>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144"/>
+      <c r="G144" t="n">
+        <v>0.14101357279591734</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.9949776785714286</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
@@ -3324,10 +3876,18 @@
       <c r="F146" t="n">
         <v>100.0</v>
       </c>
-      <c r="G146"/>
-      <c r="H146"/>
-      <c r="I146"/>
-      <c r="J146"/>
+      <c r="G146" t="n">
+        <v>0.37729103002113884</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.9919556341032361</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.9038238702201622</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.16633625375711453</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
@@ -3368,10 +3928,18 @@
       <c r="F148" t="n">
         <v>100.0</v>
       </c>
-      <c r="G148"/>
-      <c r="H148"/>
-      <c r="I148"/>
-      <c r="J148"/>
+      <c r="G148" t="n">
+        <v>0.2248592877563947</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.9890212132489765</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.674074074074074</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.14814814814814814</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
@@ -3412,10 +3980,18 @@
       <c r="F150" t="n">
         <v>100.0</v>
       </c>
-      <c r="G150"/>
-      <c r="H150"/>
-      <c r="I150"/>
-      <c r="J150"/>
+      <c r="G150" t="n">
+        <v>0.35851585600988134</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.9929307087573892</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.9045936395759717</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.20592933358890805</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
@@ -3456,10 +4032,18 @@
       <c r="F152" t="n">
         <v>100.0</v>
       </c>
-      <c r="G152"/>
-      <c r="H152"/>
-      <c r="I152"/>
-      <c r="J152"/>
+      <c r="G152" t="n">
+        <v>0.19084917084030956</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.9918139534883721</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.19716446124763706</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
@@ -3500,10 +4084,18 @@
       <c r="F154" t="n">
         <v>100.0</v>
       </c>
-      <c r="G154"/>
-      <c r="H154"/>
-      <c r="I154"/>
-      <c r="J154"/>
+      <c r="G154" t="n">
+        <v>0.34170300994729513</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.9931139549055454</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.8884462151394422</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.23312376960690925</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
@@ -3544,10 +4136,18 @@
       <c r="F156" t="n">
         <v>100.0</v>
       </c>
-      <c r="G156"/>
-      <c r="H156"/>
-      <c r="I156"/>
-      <c r="J156"/>
+      <c r="G156" t="n">
+        <v>0.16893546255380976</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.7850467289719626</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.238994898923106</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
@@ -3588,10 +4188,18 @@
       <c r="F158" t="n">
         <v>100.0</v>
       </c>
-      <c r="G158"/>
-      <c r="H158"/>
-      <c r="I158"/>
-      <c r="J158"/>
+      <c r="G158" t="n">
+        <v>0.2919524993390603</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.9931118561414203</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.8545780969479354</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.3193878191055636</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
@@ -3632,10 +4240,18 @@
       <c r="F160" t="n">
         <v>100.0</v>
       </c>
-      <c r="G160"/>
-      <c r="H160"/>
-      <c r="I160"/>
-      <c r="J160"/>
+      <c r="G160" t="n">
+        <v>0.14531253528012134</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.9947897283215482</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
@@ -3676,10 +4292,18 @@
       <c r="F162" t="n">
         <v>100.0</v>
       </c>
-      <c r="G162"/>
-      <c r="H162"/>
-      <c r="I162"/>
-      <c r="J162"/>
+      <c r="G162" t="n">
+        <v>0.39566222388346123</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.9910404095812763</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.905829596412556</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.16658124038954383</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
@@ -3720,10 +4344,18 @@
       <c r="F164" t="n">
         <v>100.0</v>
       </c>
-      <c r="G164"/>
-      <c r="H164"/>
-      <c r="I164"/>
-      <c r="J164"/>
+      <c r="G164" t="n">
+        <v>0.22942308589010946</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.9888309754281459</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.14817629179331307</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
@@ -3764,10 +4396,18 @@
       <c r="F166" t="n">
         <v>100.0</v>
       </c>
-      <c r="G166"/>
-      <c r="H166"/>
-      <c r="I166"/>
-      <c r="J166"/>
+      <c r="G166" t="n">
+        <v>0.3690547787848897</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.9915285226718674</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.9080590238365494</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.2063512388757283</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
@@ -3808,10 +4448,18 @@
       <c r="F168" t="n">
         <v>100.0</v>
       </c>
-      <c r="G168"/>
-      <c r="H168"/>
-      <c r="I168"/>
-      <c r="J168"/>
+      <c r="G168" t="n">
+        <v>0.19744362085352976</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.9916279069767442</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.7657657657657657</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.19720173945925507</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
@@ -3852,10 +4500,18 @@
       <c r="F170" t="n">
         <v>100.0</v>
       </c>
-      <c r="G170"/>
-      <c r="H170"/>
-      <c r="I170"/>
-      <c r="J170"/>
+      <c r="G170" t="n">
+        <v>0.35197781385888527</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.9918337497714669</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.9038901601830663</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.23492896454626905</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
@@ -3896,10 +4552,18 @@
       <c r="F172" t="n">
         <v>100.0</v>
       </c>
-      <c r="G172"/>
-      <c r="H172"/>
-      <c r="I172"/>
-      <c r="J172"/>
+      <c r="G172" t="n">
+        <v>0.17520041951098103</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.7870370370370371</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.2390400604686319</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
@@ -3940,10 +4604,18 @@
       <c r="F174" t="n">
         <v>100.0</v>
       </c>
-      <c r="G174"/>
-      <c r="H174"/>
-      <c r="I174"/>
-      <c r="J174"/>
+      <c r="G174" t="n">
+        <v>0.3056549013920648</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.9931114362350646</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.8772727272727273</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.32146464646464645</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
@@ -3984,10 +4656,18 @@
       <c r="F176" t="n">
         <v>100.0</v>
       </c>
-      <c r="G176"/>
-      <c r="H176"/>
-      <c r="I176"/>
-      <c r="J176"/>
+      <c r="G176" t="n">
+        <v>0.15179434911552409</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.9946036471901749</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
@@ -4028,10 +4708,18 @@
       <c r="F178" t="n">
         <v>100.0</v>
       </c>
-      <c r="G178"/>
-      <c r="H178"/>
-      <c r="I178"/>
-      <c r="J178"/>
+      <c r="G178" t="n">
+        <v>0.40616487655782785</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.9903072421360644</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.9079497907949791</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.1670097786927432</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
@@ -4072,10 +4760,18 @@
       <c r="F180" t="n">
         <v>100.0</v>
       </c>
-      <c r="G180"/>
-      <c r="H180"/>
-      <c r="I180"/>
-      <c r="J180"/>
+      <c r="G180" t="n">
+        <v>0.2407975121353226</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.988268156424581</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.14817629179331307</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
@@ -4116,10 +4812,18 @@
       <c r="F182" t="n">
         <v>100.0</v>
       </c>
-      <c r="G182"/>
-      <c r="H182"/>
-      <c r="I182"/>
-      <c r="J182"/>
+      <c r="G182" t="n">
+        <v>0.38266005781427403</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.9907960502255272</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.9124472573839663</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.2071116255144033</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
@@ -4160,10 +4864,18 @@
       <c r="F184" t="n">
         <v>100.0</v>
       </c>
-      <c r="G184"/>
-      <c r="H184"/>
-      <c r="I184"/>
-      <c r="J184"/>
+      <c r="G184" t="n">
+        <v>0.2066018584477749</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.9916247906197655</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.7657657657657657</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.19720173945925507</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
@@ -4204,10 +4916,18 @@
       <c r="F186" t="n">
         <v>100.0</v>
       </c>
-      <c r="G186"/>
-      <c r="H186"/>
-      <c r="I186"/>
-      <c r="J186"/>
+      <c r="G186" t="n">
+        <v>0.3630914927029465</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.991284207960017</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.91005291005291</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.23593699774991964</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
@@ -4248,10 +4968,18 @@
       <c r="F188" t="n">
         <v>100.0</v>
       </c>
-      <c r="G188"/>
-      <c r="H188"/>
-      <c r="I188"/>
-      <c r="J188"/>
+      <c r="G188" t="n">
+        <v>0.1840316641030435</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.9916279069767442</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.7870370370370371</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.2390400604686319</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
@@ -4292,10 +5020,18 @@
       <c r="F190" t="n">
         <v>100.0</v>
       </c>
-      <c r="G190"/>
-      <c r="H190"/>
-      <c r="I190"/>
-      <c r="J190"/>
+      <c r="G190" t="n">
+        <v>0.31489450834314237</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.9912826139965862</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.8848314606741573</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.3224600962756524</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
@@ -4336,10 +5072,18 @@
       <c r="F192" t="n">
         <v>100.0</v>
       </c>
-      <c r="G192"/>
-      <c r="H192"/>
-      <c r="I192"/>
-      <c r="J192"/>
+      <c r="G192" t="n">
+        <v>0.15724306710743088</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.9947897283215482</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
@@ -4380,10 +5124,18 @@
       <c r="F194" t="n">
         <v>100.0</v>
       </c>
-      <c r="G194"/>
-      <c r="H194"/>
-      <c r="I194"/>
-      <c r="J194"/>
+      <c r="G194" t="n">
+        <v>0.2764719109546575</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.9952051468803108</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.16077705827937094</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
@@ -4424,10 +5176,18 @@
       <c r="F196" t="n">
         <v>100.0</v>
       </c>
-      <c r="G196"/>
-      <c r="H196"/>
-      <c r="I196"/>
-      <c r="J196"/>
+      <c r="G196" t="n">
+        <v>0.18231264115259835</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.9968471810089021</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.1487915407854985</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
@@ -4468,10 +5228,18 @@
       <c r="F198" t="n">
         <v>100.0</v>
       </c>
-      <c r="G198"/>
-      <c r="H198"/>
-      <c r="I198"/>
-      <c r="J198"/>
+      <c r="G198" t="n">
+        <v>0.26111630852235324</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.9949007466763795</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.7243816254416962</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.19892705185916015</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
@@ -4512,10 +5280,18 @@
       <c r="F200" t="n">
         <v>100.0</v>
       </c>
-      <c r="G200"/>
-      <c r="H200"/>
-      <c r="I200"/>
-      <c r="J200"/>
+      <c r="G200" t="n">
+        <v>0.16227042052810153</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.9981474620229714</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.19710090361445784</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
@@ -4556,10 +5332,18 @@
       <c r="F202" t="n">
         <v>100.0</v>
       </c>
-      <c r="G202"/>
-      <c r="H202"/>
-      <c r="I202"/>
-      <c r="J202"/>
+      <c r="G202" t="n">
+        <v>0.247733272470374</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.9953866699040913</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.22653841410778147</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
@@ -4600,10 +5384,18 @@
       <c r="F204" t="n">
         <v>100.0</v>
       </c>
-      <c r="G204"/>
-      <c r="H204"/>
-      <c r="I204"/>
-      <c r="J204"/>
+      <c r="G204" t="n">
+        <v>0.1476759034108492</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.9981474620229714</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.23933070125963526</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
@@ -4644,10 +5436,18 @@
       <c r="F206" t="n">
         <v>100.0</v>
       </c>
-      <c r="G206"/>
-      <c r="H206"/>
-      <c r="I206"/>
-      <c r="J206"/>
+      <c r="G206" t="n">
+        <v>0.21540169340179752</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.9950783813343055</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.7392739273927392</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.3145026856825338</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
@@ -4688,10 +5488,18 @@
       <c r="F208" t="n">
         <v>100.0</v>
       </c>
-      <c r="G208"/>
-      <c r="H208"/>
-      <c r="I208"/>
-      <c r="J208"/>
+      <c r="G208" t="n">
+        <v>0.12903193038177851</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.9983327158206743</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.34319080806178187</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
@@ -4732,10 +5540,18 @@
       <c r="F210" t="n">
         <v>100.0</v>
       </c>
-      <c r="G210"/>
-      <c r="H210"/>
-      <c r="I210"/>
-      <c r="J210"/>
+      <c r="G210" t="n">
+        <v>0.29845875329786087</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.9947179891931273</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.7298245614035088</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.16077705827937094</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
@@ -4776,10 +5592,18 @@
       <c r="F212" t="n">
         <v>100.0</v>
       </c>
-      <c r="G212"/>
-      <c r="H212"/>
-      <c r="I212"/>
-      <c r="J212"/>
+      <c r="G212" t="n">
+        <v>0.19610801542884834</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.9968471810089021</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.6509433962264151</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.14865885908575746</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
@@ -4820,10 +5644,18 @@
       <c r="F214" t="n">
         <v>100.0</v>
       </c>
-      <c r="G214"/>
-      <c r="H214"/>
-      <c r="I214"/>
-      <c r="J214"/>
+      <c r="G214" t="n">
+        <v>0.2826009012846649</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.9945351873216346</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.7243816254416962</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.19892705185916015</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
@@ -4864,10 +5696,18 @@
       <c r="F216" t="n">
         <v>100.0</v>
       </c>
-      <c r="G216"/>
-      <c r="H216"/>
-      <c r="I216"/>
-      <c r="J216"/>
+      <c r="G216" t="n">
+        <v>0.174296895654656</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.9977761304670126</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.19710090361445784</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
@@ -4908,10 +5748,18 @@
       <c r="F218" t="n">
         <v>100.0</v>
       </c>
-      <c r="G218"/>
-      <c r="H218"/>
-      <c r="I218"/>
-      <c r="J218"/>
+      <c r="G218" t="n">
+        <v>0.2689411679276487</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.995082564351627</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.22653841410778147</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
@@ -4952,10 +5800,18 @@
       <c r="F220" t="n">
         <v>100.0</v>
       </c>
-      <c r="G220"/>
-      <c r="H220"/>
-      <c r="I220"/>
-      <c r="J220"/>
+      <c r="G220" t="n">
+        <v>0.1584100096786262</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.9981474620229714</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.23933070125963526</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
@@ -4996,10 +5852,18 @@
       <c r="F222" t="n">
         <v>100.0</v>
       </c>
-      <c r="G222"/>
-      <c r="H222"/>
-      <c r="I222"/>
-      <c r="J222"/>
+      <c r="G222" t="n">
+        <v>0.23395074222768583</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.9948350246095886</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.7435064935064936</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.3145998023715415</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
@@ -5040,10 +5904,18 @@
       <c r="F224" t="n">
         <v>100.0</v>
       </c>
-      <c r="G224"/>
-      <c r="H224"/>
-      <c r="I224"/>
-      <c r="J224"/>
+      <c r="G224" t="n">
+        <v>0.13849525988717515</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.9983327158206743</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.34319080806178187</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
@@ -5084,10 +5956,18 @@
       <c r="F226" t="n">
         <v>100.0</v>
       </c>
-      <c r="G226"/>
-      <c r="H226"/>
-      <c r="I226"/>
-      <c r="J226"/>
+      <c r="G226" t="n">
+        <v>0.3243552359333806</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.9942301852414211</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.1611626468769326</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
@@ -5128,10 +6008,18 @@
       <c r="F228" t="n">
         <v>100.0</v>
       </c>
-      <c r="G228"/>
-      <c r="H228"/>
-      <c r="I228"/>
-      <c r="J228"/>
+      <c r="G228" t="n">
+        <v>0.21177133942446968</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.995919881305638</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.14833711262282692</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
@@ -5172,10 +6060,18 @@
       <c r="F230" t="n">
         <v>100.0</v>
       </c>
-      <c r="G230"/>
-      <c r="H230"/>
-      <c r="I230"/>
-      <c r="J230"/>
+      <c r="G230" t="n">
+        <v>0.3082264034628337</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.9939257729453927</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.7614678899082569</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.19946824955172202</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
@@ -5216,10 +6112,18 @@
       <c r="F232" t="n">
         <v>100.0</v>
       </c>
-      <c r="G232"/>
-      <c r="H232"/>
-      <c r="I232"/>
-      <c r="J232"/>
+      <c r="G232" t="n">
+        <v>0.18834604249226497</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.9974045235446792</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.7415730337078652</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.19694972698173602</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
@@ -5260,10 +6164,18 @@
       <c r="F234" t="n">
         <v>100.0</v>
       </c>
-      <c r="G234"/>
-      <c r="H234"/>
-      <c r="I234"/>
-      <c r="J234"/>
+      <c r="G234" t="n">
+        <v>0.29377780709408374</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.994352683993199</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.7492354740061162</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.22710690657268287</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
@@ -5304,10 +6216,18 @@
       <c r="F236" t="n">
         <v>100.0</v>
       </c>
-      <c r="G236"/>
-      <c r="H236"/>
-      <c r="I236"/>
-      <c r="J236"/>
+      <c r="G236" t="n">
+        <v>0.17062041726884594</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.9979622082252686</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.23832831325301204</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
@@ -5348,10 +6268,18 @@
       <c r="F238" t="n">
         <v>100.0</v>
       </c>
-      <c r="G238"/>
-      <c r="H238"/>
-      <c r="I238"/>
-      <c r="J238"/>
+      <c r="G238" t="n">
+        <v>0.2549288625454323</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.9942252750592669</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.7799442896935933</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.3155938293786011</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
@@ -5392,10 +6320,18 @@
       <c r="F240" t="n">
         <v>100.0</v>
       </c>
-      <c r="G240"/>
-      <c r="H240"/>
-      <c r="I240"/>
-      <c r="J240"/>
+      <c r="G240" t="n">
+        <v>0.1488609873082819</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.9983327158206743</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.34319080806178187</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
@@ -5436,10 +6372,18 @@
       <c r="F242" t="n">
         <v>100.0</v>
       </c>
-      <c r="G242"/>
-      <c r="H242"/>
-      <c r="I242"/>
-      <c r="J242"/>
+      <c r="G242" t="n">
+        <v>0.40560786493606965</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.9922193179745912</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.8728139904610492</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.16407283725033078</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -5480,10 +6424,18 @@
       <c r="F244" t="n">
         <v>100.0</v>
       </c>
-      <c r="G244"/>
-      <c r="H244"/>
-      <c r="I244"/>
-      <c r="J244"/>
+      <c r="G244" t="n">
+        <v>0.2604255209656344</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.9920178206794134</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.6766917293233082</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.14828175431934687</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
@@ -5524,10 +6476,18 @@
       <c r="F246" t="n">
         <v>100.0</v>
       </c>
-      <c r="G246"/>
-      <c r="H246"/>
-      <c r="I246"/>
-      <c r="J246"/>
+      <c r="G246" t="n">
+        <v>0.38850345374385714</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.992217425670335</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.8729903536977492</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.20311122307595414</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
@@ -5568,10 +6528,18 @@
       <c r="F248" t="n">
         <v>100.0</v>
       </c>
-      <c r="G248"/>
-      <c r="H248"/>
-      <c r="I248"/>
-      <c r="J248"/>
+      <c r="G248" t="n">
+        <v>0.23331913816373856</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.9942475412878085</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.7422680412371134</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.19686969639826513</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
@@ -5612,10 +6580,18 @@
       <c r="F250" t="n">
         <v>100.0</v>
       </c>
-      <c r="G250"/>
-      <c r="H250"/>
-      <c r="I250"/>
-      <c r="J250"/>
+      <c r="G250" t="n">
+        <v>0.37208695057062624</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.9927672764845317</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.8651685393258427</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.231214965043774</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
@@ -5656,10 +6632,18 @@
       <c r="F252" t="n">
         <v>100.0</v>
       </c>
-      <c r="G252"/>
-      <c r="H252"/>
-      <c r="I252"/>
-      <c r="J252"/>
+      <c r="G252" t="n">
+        <v>0.21091180649573163</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.994618667656337</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.7578947368421053</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.23845428840716307</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -5700,10 +6684,18 @@
       <c r="F254" t="n">
         <v>100.0</v>
       </c>
-      <c r="G254"/>
-      <c r="H254"/>
-      <c r="I254"/>
-      <c r="J254"/>
+      <c r="G254" t="n">
+        <v>0.32391883216329515</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.9923924289452863</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.8360323886639676</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.3181307009871298</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -5744,10 +6736,18 @@
       <c r="F256" t="n">
         <v>100.0</v>
       </c>
-      <c r="G256"/>
-      <c r="H256"/>
-      <c r="I256"/>
-      <c r="J256"/>
+      <c r="G256" t="n">
+        <v>0.18552923205002034</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.9962894248608535</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
@@ -5788,10 +6788,18 @@
       <c r="F258" t="n">
         <v>100.0</v>
       </c>
-      <c r="G258"/>
-      <c r="H258"/>
-      <c r="I258"/>
-      <c r="J258"/>
+      <c r="G258" t="n">
+        <v>0.42043355453781783</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.9918511311116517</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.9027946537059538</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.16610320852203866</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
@@ -5832,10 +6840,18 @@
       <c r="F260" t="n">
         <v>100.0</v>
       </c>
-      <c r="G260"/>
-      <c r="H260"/>
-      <c r="I260"/>
-      <c r="J260"/>
+      <c r="G260" t="n">
+        <v>0.26982042985315746</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.9916465565249675</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.674074074074074</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.14814814814814814</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
@@ -5876,10 +6892,18 @@
       <c r="F262" t="n">
         <v>100.0</v>
       </c>
-      <c r="G262"/>
-      <c r="H262"/>
-      <c r="I262"/>
-      <c r="J262"/>
+      <c r="G262" t="n">
+        <v>0.4028952815840729</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.9917883211678832</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.8910081743869209</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.20449067613852595</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -5920,10 +6944,18 @@
       <c r="F264" t="n">
         <v>100.0</v>
       </c>
-      <c r="G264"/>
-      <c r="H264"/>
-      <c r="I264"/>
-      <c r="J264"/>
+      <c r="G264" t="n">
+        <v>0.2422430605367493</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.99387641491928</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.7614678899082569</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.19712719712719712</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
@@ -5964,10 +6996,18 @@
       <c r="F266" t="n">
         <v>100.0</v>
       </c>
-      <c r="G266"/>
-      <c r="H266"/>
-      <c r="I266"/>
-      <c r="J266"/>
+      <c r="G266" t="n">
+        <v>0.38648546018447455</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0.9920953423324821</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0.8852459016393442</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.2328132927447996</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
@@ -6008,10 +7048,18 @@
       <c r="F268" t="n">
         <v>100.0</v>
       </c>
-      <c r="G268"/>
-      <c r="H268"/>
-      <c r="I268"/>
-      <c r="J268"/>
+      <c r="G268" t="n">
+        <v>0.21904947807817232</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.9944331044720728</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0.7830188679245284</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.23894975443898753</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -6052,10 +7100,18 @@
       <c r="F270" t="n">
         <v>100.0</v>
       </c>
-      <c r="G270"/>
-      <c r="H270"/>
-      <c r="I270"/>
-      <c r="J270"/>
+      <c r="G270" t="n">
+        <v>0.3366514158624042</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.9918407111977106</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0.848314606741573</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.31892772140799197</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
@@ -6096,10 +7152,18 @@
       <c r="F272" t="n">
         <v>100.0</v>
       </c>
-      <c r="G272"/>
-      <c r="H272"/>
-      <c r="I272"/>
-      <c r="J272"/>
+      <c r="G272" t="n">
+        <v>0.19229737511602363</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0.9959176099461867</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
@@ -6140,10 +7204,18 @@
       <c r="F274" t="n">
         <v>100.0</v>
       </c>
-      <c r="G274"/>
-      <c r="H274"/>
-      <c r="I274"/>
-      <c r="J274"/>
+      <c r="G274" t="n">
+        <v>0.4331372428258006</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0.9908134087728905</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0.9038238702201622</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.16633625375711453</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
@@ -6184,10 +7256,18 @@
       <c r="F276" t="n">
         <v>100.0</v>
       </c>
-      <c r="G276"/>
-      <c r="H276"/>
-      <c r="I276"/>
-      <c r="J276"/>
+      <c r="G276" t="n">
+        <v>0.2781125908828583</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0.9912752923705216</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0.674074074074074</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.14814814814814814</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
@@ -6228,10 +7308,18 @@
       <c r="F278" t="n">
         <v>100.0</v>
       </c>
-      <c r="G278"/>
-      <c r="H278"/>
-      <c r="I278"/>
-      <c r="J278"/>
+      <c r="G278" t="n">
+        <v>0.4158413194324996</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0.9911186811849869</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0.9045936395759717</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.20592933358890805</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
@@ -6272,10 +7360,18 @@
       <c r="F280" t="n">
         <v>100.0</v>
       </c>
-      <c r="G280"/>
-      <c r="H280"/>
-      <c r="I280"/>
-      <c r="J280"/>
+      <c r="G280" t="n">
+        <v>0.25028284656210725</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0.99387641491928</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0.7636363636363637</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.19716446124763706</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
@@ -6316,10 +7412,18 @@
       <c r="F282" t="n">
         <v>100.0</v>
       </c>
-      <c r="G282"/>
-      <c r="H282"/>
-      <c r="I282"/>
-      <c r="J282"/>
+      <c r="G282" t="n">
+        <v>0.3996774349630434</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0.991607881294089</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0.8884462151394422</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.23312376960690925</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
@@ -6360,10 +7464,18 @@
       <c r="F284" t="n">
         <v>100.0</v>
       </c>
-      <c r="G284"/>
-      <c r="H284"/>
-      <c r="I284"/>
-      <c r="J284"/>
+      <c r="G284" t="n">
+        <v>0.22643377394256317</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0.9942475412878085</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0.7850467289719626</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.238994898923106</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
@@ -6404,10 +7516,18 @@
       <c r="F286" t="n">
         <v>100.0</v>
       </c>
-      <c r="G286"/>
-      <c r="H286"/>
-      <c r="I286"/>
-      <c r="J286"/>
+      <c r="G286" t="n">
+        <v>0.3485555375752473</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0.9914108187134503</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0.8545780969479354</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.3193878191055636</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
@@ -6448,10 +7568,18 @@
       <c r="F288" t="n">
         <v>100.0</v>
       </c>
-      <c r="G288"/>
-      <c r="H288"/>
-      <c r="I288"/>
-      <c r="J288"/>
+      <c r="G288" t="n">
+        <v>0.19879536309658744</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0.9957320467619224</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
@@ -6492,10 +7620,18 @@
       <c r="F290" t="n">
         <v>100.0</v>
       </c>
-      <c r="G290"/>
-      <c r="H290"/>
-      <c r="I290"/>
-      <c r="J290"/>
+      <c r="G290" t="n">
+        <v>0.4450039892767331</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0.9902617163724894</v>
+      </c>
+      <c r="I290" t="n">
+        <v>0.905829596412556</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.16658124038954383</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="s">
@@ -6536,10 +7672,18 @@
       <c r="F292" t="n">
         <v>100.0</v>
       </c>
-      <c r="G292"/>
-      <c r="H292"/>
-      <c r="I292"/>
-      <c r="J292"/>
+      <c r="G292" t="n">
+        <v>0.2857312479486671</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0.9910896602932987</v>
+      </c>
+      <c r="I292" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.14817629179331307</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
@@ -6580,10 +7724,18 @@
       <c r="F294" t="n">
         <v>100.0</v>
       </c>
-      <c r="G294"/>
-      <c r="H294"/>
-      <c r="I294"/>
-      <c r="J294"/>
+      <c r="G294" t="n">
+        <v>0.42759241616892735</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.9905666118921551</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.9080590238365494</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.2063512388757283</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
@@ -6624,10 +7776,18 @@
       <c r="F296" t="n">
         <v>100.0</v>
       </c>
-      <c r="G296"/>
-      <c r="H296"/>
-      <c r="I296"/>
-      <c r="J296"/>
+      <c r="G296" t="n">
+        <v>0.25744938405756174</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0.99387641491928</v>
+      </c>
+      <c r="I296" t="n">
+        <v>0.7657657657657657</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.19720173945925507</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
@@ -6668,10 +7828,18 @@
       <c r="F298" t="n">
         <v>100.0</v>
       </c>
-      <c r="G298"/>
-      <c r="H298"/>
-      <c r="I298"/>
-      <c r="J298"/>
+      <c r="G298" t="n">
+        <v>0.41129959745168215</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0.9913011740373502</v>
+      </c>
+      <c r="I298" t="n">
+        <v>0.9038901601830663</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.23492896454626905</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
@@ -6712,10 +7880,18 @@
       <c r="F300" t="n">
         <v>100.0</v>
       </c>
-      <c r="G300"/>
-      <c r="H300"/>
-      <c r="I300"/>
-      <c r="J300"/>
+      <c r="G300" t="n">
+        <v>0.2329256162547915</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0.9942475412878085</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0.7870370370370371</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.2390400604686319</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
@@ -6756,10 +7932,18 @@
       <c r="F302" t="n">
         <v>100.0</v>
       </c>
-      <c r="G302"/>
-      <c r="H302"/>
-      <c r="I302"/>
-      <c r="J302"/>
+      <c r="G302" t="n">
+        <v>0.35851534077007424</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0.991166077738516</v>
+      </c>
+      <c r="I302" t="n">
+        <v>0.8772727272727273</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.32146464646464645</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
@@ -6800,10 +7984,18 @@
       <c r="F304" t="n">
         <v>100.0</v>
       </c>
-      <c r="G304"/>
-      <c r="H304"/>
-      <c r="I304"/>
-      <c r="J304"/>
+      <c r="G304" t="n">
+        <v>0.204365151562864</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0.9957320467619224</v>
+      </c>
+      <c r="I304" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
@@ -6844,10 +8036,18 @@
       <c r="F306" t="n">
         <v>100.0</v>
       </c>
-      <c r="G306"/>
-      <c r="H306"/>
-      <c r="I306"/>
-      <c r="J306"/>
+      <c r="G306" t="n">
+        <v>0.4562276081532975</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0.9902581587920117</v>
+      </c>
+      <c r="I306" t="n">
+        <v>0.9079497907949791</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.1670097786927432</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
@@ -6888,10 +8088,18 @@
       <c r="F308" t="n">
         <v>100.0</v>
       </c>
-      <c r="G308"/>
-      <c r="H308"/>
-      <c r="I308"/>
-      <c r="J308"/>
+      <c r="G308" t="n">
+        <v>0.29293191666524554</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0.9910896602932987</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.14817629179331307</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
@@ -6932,10 +8140,18 @@
       <c r="F310" t="n">
         <v>100.0</v>
       </c>
-      <c r="G310"/>
-      <c r="H310"/>
-      <c r="I310"/>
-      <c r="J310"/>
+      <c r="G310" t="n">
+        <v>0.4387005067393998</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0.9900718723352419</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.9124472573839663</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.2071116255144033</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -6976,10 +8192,18 @@
       <c r="F312" t="n">
         <v>100.0</v>
       </c>
-      <c r="G312"/>
-      <c r="H312"/>
-      <c r="I312"/>
-      <c r="J312"/>
+      <c r="G312" t="n">
+        <v>0.26406948857665785</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0.9936908517350158</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.7657657657657657</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.19720173945925507</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
@@ -7020,10 +8244,18 @@
       <c r="F314" t="n">
         <v>100.0</v>
       </c>
-      <c r="G314"/>
-      <c r="H314"/>
-      <c r="I314"/>
-      <c r="J314"/>
+      <c r="G314" t="n">
+        <v>0.4220400232318834</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0.9908720258017404</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.91005291005291</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.23593699774991964</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -7064,10 +8296,18 @@
       <c r="F316" t="n">
         <v>100.0</v>
       </c>
-      <c r="G316"/>
-      <c r="H316"/>
-      <c r="I316"/>
-      <c r="J316"/>
+      <c r="G316" t="n">
+        <v>0.23899131940510424</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0.9942475412878085</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.7870370370370371</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.2390400604686319</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
@@ -7108,10 +8348,18 @@
       <c r="F318" t="n">
         <v>100.0</v>
       </c>
-      <c r="G318"/>
-      <c r="H318"/>
-      <c r="I318"/>
-      <c r="J318"/>
+      <c r="G318" t="n">
+        <v>0.36895178321092914</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0.991103528121382</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.8848314606741573</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.3224600962756524</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
@@ -7152,10 +8400,18 @@
       <c r="F320" t="n">
         <v>100.0</v>
       </c>
-      <c r="G320"/>
-      <c r="H320"/>
-      <c r="I320"/>
-      <c r="J320"/>
+      <c r="G320" t="n">
+        <v>0.20994482736804881</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0.9957320467619224</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.865979381443299</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.3435791061663209</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
@@ -7198,10 +8454,18 @@
       <c r="F322" t="n">
         <v>100.0</v>
       </c>
-      <c r="G322"/>
-      <c r="H322"/>
-      <c r="I322"/>
-      <c r="J322"/>
+      <c r="G322" t="n">
+        <v>0.13425304699151464</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0.9916646085453198</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.9263803680981595</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.16633013629480062</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
@@ -7246,10 +8510,18 @@
       <c r="F324" t="n">
         <v>100.0</v>
       </c>
-      <c r="G324"/>
-      <c r="H324"/>
-      <c r="I324"/>
-      <c r="J324"/>
+      <c r="G324" t="n">
+        <v>0.19063194145612838</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0.9943683123709405</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.15791520809023726</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
@@ -7294,10 +8566,18 @@
       <c r="F326" t="n">
         <v>100.0</v>
       </c>
-      <c r="G326"/>
-      <c r="H326"/>
-      <c r="I326"/>
-      <c r="J326"/>
+      <c r="G326" t="n">
+        <v>0.13314315424226267</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0.9918513488486944</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.9248466257668712</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.2053886925795053</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
@@ -7342,10 +8622,18 @@
       <c r="F328" t="n">
         <v>100.0</v>
       </c>
-      <c r="G328"/>
-      <c r="H328"/>
-      <c r="I328"/>
-      <c r="J328"/>
+      <c r="G328" t="n">
+        <v>0.18935582955116295</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0.9951201201201201</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.205562038117464</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
@@ -7390,10 +8678,18 @@
       <c r="F330" t="n">
         <v>100.0</v>
       </c>
-      <c r="G330"/>
-      <c r="H330"/>
-      <c r="I330"/>
-      <c r="J330"/>
+      <c r="G330" t="n">
+        <v>0.13185023100682594</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0.9923480407281703</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.9248466257668712</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.23384654215042908</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -7438,10 +8734,18 @@
       <c r="F332" t="n">
         <v>100.0</v>
       </c>
-      <c r="G332"/>
-      <c r="H332"/>
-      <c r="I332"/>
-      <c r="J332"/>
+      <c r="G332" t="n">
+        <v>0.18638878192553587</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0.9951201201201201</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.9496124031007752</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.24795799299883314</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
@@ -7486,10 +8790,18 @@
       <c r="F334" t="n">
         <v>100.0</v>
       </c>
-      <c r="G334"/>
-      <c r="H334"/>
-      <c r="I334"/>
-      <c r="J334"/>
+      <c r="G334" t="n">
+        <v>0.1311330620618233</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0.9927232363098175</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.9125766871165644</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.32281675921251896</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -7534,10 +8846,18 @@
       <c r="F336" t="n">
         <v>100.0</v>
       </c>
-      <c r="G336"/>
-      <c r="H336"/>
-      <c r="I336"/>
-      <c r="J336"/>
+      <c r="G336" t="n">
+        <v>0.18300577403068086</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0.9951201201201201</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.9263565891472868</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.35316997277323997</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
@@ -7582,10 +8902,18 @@
       <c r="F338" t="n">
         <v>100.0</v>
       </c>
-      <c r="G338"/>
-      <c r="H338"/>
-      <c r="I338"/>
-      <c r="J338"/>
+      <c r="G338" t="n">
+        <v>0.15723615868433333</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.9916023464032109</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.9269406392694064</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.16638262955248376</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
@@ -7630,10 +8958,18 @@
       <c r="F340" t="n">
         <v>100.0</v>
       </c>
-      <c r="G340"/>
-      <c r="H340"/>
-      <c r="I340"/>
-      <c r="J340"/>
+      <c r="G340" t="n">
+        <v>0.20551543259118543</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0.9943683123709405</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.15791520809023726</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="s">
@@ -7678,10 +9014,18 @@
       <c r="F342" t="n">
         <v>100.0</v>
       </c>
-      <c r="G342"/>
-      <c r="H342"/>
-      <c r="I342"/>
-      <c r="J342"/>
+      <c r="G342" t="n">
+        <v>0.1559280183011731</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.9917891097666378</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.9254185692541856</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.20545351259231207</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="s">
@@ -7726,10 +9070,18 @@
       <c r="F344" t="n">
         <v>100.0</v>
       </c>
-      <c r="G344"/>
-      <c r="H344"/>
-      <c r="I344"/>
-      <c r="J344"/>
+      <c r="G344" t="n">
+        <v>0.20414038579382698</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0.9951201201201201</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.205562038117464</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="s">
@@ -7774,10 +9126,18 @@
       <c r="F346" t="n">
         <v>100.0</v>
       </c>
-      <c r="G346"/>
-      <c r="H346"/>
-      <c r="I346"/>
-      <c r="J346"/>
+      <c r="G346" t="n">
+        <v>0.15425704925639852</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.9922858553443594</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.9254185692541856</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.23392034336931136</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="s">
@@ -7822,10 +9182,18 @@
       <c r="F348" t="n">
         <v>100.0</v>
       </c>
-      <c r="G348"/>
-      <c r="H348"/>
-      <c r="I348"/>
-      <c r="J348"/>
+      <c r="G348" t="n">
+        <v>0.20092186133171788</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.9951201201201201</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.9496124031007752</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.24795799299883314</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
@@ -7870,10 +9238,18 @@
       <c r="F350" t="n">
         <v>100.0</v>
       </c>
-      <c r="G350"/>
-      <c r="H350"/>
-      <c r="I350"/>
-      <c r="J350"/>
+      <c r="G350" t="n">
+        <v>0.153476068888727</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.9927232363098175</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.91324200913242</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.3229186391466263</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
@@ -7918,10 +9294,18 @@
       <c r="F352" t="n">
         <v>100.0</v>
       </c>
-      <c r="G352"/>
-      <c r="H352"/>
-      <c r="I352"/>
-      <c r="J352"/>
+      <c r="G352" t="n">
+        <v>0.19742190519649272</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0.9951201201201201</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.9263565891472868</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.35316997277323997</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="s">
@@ -7966,10 +9350,18 @@
       <c r="F354" t="n">
         <v>100.0</v>
       </c>
-      <c r="G354"/>
-      <c r="H354"/>
-      <c r="I354"/>
-      <c r="J354"/>
+      <c r="G354" t="n">
+        <v>0.19899796502202455</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.9914788514973757</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.9381443298969072</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.16764182141948614</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -8014,10 +9406,18 @@
       <c r="F356" t="n">
         <v>100.0</v>
       </c>
-      <c r="G356"/>
-      <c r="H356"/>
-      <c r="I356"/>
-      <c r="J356"/>
+      <c r="G356" t="n">
+        <v>0.21909327602016815</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0.9943683123709405</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.15791520809023726</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
@@ -8062,10 +9462,18 @@
       <c r="F358" t="n">
         <v>100.0</v>
       </c>
-      <c r="G358"/>
-      <c r="H358"/>
-      <c r="I358"/>
-      <c r="J358"/>
+      <c r="G358" t="n">
+        <v>0.1974775320682981</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.9916656377330535</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.9368556701030928</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.2070083948104808</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -8110,10 +9518,18 @@
       <c r="F360" t="n">
         <v>100.0</v>
       </c>
-      <c r="G360"/>
-      <c r="H360"/>
-      <c r="I360"/>
-      <c r="J360"/>
+      <c r="G360" t="n">
+        <v>0.2176920340291179</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.9951201201201201</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.9534883720930233</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.205562038117464</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="s">
@@ -8158,10 +9574,18 @@
       <c r="F362" t="n">
         <v>100.0</v>
       </c>
-      <c r="G362"/>
-      <c r="H362"/>
-      <c r="I362"/>
-      <c r="J362"/>
+      <c r="G362" t="n">
+        <v>0.1952247732018056</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.9921624290298692</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.9368556701030928</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.23569066395319258</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="s">
@@ -8206,10 +9630,18 @@
       <c r="F364" t="n">
         <v>100.0</v>
       </c>
-      <c r="G364"/>
-      <c r="H364"/>
-      <c r="I364"/>
-      <c r="J364"/>
+      <c r="G364" t="n">
+        <v>0.21439291545286354</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0.9951201201201201</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.9496124031007752</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.24795799299883314</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="s">
@@ -8254,10 +9686,18 @@
       <c r="F366" t="n">
         <v>100.0</v>
       </c>
-      <c r="G366"/>
-      <c r="H366"/>
-      <c r="I366"/>
-      <c r="J366"/>
+      <c r="G366" t="n">
+        <v>0.1940607116560261</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.9927232363098175</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.9265463917525774</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.32536250317985244</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="s">
@@ -8302,10 +9742,18 @@
       <c r="F368" t="n">
         <v>100.0</v>
       </c>
-      <c r="G368"/>
-      <c r="H368"/>
-      <c r="I368"/>
-      <c r="J368"/>
+      <c r="G368" t="n">
+        <v>0.21076353231282788</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0.9951201201201201</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.9263565891472868</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.35316997277323997</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="s">
@@ -8350,10 +9798,18 @@
       <c r="F370" t="n">
         <v>100.0</v>
       </c>
-      <c r="G370"/>
-      <c r="H370"/>
-      <c r="I370"/>
-      <c r="J370"/>
+      <c r="G370" t="n">
+        <v>0.3525127108841118</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.9908608126466593</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.9394703656998739</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.16782326351308333</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="s">
@@ -8398,10 +9854,18 @@
       <c r="F372" t="n">
         <v>100.0</v>
       </c>
-      <c r="G372"/>
-      <c r="H372"/>
-      <c r="I372"/>
-      <c r="J372"/>
+      <c r="G372" t="n">
+        <v>0.3003205578161802</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.9938039804731505</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.9595959595959596</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.15912208504801098</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="s">
@@ -8446,10 +9910,18 @@
       <c r="F374" t="n">
         <v>100.0</v>
       </c>
-      <c r="G374"/>
-      <c r="H374"/>
-      <c r="I374"/>
-      <c r="J374"/>
+      <c r="G374" t="n">
+        <v>0.35051950079188166</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.9910477248873248</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.9382093316519546</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.20723244413318903</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="s">
@@ -8494,10 +9966,18 @@
       <c r="F376" t="n">
         <v>100.0</v>
       </c>
-      <c r="G376"/>
-      <c r="H376"/>
-      <c r="I376"/>
-      <c r="J376"/>
+      <c r="G376" t="n">
+        <v>0.29832290534574785</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0.9945560352919092</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.9595959595959596</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.20713305898491083</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="s">
@@ -8542,10 +10022,18 @@
       <c r="F378" t="n">
         <v>100.0</v>
       </c>
-      <c r="G378"/>
-      <c r="H378"/>
-      <c r="I378"/>
-      <c r="J378"/>
+      <c r="G378" t="n">
+        <v>0.347193498432692</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0.9915447756588286</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.9382093316519546</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.23594575666900108</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="s">
@@ -8590,10 +10078,18 @@
       <c r="F380" t="n">
         <v>100.0</v>
       </c>
-      <c r="G380"/>
-      <c r="H380"/>
-      <c r="I380"/>
-      <c r="J380"/>
+      <c r="G380" t="n">
+        <v>0.29449374746947526</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0.9945560352919092</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.9562289562289562</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.2498530276308054</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="s">
@@ -8638,10 +10134,18 @@
       <c r="F382" t="n">
         <v>100.0</v>
       </c>
-      <c r="G382"/>
-      <c r="H382"/>
-      <c r="I382"/>
-      <c r="J382"/>
+      <c r="G382" t="n">
+        <v>0.34463976316709743</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0.9921060746222633</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.9281210592686002</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.3257146495193226</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="s">
@@ -8686,10 +10190,18 @@
       <c r="F384" t="n">
         <v>100.0</v>
       </c>
-      <c r="G384"/>
-      <c r="H384"/>
-      <c r="I384"/>
-      <c r="J384"/>
+      <c r="G384" t="n">
+        <v>0.29092858874286287</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.9945560352919092</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0.936026936026936</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.35586909660983734</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="s">
@@ -8734,10 +10246,18 @@
       <c r="F386" t="n">
         <v>100.0</v>
       </c>
-      <c r="G386"/>
-      <c r="H386"/>
-      <c r="I386"/>
-      <c r="J386"/>
+      <c r="G386" t="n">
+        <v>0.19014038160332872</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.9804992695166106</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.8537647790914747</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.16443966964345666</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="s">
@@ -8782,10 +10302,18 @@
       <c r="F388" t="n">
         <v>100.0</v>
       </c>
-      <c r="G388"/>
-      <c r="H388"/>
-      <c r="I388"/>
-      <c r="J388"/>
+      <c r="G388" t="n">
+        <v>0.2534387013491197</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.867704280155642</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.15472779369627507</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="s">
@@ -8830,10 +10358,18 @@
       <c r="F390" t="n">
         <v>100.0</v>
       </c>
-      <c r="G390"/>
-      <c r="H390"/>
-      <c r="I390"/>
-      <c r="J390"/>
+      <c r="G390" t="n">
+        <v>0.19040888565511832</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.9804992695166106</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.85065339141257</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.2057342375612704</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
@@ -8878,10 +10414,18 @@
       <c r="F392" t="n">
         <v>100.0</v>
       </c>
-      <c r="G392"/>
-      <c r="H392"/>
-      <c r="I392"/>
-      <c r="J392"/>
+      <c r="G392" t="n">
+        <v>0.2522617190727905</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.857976653696498</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.20384772820302907</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="s">
@@ -8926,10 +10470,18 @@
       <c r="F394" t="n">
         <v>100.0</v>
       </c>
-      <c r="G394"/>
-      <c r="H394"/>
-      <c r="I394"/>
-      <c r="J394"/>
+      <c r="G394" t="n">
+        <v>0.19037610873492117</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.9804992695166106</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.8425637834474176</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.23514402739542067</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="s">
@@ -8974,10 +10526,18 @@
       <c r="F396" t="n">
         <v>100.0</v>
       </c>
-      <c r="G396"/>
-      <c r="H396"/>
-      <c r="I396"/>
-      <c r="J396"/>
+      <c r="G396" t="n">
+        <v>0.250939679471587</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.8501945525291829</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.24785100286532952</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="s">
@@ -9022,10 +10582,18 @@
       <c r="F398" t="n">
         <v>100.0</v>
       </c>
-      <c r="G398"/>
-      <c r="H398"/>
-      <c r="I398"/>
-      <c r="J398"/>
+      <c r="G398" t="n">
+        <v>0.19069155139332603</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.9804992695166106</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.8226509023024269</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.3282078828980058</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="s">
@@ -9070,10 +10638,18 @@
       <c r="F400" t="n">
         <v>100.0</v>
       </c>
-      <c r="G400"/>
-      <c r="H400"/>
-      <c r="I400"/>
-      <c r="J400"/>
+      <c r="G400" t="n">
+        <v>0.2511689459739384</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.8190661478599222</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.3565288579615227</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="s">
@@ -9118,10 +10694,18 @@
       <c r="F402" t="n">
         <v>100.0</v>
       </c>
-      <c r="G402"/>
-      <c r="H402"/>
-      <c r="I402"/>
-      <c r="J402"/>
+      <c r="G402" t="n">
+        <v>0.21639172930040557</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0.9804992695166106</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.8591971240263631</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.16512709864473063</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
@@ -9166,10 +10750,18 @@
       <c r="F404" t="n">
         <v>100.0</v>
       </c>
-      <c r="G404"/>
-      <c r="H404"/>
-      <c r="I404"/>
-      <c r="J404"/>
+      <c r="G404" t="n">
+        <v>0.2680785095383147</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.867704280155642</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.15472779369627507</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="s">
@@ -9214,10 +10806,18 @@
       <c r="F406" t="n">
         <v>100.0</v>
       </c>
-      <c r="G406"/>
-      <c r="H406"/>
-      <c r="I406"/>
-      <c r="J406"/>
+      <c r="G406" t="n">
+        <v>0.2166989012889619</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0.9804992695166106</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.8562013181545836</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.20659429573191287</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="s">
@@ -9262,10 +10862,18 @@
       <c r="F408" t="n">
         <v>100.0</v>
       </c>
-      <c r="G408"/>
-      <c r="H408"/>
-      <c r="I408"/>
-      <c r="J408"/>
+      <c r="G408" t="n">
+        <v>0.26701677331650253</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.857976653696498</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.20384772820302907</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="s">
@@ -9310,10 +10918,18 @@
       <c r="F410" t="n">
         <v>100.0</v>
       </c>
-      <c r="G410"/>
-      <c r="H410"/>
-      <c r="I410"/>
-      <c r="J410"/>
+      <c r="G410" t="n">
+        <v>0.21680978974632986</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0.9804992695166106</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.8484122228879568</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.2361270312183939</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="s">
@@ -9358,10 +10974,18 @@
       <c r="F412" t="n">
         <v>100.0</v>
       </c>
-      <c r="G412"/>
-      <c r="H412"/>
-      <c r="I412"/>
-      <c r="J412"/>
+      <c r="G412" t="n">
+        <v>0.2658143929562862</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.8501945525291829</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.24785100286532952</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="s">
@@ -9406,10 +11030,18 @@
       <c r="F414" t="n">
         <v>100.0</v>
       </c>
-      <c r="G414"/>
-      <c r="H414"/>
-      <c r="I414"/>
-      <c r="J414"/>
+      <c r="G414" t="n">
+        <v>0.2174302083677163</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0.9804992695166106</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.8292390653085681</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.32957993392219</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="s">
@@ -9454,10 +11086,18 @@
       <c r="F416" t="n">
         <v>100.0</v>
       </c>
-      <c r="G416"/>
-      <c r="H416"/>
-      <c r="I416"/>
-      <c r="J416"/>
+      <c r="G416" t="n">
+        <v>0.2662338555770396</v>
+      </c>
+      <c r="H416" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.8190661478599222</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.3565288579615227</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="s">
@@ -9502,10 +11142,18 @@
       <c r="F418" t="n">
         <v>100.0</v>
       </c>
-      <c r="G418"/>
-      <c r="H418"/>
-      <c r="I418"/>
-      <c r="J418"/>
+      <c r="G418" t="n">
+        <v>0.25748685146600864</v>
+      </c>
+      <c r="H418" t="n">
+        <v>0.9802414231257942</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.8606994665085952</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.1653277526496996</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="s">
@@ -9550,10 +11198,18 @@
       <c r="F420" t="n">
         <v>100.0</v>
       </c>
-      <c r="G420"/>
-      <c r="H420"/>
-      <c r="I420"/>
-      <c r="J420"/>
+      <c r="G420" t="n">
+        <v>0.2863128329727273</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.867704280155642</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.15472779369627507</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="s">
@@ -9598,10 +11254,18 @@
       <c r="F422" t="n">
         <v>100.0</v>
       </c>
-      <c r="G422"/>
-      <c r="H422"/>
-      <c r="I422"/>
-      <c r="J422"/>
+      <c r="G422" t="n">
+        <v>0.25811555741426273</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0.9802414231257942</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.8577356253704801</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.20684533855397286</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="s">
@@ -9646,10 +11310,18 @@
       <c r="F424" t="n">
         <v>100.0</v>
       </c>
-      <c r="G424"/>
-      <c r="H424"/>
-      <c r="I424"/>
-      <c r="J424"/>
+      <c r="G424" t="n">
+        <v>0.28539086093784655</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.857976653696498</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.20384772820302907</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="s">
@@ -9694,10 +11366,18 @@
       <c r="F426" t="n">
         <v>100.0</v>
       </c>
-      <c r="G426"/>
-      <c r="H426"/>
-      <c r="I426"/>
-      <c r="J426"/>
+      <c r="G426" t="n">
+        <v>0.258445064870989</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0.9802414231257942</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.8500296384113811</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.236413960710187</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="s">
@@ -9742,10 +11422,18 @@
       <c r="F428" t="n">
         <v>100.0</v>
       </c>
-      <c r="G428"/>
-      <c r="H428"/>
-      <c r="I428"/>
-      <c r="J428"/>
+      <c r="G428" t="n">
+        <v>0.2843413757689796</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.8501945525291829</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.24785100286532952</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="s">
@@ -9790,10 +11478,18 @@
       <c r="F430" t="n">
         <v>100.0</v>
       </c>
-      <c r="G430"/>
-      <c r="H430"/>
-      <c r="I430"/>
-      <c r="J430"/>
+      <c r="G430" t="n">
+        <v>0.25954535831886644</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0.9802414231257942</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.8310610551274452</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.32998042260176874</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="s">
@@ -9838,10 +11534,18 @@
       <c r="F432" t="n">
         <v>100.0</v>
       </c>
-      <c r="G432"/>
-      <c r="H432"/>
-      <c r="I432"/>
-      <c r="J432"/>
+      <c r="G432" t="n">
+        <v>0.2850185565146913</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0.9794036877206748</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.8190661478599222</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.3565288579615227</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="s">
@@ -9886,10 +11590,18 @@
       <c r="F434" t="n">
         <v>100.0</v>
       </c>
-      <c r="G434"/>
-      <c r="H434"/>
-      <c r="I434"/>
-      <c r="J434"/>
+      <c r="G434" t="n">
+        <v>0.41872083027537493</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0.9797877073666815</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.861664712778429</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1654724888468298</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="s">
@@ -9934,10 +11646,18 @@
       <c r="F436" t="n">
         <v>100.0</v>
       </c>
-      <c r="G436"/>
-      <c r="H436"/>
-      <c r="I436"/>
-      <c r="J436"/>
+      <c r="G436" t="n">
+        <v>0.36628424785204233</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0.9786106750392465</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.8765880217785844</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.15590843472881005</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="s">
@@ -9982,10 +11702,18 @@
       <c r="F438" t="n">
         <v>100.0</v>
       </c>
-      <c r="G438"/>
-      <c r="H438"/>
-      <c r="I438"/>
-      <c r="J438"/>
+      <c r="G438" t="n">
+        <v>0.42021377732952847</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0.9797877073666815</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.8581477139507621</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.20697580100040558</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="s">
@@ -10030,10 +11758,18 @@
       <c r="F440" t="n">
         <v>100.0</v>
       </c>
-      <c r="G440"/>
-      <c r="H440"/>
-      <c r="I440"/>
-      <c r="J440"/>
+      <c r="G440" t="n">
+        <v>0.3659888884586015</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0.9786106750392465</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.867513611615245</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.2054031759125593</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="s">
@@ -10078,10 +11814,18 @@
       <c r="F442" t="n">
         <v>100.0</v>
       </c>
-      <c r="G442"/>
-      <c r="H442"/>
-      <c r="I442"/>
-      <c r="J442"/>
+      <c r="G442" t="n">
+        <v>0.42145363846392814</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0.9797877073666815</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.85052754982415</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.23658239826956876</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="s">
@@ -10126,10 +11870,18 @@
       <c r="F444" t="n">
         <v>100.0</v>
       </c>
-      <c r="G444"/>
-      <c r="H444"/>
-      <c r="I444"/>
-      <c r="J444"/>
+      <c r="G444" t="n">
+        <v>0.3655739775067095</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0.9786106750392465</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0.8602540834845736</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.24974221488966797</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="s">
@@ -10174,10 +11926,18 @@
       <c r="F446" t="n">
         <v>100.0</v>
       </c>
-      <c r="G446"/>
-      <c r="H446"/>
-      <c r="I446"/>
-      <c r="J446"/>
+      <c r="G446" t="n">
+        <v>0.4242994183827966</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0.9797877073666815</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.8317702227432591</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.33026902798431795</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="s">
@@ -10222,10 +11982,18 @@
       <c r="F448" t="n">
         <v>100.0</v>
       </c>
-      <c r="G448"/>
-      <c r="H448"/>
-      <c r="I448"/>
-      <c r="J448"/>
+      <c r="G448" t="n">
+        <v>0.3673038689866851</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0.9786106750392465</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.8312159709618875</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.35924932975871315</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="s">
@@ -10270,10 +12038,18 @@
       <c r="F450" t="n">
         <v>100.0</v>
       </c>
-      <c r="G450"/>
-      <c r="H450"/>
-      <c r="I450"/>
-      <c r="J450"/>
+      <c r="G450" t="n">
+        <v>0.24887023191989957</v>
+      </c>
+      <c r="H450" t="n">
+        <v>0.973596299627393</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.8722772277227723</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.1675414364640884</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="s">
@@ -10318,10 +12094,18 @@
       <c r="F452" t="n">
         <v>100.0</v>
       </c>
-      <c r="G452"/>
-      <c r="H452"/>
-      <c r="I452"/>
-      <c r="J452"/>
+      <c r="G452" t="n">
+        <v>0.3475856248148822</v>
+      </c>
+      <c r="H452" t="n">
+        <v>0.9828571428571429</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.9172113289760349</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.15907710989678203</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="s">
@@ -10366,10 +12150,18 @@
       <c r="F454" t="n">
         <v>100.0</v>
       </c>
-      <c r="G454"/>
-      <c r="H454"/>
-      <c r="I454"/>
-      <c r="J454"/>
+      <c r="G454" t="n">
+        <v>0.24670935106811495</v>
+      </c>
+      <c r="H454" t="n">
+        <v>0.9740693196405649</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.8668316831683168</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.20959944751381215</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="s">
@@ -10414,10 +12206,18 @@
       <c r="F456" t="n">
         <v>100.0</v>
       </c>
-      <c r="G456"/>
-      <c r="H456"/>
-      <c r="I456"/>
-      <c r="J456"/>
+      <c r="G456" t="n">
+        <v>0.3454043000837242</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0.9842025123715265</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.9122807017543859</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.20813106796116504</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="s">
@@ -10462,10 +12262,18 @@
       <c r="F458" t="n">
         <v>100.0</v>
       </c>
-      <c r="G458"/>
-      <c r="H458"/>
-      <c r="I458"/>
-      <c r="J458"/>
+      <c r="G458" t="n">
+        <v>0.24434018869838992</v>
+      </c>
+      <c r="H458" t="n">
+        <v>0.9747209033748235</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.8589108910891089</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.23964088397790057</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="s">
@@ -10510,10 +12318,18 @@
       <c r="F460" t="n">
         <v>100.0</v>
       </c>
-      <c r="G460"/>
-      <c r="H460"/>
-      <c r="I460"/>
-      <c r="J460"/>
+      <c r="G460" t="n">
+        <v>0.3424454763976097</v>
+      </c>
+      <c r="H460" t="n">
+        <v>0.9853500761035008</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.9098901098901099</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.25217391304347825</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="s">
@@ -10558,10 +12374,18 @@
       <c r="F462" t="n">
         <v>100.0</v>
       </c>
-      <c r="G462"/>
-      <c r="H462"/>
-      <c r="I462"/>
-      <c r="J462"/>
+      <c r="G462" t="n">
+        <v>0.24315988202399685</v>
+      </c>
+      <c r="H462" t="n">
+        <v>0.9765195137555982</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.8488488488488488</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.3358847055578541</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="s">
@@ -10606,10 +12430,18 @@
       <c r="F464" t="n">
         <v>100.0</v>
       </c>
-      <c r="G464"/>
-      <c r="H464"/>
-      <c r="I464"/>
-      <c r="J464"/>
+      <c r="G464" t="n">
+        <v>0.33966595798128285</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0.9857441551035925</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0.8829268292682927</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.35811623246492985</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="s">
@@ -10654,10 +12486,18 @@
       <c r="F466" t="n">
         <v>100.0</v>
       </c>
-      <c r="G466"/>
-      <c r="H466"/>
-      <c r="I466"/>
-      <c r="J466"/>
+      <c r="G466" t="n">
+        <v>0.27426639261314345</v>
+      </c>
+      <c r="H466" t="n">
+        <v>0.9733881853827859</v>
+      </c>
+      <c r="I466" t="n">
+        <v>0.8724035608308606</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0.16756458074319658</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="s">
@@ -10702,10 +12542,18 @@
       <c r="F468" t="n">
         <v>100.0</v>
       </c>
-      <c r="G468"/>
-      <c r="H468"/>
-      <c r="I468"/>
-      <c r="J468"/>
+      <c r="G468" t="n">
+        <v>0.36250139063033326</v>
+      </c>
+      <c r="H468" t="n">
+        <v>0.9828571428571429</v>
+      </c>
+      <c r="I468" t="n">
+        <v>0.922920892494929</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0.16017933564295903</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="s">
@@ -10750,10 +12598,18 @@
       <c r="F470" t="n">
         <v>100.0</v>
       </c>
-      <c r="G470"/>
-      <c r="H470"/>
-      <c r="I470"/>
-      <c r="J470"/>
+      <c r="G470" t="n">
+        <v>0.2719930155766048</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0.9736723816862518</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0.8669634025717112</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0.20962840171294378</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="s">
@@ -10798,10 +12654,18 @@
       <c r="F472" t="n">
         <v>100.0</v>
       </c>
-      <c r="G472"/>
-      <c r="H472"/>
-      <c r="I472"/>
-      <c r="J472"/>
+      <c r="G472" t="n">
+        <v>0.3603934458470286</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0.9842025123715265</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0.918200408997955</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0.209529627367135</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="s">
@@ -10846,10 +12710,18 @@
       <c r="F474" t="n">
         <v>100.0</v>
       </c>
-      <c r="G474"/>
-      <c r="H474"/>
-      <c r="I474"/>
-      <c r="J474"/>
+      <c r="G474" t="n">
+        <v>0.2697854348306733</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0.9743260590500642</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0.8590504451038575</v>
+      </c>
+      <c r="J474" t="n">
+        <v>0.23967398811990606</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="s">
@@ -10894,10 +12766,18 @@
       <c r="F476" t="n">
         <v>100.0</v>
       </c>
-      <c r="G476"/>
-      <c r="H476"/>
-      <c r="I476"/>
-      <c r="J476"/>
+      <c r="G476" t="n">
+        <v>0.35760639036039493</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0.9853500761035008</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0.9159836065573771</v>
+      </c>
+      <c r="J476" t="n">
+        <v>0.25386807817589574</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="s">
@@ -10942,10 +12822,18 @@
       <c r="F478" t="n">
         <v>100.0</v>
       </c>
-      <c r="G478"/>
-      <c r="H478"/>
-      <c r="I478"/>
-      <c r="J478"/>
+      <c r="G478" t="n">
+        <v>0.2685006950812424</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0.976192</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0.849</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0.33593103448275863</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="s">
@@ -10990,10 +12878,18 @@
       <c r="F480" t="n">
         <v>100.0</v>
       </c>
-      <c r="G480"/>
-      <c r="H480"/>
-      <c r="I480"/>
-      <c r="J480"/>
+      <c r="G480" t="n">
+        <v>0.35452476688374257</v>
+      </c>
+      <c r="H480" t="n">
+        <v>0.9857441551035925</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0.891647855530474</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0.3605003026023805</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="s">
@@ -11038,10 +12934,18 @@
       <c r="F482" t="n">
         <v>100.0</v>
       </c>
-      <c r="G482"/>
-      <c r="H482"/>
-      <c r="I482"/>
-      <c r="J482"/>
+      <c r="G482" t="n">
+        <v>0.31438834017523093</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0.973191899710704</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0.8730314960629921</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0.16768039811998894</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="s">
@@ -11086,10 +12990,18 @@
       <c r="F484" t="n">
         <v>100.0</v>
       </c>
-      <c r="G484"/>
-      <c r="H484"/>
-      <c r="I484"/>
-      <c r="J484"/>
+      <c r="G484" t="n">
+        <v>0.378344671197718</v>
+      </c>
+      <c r="H484" t="n">
+        <v>0.9826666666666667</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0.16000815328169588</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="s">
@@ -11134,10 +13046,18 @@
       <c r="F486" t="n">
         <v>100.0</v>
       </c>
-      <c r="G486"/>
-      <c r="H486"/>
-      <c r="I486"/>
-      <c r="J486"/>
+      <c r="G486" t="n">
+        <v>0.3120615597339092</v>
+      </c>
+      <c r="H486" t="n">
+        <v>0.9734763342110333</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0.8676181102362205</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0.2097732927840752</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="s">
@@ -11182,10 +13102,18 @@
       <c r="F488" t="n">
         <v>100.0</v>
       </c>
-      <c r="G488"/>
-      <c r="H488"/>
-      <c r="I488"/>
-      <c r="J488"/>
+      <c r="G488" t="n">
+        <v>0.37612723788314606</v>
+      </c>
+      <c r="H488" t="n">
+        <v>0.9840121811952798</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0.918200408997955</v>
+      </c>
+      <c r="J488" t="n">
+        <v>0.209529627367135</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="s">
@@ -11230,10 +13158,18 @@
       <c r="F490" t="n">
         <v>100.0</v>
       </c>
-      <c r="G490"/>
-      <c r="H490"/>
-      <c r="I490"/>
-      <c r="J490"/>
+      <c r="G490" t="n">
+        <v>0.3095477263440078</v>
+      </c>
+      <c r="H490" t="n">
+        <v>0.9741301835922455</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0.859744094488189</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0.23983964611556538</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="s">
@@ -11278,10 +13214,18 @@
       <c r="F492" t="n">
         <v>100.0</v>
       </c>
-      <c r="G492"/>
-      <c r="H492"/>
-      <c r="I492"/>
-      <c r="J492"/>
+      <c r="G492" t="n">
+        <v>0.37350767409130214</v>
+      </c>
+      <c r="H492" t="n">
+        <v>0.9851598173515982</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0.9159836065573771</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0.25386807817589574</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="s">
@@ -11326,10 +13270,18 @@
       <c r="F494" t="n">
         <v>100.0</v>
       </c>
-      <c r="G494"/>
-      <c r="H494"/>
-      <c r="I494"/>
-      <c r="J494"/>
+      <c r="G494" t="n">
+        <v>0.30845249237104544</v>
+      </c>
+      <c r="H494" t="n">
+        <v>0.9759969276067336</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0.8497512437810946</v>
+      </c>
+      <c r="J494" t="n">
+        <v>0.33616287094547964</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="s">
@@ -11374,10 +13326,18 @@
       <c r="F496" t="n">
         <v>100.0</v>
       </c>
-      <c r="G496"/>
-      <c r="H496"/>
-      <c r="I496"/>
-      <c r="J496"/>
+      <c r="G496" t="n">
+        <v>0.370580283297723</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0.9855540771716403</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0.891647855530474</v>
+      </c>
+      <c r="J496" t="n">
+        <v>0.3605003026023805</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="s">
@@ -11422,10 +13382,18 @@
       <c r="F498" t="n">
         <v>100.0</v>
       </c>
-      <c r="G498"/>
-      <c r="H498"/>
-      <c r="I498"/>
-      <c r="J498"/>
+      <c r="G498" t="n">
+        <v>0.4689405821646254</v>
+      </c>
+      <c r="H498" t="n">
+        <v>0.9726009776177</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0.8740234375</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0.16786603930251867</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="s">
@@ -11470,10 +13438,18 @@
       <c r="F500" t="n">
         <v>100.0</v>
       </c>
-      <c r="G500"/>
-      <c r="H500"/>
-      <c r="I500"/>
-      <c r="J500"/>
+      <c r="G500" t="n">
+        <v>0.4507096667930903</v>
+      </c>
+      <c r="H500" t="n">
+        <v>0.9817003431185666</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0.9221556886227545</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0.16023678301694225</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="s">
@@ -11518,10 +13494,18 @@
       <c r="F502" t="n">
         <v>100.0</v>
       </c>
-      <c r="G502"/>
-      <c r="H502"/>
-      <c r="I502"/>
-      <c r="J502"/>
+      <c r="G502" t="n">
+        <v>0.4670291725871183</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0.9728861475199178</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0.8685239491691105</v>
+      </c>
+      <c r="J502" t="n">
+        <v>0.20997647709976477</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="s">
@@ -11566,10 +13550,18 @@
       <c r="F504" t="n">
         <v>100.0</v>
       </c>
-      <c r="G504"/>
-      <c r="H504"/>
-      <c r="I504"/>
-      <c r="J504"/>
+      <c r="G504" t="n">
+        <v>0.4480524459512597</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0.9832380952380952</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0.9191919191919192</v>
+      </c>
+      <c r="J504" t="n">
+        <v>0.20978593272171253</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="s">
@@ -11614,10 +13606,18 @@
       <c r="F506" t="n">
         <v>100.0</v>
       </c>
-      <c r="G506"/>
-      <c r="H506"/>
-      <c r="I506"/>
-      <c r="J506"/>
+      <c r="G506" t="n">
+        <v>0.464556024664487</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0.973604778113159</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0.8607038123167156</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0.24007195240071952</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -11662,10 +13662,18 @@
       <c r="F508" t="n">
         <v>100.0</v>
       </c>
-      <c r="G508"/>
-      <c r="H508"/>
-      <c r="I508"/>
-      <c r="J508"/>
+      <c r="G508" t="n">
+        <v>0.44516976638608946</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0.9845802398629354</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0.917004048582996</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0.2541785568691398</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -11710,10 +13718,18 @@
       <c r="F510" t="n">
         <v>100.0</v>
       </c>
-      <c r="G510"/>
-      <c r="H510"/>
-      <c r="I510"/>
-      <c r="J510"/>
+      <c r="G510" t="n">
+        <v>0.46312165863904614</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0.9754738729508197</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0.8507905138339921</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0.33648798010500136</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -11758,10 +13774,18 @@
       <c r="F512" t="n">
         <v>100.0</v>
       </c>
-      <c r="G512"/>
-      <c r="H512"/>
-      <c r="I512"/>
-      <c r="J512"/>
+      <c r="G512" t="n">
+        <v>0.44259704063232946</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0.9849752757702549</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0.8930957683741648</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0.36093718440719047</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -11806,10 +13830,18 @@
       <c r="F514" t="n">
         <v>100.0</v>
       </c>
-      <c r="G514"/>
-      <c r="H514"/>
-      <c r="I514"/>
-      <c r="J514"/>
+      <c r="G514" t="n">
+        <v>0.4265246190386027</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0.9371701962991628</v>
+      </c>
+      <c r="I514" t="n">
+        <v>0.8350358617691807</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0.1617783006975376</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -11854,10 +13886,18 @@
       <c r="F516" t="n">
         <v>100.0</v>
       </c>
-      <c r="G516"/>
-      <c r="H516"/>
-      <c r="I516"/>
-      <c r="J516"/>
+      <c r="G516" t="n">
+        <v>0.5070498590454421</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0.946287181682003</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0.8116045845272206</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0.1401098901098901</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -11902,10 +13942,18 @@
       <c r="F518" t="n">
         <v>100.0</v>
       </c>
-      <c r="G518"/>
-      <c r="H518"/>
-      <c r="I518"/>
-      <c r="J518"/>
+      <c r="G518" t="n">
+        <v>0.4221349175678391</v>
+      </c>
+      <c r="H518" t="n">
+        <v>0.9376048071548351</v>
+      </c>
+      <c r="I518" t="n">
+        <v>0.8243096325288106</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0.20973027476682632</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -11950,10 +13998,18 @@
       <c r="F520" t="n">
         <v>100.0</v>
       </c>
-      <c r="G520"/>
-      <c r="H520"/>
-      <c r="I520"/>
-      <c r="J520"/>
+      <c r="G520" t="n">
+        <v>0.5018297949685756</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0.9458768378435969</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.7889048991354467</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0.193419740777667</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -11998,10 +14054,18 @@
       <c r="F522" t="n">
         <v>100.0</v>
       </c>
-      <c r="G522"/>
-      <c r="H522"/>
-      <c r="I522"/>
-      <c r="J522"/>
+      <c r="G522" t="n">
+        <v>0.417931598341677</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.9372157133011716</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0.8182610590542602</v>
+      </c>
+      <c r="J522" t="n">
+        <v>0.24523549659978172</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -12046,10 +14110,18 @@
       <c r="F524" t="n">
         <v>100.0</v>
       </c>
-      <c r="G524"/>
-      <c r="H524"/>
-      <c r="I524"/>
-      <c r="J524"/>
+      <c r="G524" t="n">
+        <v>0.4995336175094527</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.9441645675902602</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.8208137715179968</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0.25691411935953423</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -12094,10 +14166,18 @@
       <c r="F526" t="n">
         <v>100.0</v>
       </c>
-      <c r="G526"/>
-      <c r="H526"/>
-      <c r="I526"/>
-      <c r="J526"/>
+      <c r="G526" t="n">
+        <v>0.402605416076049</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0.9378171730157656</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.7906366221833296</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0.3534244278648671</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -12142,10 +14222,18 @@
       <c r="F528" t="n">
         <v>100.0</v>
       </c>
-      <c r="G528"/>
-      <c r="H528"/>
-      <c r="I528"/>
-      <c r="J528"/>
+      <c r="G528" t="n">
+        <v>0.4934674732106309</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.9462717058222676</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.7981260647359455</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0.37813535257927117</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -12190,10 +14278,18 @@
       <c r="F530" t="n">
         <v>100.0</v>
       </c>
-      <c r="G530"/>
-      <c r="H530"/>
-      <c r="I530"/>
-      <c r="J530"/>
+      <c r="G530" t="n">
+        <v>0.44892327980647084</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.9371701962991628</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.8350358617691807</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0.1617783006975376</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -12238,10 +14334,18 @@
       <c r="F532" t="n">
         <v>100.0</v>
       </c>
-      <c r="G532"/>
-      <c r="H532"/>
-      <c r="I532"/>
-      <c r="J532"/>
+      <c r="G532" t="n">
+        <v>0.5194262461238598</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.9460731863898995</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.8150492264416315</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0.14102564102564102</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -12286,10 +14390,18 @@
       <c r="F534" t="n">
         <v>100.0</v>
       </c>
-      <c r="G534"/>
-      <c r="H534"/>
-      <c r="I534"/>
-      <c r="J534"/>
+      <c r="G534" t="n">
+        <v>0.44453735872605465</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.9376048071548351</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.8243096325288106</v>
+      </c>
+      <c r="J534" t="n">
+        <v>0.20973027476682632</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="s">
@@ -12334,10 +14446,18 @@
       <c r="F536" t="n">
         <v>100.0</v>
       </c>
-      <c r="G536"/>
-      <c r="H536"/>
-      <c r="I536"/>
-      <c r="J536"/>
+      <c r="G536" t="n">
+        <v>0.5141360722012568</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.9458768378435969</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.7926397735314933</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0.1946325558063707</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="s">
@@ -12382,10 +14502,18 @@
       <c r="F538" t="n">
         <v>100.0</v>
       </c>
-      <c r="G538"/>
-      <c r="H538"/>
-      <c r="I538"/>
-      <c r="J538"/>
+      <c r="G538" t="n">
+        <v>0.4406267354248362</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.9372157133011716</v>
+      </c>
+      <c r="I538" t="n">
+        <v>0.8182610590542602</v>
+      </c>
+      <c r="J538" t="n">
+        <v>0.24523549659978172</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="s">
@@ -12430,10 +14558,18 @@
       <c r="F540" t="n">
         <v>100.0</v>
       </c>
-      <c r="G540"/>
-      <c r="H540"/>
-      <c r="I540"/>
-      <c r="J540"/>
+      <c r="G540" t="n">
+        <v>0.5118179472356803</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0.9441645675902602</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0.8242517267843438</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0.2584818159628997</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="s">
@@ -12478,10 +14614,18 @@
       <c r="F542" t="n">
         <v>100.0</v>
       </c>
-      <c r="G542"/>
-      <c r="H542"/>
-      <c r="I542"/>
-      <c r="J542"/>
+      <c r="G542" t="n">
+        <v>0.42580365804453335</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.9378171730157656</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0.7906366221833296</v>
+      </c>
+      <c r="J542" t="n">
+        <v>0.3534244278648671</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="s">
@@ -12526,10 +14670,18 @@
       <c r="F544" t="n">
         <v>100.0</v>
       </c>
-      <c r="G544"/>
-      <c r="H544"/>
-      <c r="I544"/>
-      <c r="J544"/>
+      <c r="G544" t="n">
+        <v>0.5054623944232876</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.9462717058222676</v>
+      </c>
+      <c r="I544" t="n">
+        <v>0.8023352793994996</v>
+      </c>
+      <c r="J544" t="n">
+        <v>0.3803856224708403</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="s">
@@ -12574,10 +14726,18 @@
       <c r="F546" t="n">
         <v>100.0</v>
       </c>
-      <c r="G546"/>
-      <c r="H546"/>
-      <c r="I546"/>
-      <c r="J546"/>
+      <c r="G546" t="n">
+        <v>0.48527226628590825</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0.9370250492541514</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0.8350358617691807</v>
+      </c>
+      <c r="J546" t="n">
+        <v>0.1617783006975376</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="s">
@@ -12622,10 +14782,18 @@
       <c r="F548" t="n">
         <v>100.0</v>
       </c>
-      <c r="G548"/>
-      <c r="H548"/>
-      <c r="I548"/>
-      <c r="J548"/>
+      <c r="G548" t="n">
+        <v>0.5310489455108525</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0.9458591910977958</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0.814476458186929</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0.1408096555192356</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="s">
@@ -12670,10 +14838,18 @@
       <c r="F550" t="n">
         <v>100.0</v>
       </c>
-      <c r="G550"/>
-      <c r="H550"/>
-      <c r="I550"/>
-      <c r="J550"/>
+      <c r="G550" t="n">
+        <v>0.48138376971644475</v>
+      </c>
+      <c r="H550" t="n">
+        <v>0.93746069457061</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0.8243096325288106</v>
+      </c>
+      <c r="J550" t="n">
+        <v>0.20973027476682632</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="s">
@@ -12718,10 +14894,18 @@
       <c r="F552" t="n">
         <v>100.0</v>
       </c>
-      <c r="G552"/>
-      <c r="H552"/>
-      <c r="I552"/>
-      <c r="J552"/>
+      <c r="G552" t="n">
+        <v>0.5257295359738233</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0.9454506712124441</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.7926397735314933</v>
+      </c>
+      <c r="J552" t="n">
+        <v>0.1946325558063707</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="s">
@@ -12766,10 +14950,18 @@
       <c r="F554" t="n">
         <v>100.0</v>
       </c>
-      <c r="G554"/>
-      <c r="H554"/>
-      <c r="I554"/>
-      <c r="J554"/>
+      <c r="G554" t="n">
+        <v>0.47755432737248027</v>
+      </c>
+      <c r="H554" t="n">
+        <v>0.9370735405610311</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0.8183402308865171</v>
+      </c>
+      <c r="J554" t="n">
+        <v>0.2452766815013855</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="s">
@@ -12814,10 +15006,18 @@
       <c r="F556" t="n">
         <v>100.0</v>
       </c>
-      <c r="G556"/>
-      <c r="H556"/>
-      <c r="I556"/>
-      <c r="J556"/>
+      <c r="G556" t="n">
+        <v>0.5234391707449588</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0.943744752308984</v>
+      </c>
+      <c r="I556" t="n">
+        <v>0.8242517267843438</v>
+      </c>
+      <c r="J556" t="n">
+        <v>0.2584818159628997</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="s">
@@ -12862,10 +15062,18 @@
       <c r="F558" t="n">
         <v>100.0</v>
       </c>
-      <c r="G558"/>
-      <c r="H558"/>
-      <c r="I558"/>
-      <c r="J558"/>
+      <c r="G558" t="n">
+        <v>0.46335483579324566</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0.937677628907836</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0.790728187185655</v>
+      </c>
+      <c r="J558" t="n">
+        <v>0.35348369246248007</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -12910,10 +15118,18 @@
       <c r="F560" t="n">
         <v>100.0</v>
       </c>
-      <c r="G560"/>
-      <c r="H560"/>
-      <c r="I560"/>
-      <c r="J560"/>
+      <c r="G560" t="n">
+        <v>0.5173861529665138</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0.946067415730337</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.8023352793994996</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0.3803856224708403</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
@@ -12958,10 +15174,18 @@
       <c r="F562" t="n">
         <v>100.0</v>
       </c>
-      <c r="G562"/>
-      <c r="H562"/>
-      <c r="I562"/>
-      <c r="J562"/>
+      <c r="G562" t="n">
+        <v>0.6057389162353841</v>
+      </c>
+      <c r="H562" t="n">
+        <v>0.9365760946079121</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0.8355362946912243</v>
+      </c>
+      <c r="J562" t="n">
+        <v>0.16196886832141355</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
@@ -13006,10 +15230,18 @@
       <c r="F564" t="n">
         <v>100.0</v>
       </c>
-      <c r="G564"/>
-      <c r="H564"/>
-      <c r="I564"/>
-      <c r="J564"/>
+      <c r="G564" t="n">
+        <v>0.5918337892869113</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0.9449560933818805</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0.8151260504201681</v>
+      </c>
+      <c r="J564" t="n">
+        <v>0.14098690835850958</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
@@ -13054,10 +15286,18 @@
       <c r="F566" t="n">
         <v>100.0</v>
       </c>
-      <c r="G566"/>
-      <c r="H566"/>
-      <c r="I566"/>
-      <c r="J566"/>
+      <c r="G566" t="n">
+        <v>0.603056399863226</v>
+      </c>
+      <c r="H566" t="n">
+        <v>0.9370150297098917</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.8247668618520928</v>
+      </c>
+      <c r="J566" t="n">
+        <v>0.2099419631592228</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
@@ -13102,10 +15342,18 @@
       <c r="F568" t="n">
         <v>100.0</v>
       </c>
-      <c r="G568"/>
-      <c r="H568"/>
-      <c r="I568"/>
-      <c r="J568"/>
+      <c r="G568" t="n">
+        <v>0.5870907724234954</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0.9447761194029851</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.7932251235003529</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0.19482801908109465</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
@@ -13150,10 +15398,18 @@
       <c r="F570" t="n">
         <v>100.0</v>
       </c>
-      <c r="G570"/>
-      <c r="H570"/>
-      <c r="I570"/>
-      <c r="J570"/>
+      <c r="G570" t="n">
+        <v>0.6001233836129454</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0.9366337999034683</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0.8189711308877795</v>
+      </c>
+      <c r="J570" t="n">
+        <v>0.2456066593794669</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
@@ -13198,10 +15454,18 @@
       <c r="F572" t="n">
         <v>100.0</v>
       </c>
-      <c r="G572"/>
-      <c r="H572"/>
-      <c r="I572"/>
-      <c r="J572"/>
+      <c r="G572" t="n">
+        <v>0.5848555234063446</v>
+      </c>
+      <c r="H572" t="n">
+        <v>0.9433011339773204</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0.8247895944912013</v>
+      </c>
+      <c r="J572" t="n">
+        <v>0.25873442462741264</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
@@ -13246,10 +15510,18 @@
       <c r="F574" t="n">
         <v>100.0</v>
       </c>
-      <c r="G574"/>
-      <c r="H574"/>
-      <c r="I574"/>
-      <c r="J574"/>
+      <c r="G574" t="n">
+        <v>0.5889104097904694</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0.9372461413484972</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.7913669064748201</v>
+      </c>
+      <c r="J574" t="n">
+        <v>0.3538991018215395</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
@@ -13294,10 +15566,18 @@
       <c r="F576" t="n">
         <v>100.0</v>
       </c>
-      <c r="G576"/>
-      <c r="H576"/>
-      <c r="I576"/>
-      <c r="J576"/>
+      <c r="G576" t="n">
+        <v>0.5795664709995484</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0.9454322501532803</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.8029925187032418</v>
+      </c>
+      <c r="J576" t="n">
+        <v>0.38074815344293544</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
@@ -13342,10 +15622,18 @@
       <c r="F578" t="n">
         <v>100.0</v>
       </c>
-      <c r="G578"/>
-      <c r="H578"/>
-      <c r="I578"/>
-      <c r="J578"/>
+      <c r="G578" t="n">
+        <v>0.5292827743751828</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0.8910272025984571</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0.8599233264523739</v>
+      </c>
+      <c r="J578" t="n">
+        <v>0.17843177608561434</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="s">
@@ -13390,10 +15678,18 @@
       <c r="F580" t="n">
         <v>100.0</v>
       </c>
-      <c r="G580"/>
-      <c r="H580"/>
-      <c r="I580"/>
-      <c r="J580"/>
+      <c r="G580" t="n">
+        <v>0.5897827450656221</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0.9299419901829541</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0.844062153163152</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0.150917176209005</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="s">
@@ -13438,10 +15734,18 @@
       <c r="F582" t="n">
         <v>100.0</v>
       </c>
-      <c r="G582"/>
-      <c r="H582"/>
-      <c r="I582"/>
-      <c r="J582"/>
+      <c r="G582" t="n">
+        <v>0.52253101692149</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0.8972716488730723</v>
+      </c>
+      <c r="I582" t="n">
+        <v>0.8446975299511906</v>
+      </c>
+      <c r="J582" t="n">
+        <v>0.23144059965088817</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="s">
@@ -13486,10 +15790,18 @@
       <c r="F584" t="n">
         <v>100.0</v>
       </c>
-      <c r="G584"/>
-      <c r="H584"/>
-      <c r="I584"/>
-      <c r="J584"/>
+      <c r="G584" t="n">
+        <v>0.5839105465467587</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0.9335247349823321</v>
+      </c>
+      <c r="I584" t="n">
+        <v>0.8232351306281267</v>
+      </c>
+      <c r="J584" t="n">
+        <v>0.20855317967231324</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="s">
@@ -13534,10 +15846,18 @@
       <c r="F586" t="n">
         <v>100.0</v>
       </c>
-      <c r="G586"/>
-      <c r="H586"/>
-      <c r="I586"/>
-      <c r="J586"/>
+      <c r="G586" t="n">
+        <v>0.5102077776660309</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0.8964634713820382</v>
+      </c>
+      <c r="I586" t="n">
+        <v>0.8397217700162795</v>
+      </c>
+      <c r="J586" t="n">
+        <v>0.2742481781792056</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="s">
@@ -13582,10 +15902,18 @@
       <c r="F588" t="n">
         <v>100.0</v>
       </c>
-      <c r="G588"/>
-      <c r="H588"/>
-      <c r="I588"/>
-      <c r="J588"/>
+      <c r="G588" t="n">
+        <v>0.5791150252334625</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0.9308705984013826</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0.8486322188449849</v>
+      </c>
+      <c r="J588" t="n">
+        <v>0.2766977363515313</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="s">
@@ -13630,10 +15958,18 @@
       <c r="F590" t="n">
         <v>100.0</v>
       </c>
-      <c r="G590"/>
-      <c r="H590"/>
-      <c r="I590"/>
-      <c r="J590"/>
+      <c r="G590" t="n">
+        <v>0.5034620499122796</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0.9040247678018576</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0.818629715165512</v>
+      </c>
+      <c r="J590" t="n">
+        <v>0.39930034982508744</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="s">
@@ -13678,10 +16014,18 @@
       <c r="F592" t="n">
         <v>100.0</v>
       </c>
-      <c r="G592"/>
-      <c r="H592"/>
-      <c r="I592"/>
-      <c r="J592"/>
+      <c r="G592" t="n">
+        <v>0.5762349691952602</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0.9406106231702217</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0.8360655737704918</v>
+      </c>
+      <c r="J592" t="n">
+        <v>0.40523373983739835</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="s">
@@ -13726,10 +16070,18 @@
       <c r="F594" t="n">
         <v>100.0</v>
       </c>
-      <c r="G594"/>
-      <c r="H594"/>
-      <c r="I594"/>
-      <c r="J594"/>
+      <c r="G594" t="n">
+        <v>0.5514223238872933</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0.8910272025984571</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.8599233264523739</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0.17843177608561434</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="s">
@@ -13774,10 +16126,18 @@
       <c r="F596" t="n">
         <v>100.0</v>
       </c>
-      <c r="G596"/>
-      <c r="H596"/>
-      <c r="I596"/>
-      <c r="J596"/>
+      <c r="G596" t="n">
+        <v>0.5980476099113947</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0.9299419901829541</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0.8441486411536329</v>
+      </c>
+      <c r="J596" t="n">
+        <v>0.15095913261050875</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="s">
@@ -13822,10 +16182,18 @@
       <c r="F598" t="n">
         <v>100.0</v>
       </c>
-      <c r="G598"/>
-      <c r="H598"/>
-      <c r="I598"/>
-      <c r="J598"/>
+      <c r="G598" t="n">
+        <v>0.5447853524717601</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0.8972716488730723</v>
+      </c>
+      <c r="I598" t="n">
+        <v>0.8446975299511906</v>
+      </c>
+      <c r="J598" t="n">
+        <v>0.23144059965088817</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="s">
@@ -13870,10 +16238,18 @@
       <c r="F600" t="n">
         <v>100.0</v>
       </c>
-      <c r="G600"/>
-      <c r="H600"/>
-      <c r="I600"/>
-      <c r="J600"/>
+      <c r="G600" t="n">
+        <v>0.5920144185820603</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0.9335247349823321</v>
+      </c>
+      <c r="I600" t="n">
+        <v>0.8232351306281267</v>
+      </c>
+      <c r="J600" t="n">
+        <v>0.20855317967231324</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="s">
@@ -13918,10 +16294,18 @@
       <c r="F602" t="n">
         <v>100.0</v>
       </c>
-      <c r="G602"/>
-      <c r="H602"/>
-      <c r="I602"/>
-      <c r="J602"/>
+      <c r="G602" t="n">
+        <v>0.5330383803178583</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0.8964634713820382</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0.8397217700162795</v>
+      </c>
+      <c r="J602" t="n">
+        <v>0.2742481781792056</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="s">
@@ -13966,10 +16350,18 @@
       <c r="F604" t="n">
         <v>100.0</v>
       </c>
-      <c r="G604"/>
-      <c r="H604"/>
-      <c r="I604"/>
-      <c r="J604"/>
+      <c r="G604" t="n">
+        <v>0.5872568035276554</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0.9308705984013826</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0.8486322188449849</v>
+      </c>
+      <c r="J604" t="n">
+        <v>0.2766977363515313</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="s">
@@ -14014,10 +16406,18 @@
       <c r="F606" t="n">
         <v>100.0</v>
       </c>
-      <c r="G606"/>
-      <c r="H606"/>
-      <c r="I606"/>
-      <c r="J606"/>
+      <c r="G606" t="n">
+        <v>0.5260326291316122</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0.9040247678018576</v>
+      </c>
+      <c r="I606" t="n">
+        <v>0.818629715165512</v>
+      </c>
+      <c r="J606" t="n">
+        <v>0.39930034982508744</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="s">
@@ -14062,10 +16462,18 @@
       <c r="F608" t="n">
         <v>100.0</v>
       </c>
-      <c r="G608"/>
-      <c r="H608"/>
-      <c r="I608"/>
-      <c r="J608"/>
+      <c r="G608" t="n">
+        <v>0.5841361267098472</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0.9406106231702217</v>
+      </c>
+      <c r="I608" t="n">
+        <v>0.8360655737704918</v>
+      </c>
+      <c r="J608" t="n">
+        <v>0.40523373983739835</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="s">
@@ -14110,10 +16518,18 @@
       <c r="F610" t="n">
         <v>100.0</v>
       </c>
-      <c r="G610"/>
-      <c r="H610"/>
-      <c r="I610"/>
-      <c r="J610"/>
+      <c r="G610" t="n">
+        <v>0.5831757556317385</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0.8909371447133344</v>
+      </c>
+      <c r="I610" t="n">
+        <v>0.8599852616064849</v>
+      </c>
+      <c r="J610" t="n">
+        <v>0.17848687596500257</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="s">
@@ -14158,10 +16574,18 @@
       <c r="F612" t="n">
         <v>100.0</v>
       </c>
-      <c r="G612"/>
-      <c r="H612"/>
-      <c r="I612"/>
-      <c r="J612"/>
+      <c r="G612" t="n">
+        <v>0.6067028570336792</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0.9299263557241687</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0.843680709534368</v>
+      </c>
+      <c r="J612" t="n">
+        <v>0.1507230255839822</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="s">
@@ -14206,10 +16630,18 @@
       <c r="F614" t="n">
         <v>100.0</v>
       </c>
-      <c r="G614"/>
-      <c r="H614"/>
-      <c r="I614"/>
-      <c r="J614"/>
+      <c r="G614" t="n">
+        <v>0.5770331246935104</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0.8971844353052831</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0.8447664104080426</v>
+      </c>
+      <c r="J614" t="n">
+        <v>0.23151191454396056</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
@@ -14254,10 +16686,18 @@
       <c r="F616" t="n">
         <v>100.0</v>
       </c>
-      <c r="G616"/>
-      <c r="H616"/>
-      <c r="I616"/>
-      <c r="J616"/>
+      <c r="G616" t="n">
+        <v>0.6005471180940953</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0.9332891539650983</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0.8232351306281267</v>
+      </c>
+      <c r="J616" t="n">
+        <v>0.20855317967231324</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
@@ -14302,10 +16742,18 @@
       <c r="F618" t="n">
         <v>100.0</v>
       </c>
-      <c r="G618"/>
-      <c r="H618"/>
-      <c r="I618"/>
-      <c r="J618"/>
+      <c r="G618" t="n">
+        <v>0.5662490729121852</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0.8963778794694796</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0.839792899408284</v>
+      </c>
+      <c r="J618" t="n">
+        <v>0.2743326488706366</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
@@ -14350,10 +16798,18 @@
       <c r="F620" t="n">
         <v>100.0</v>
       </c>
-      <c r="G620"/>
-      <c r="H620"/>
-      <c r="I620"/>
-      <c r="J620"/>
+      <c r="G620" t="n">
+        <v>0.5957478526837896</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0.9306395851339672</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0.8486322188449849</v>
+      </c>
+      <c r="J620" t="n">
+        <v>0.2766977363515313</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
@@ -14398,10 +16854,18 @@
       <c r="F622" t="n">
         <v>100.0</v>
       </c>
-      <c r="G622"/>
-      <c r="H622"/>
-      <c r="I622"/>
-      <c r="J622"/>
+      <c r="G622" t="n">
+        <v>0.5593251656257883</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0.9039439734611131</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0.8186855471756195</v>
+      </c>
+      <c r="J622" t="n">
+        <v>0.39938018594421676</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
@@ -14446,10 +16910,18 @@
       <c r="F624" t="n">
         <v>100.0</v>
       </c>
-      <c r="G624"/>
-      <c r="H624"/>
-      <c r="I624"/>
-      <c r="J624"/>
+      <c r="G624" t="n">
+        <v>0.5927474562459988</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0.9404015056461732</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0.8360655737704918</v>
+      </c>
+      <c r="J624" t="n">
+        <v>0.40523373983739835</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
@@ -14494,10 +16966,18 @@
       <c r="F626" t="n">
         <v>100.0</v>
       </c>
-      <c r="G626"/>
-      <c r="H626"/>
-      <c r="I626"/>
-      <c r="J626"/>
+      <c r="G626" t="n">
+        <v>0.6836820777041055</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0.8904866357949468</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0.8601059135039718</v>
+      </c>
+      <c r="J626" t="n">
+        <v>0.17862296433725006</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="s">
@@ -14542,10 +17022,18 @@
       <c r="F628" t="n">
         <v>100.0</v>
       </c>
-      <c r="G628"/>
-      <c r="H628"/>
-      <c r="I628"/>
-      <c r="J628"/>
+      <c r="G628" t="n">
+        <v>0.6534618779684787</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0.9292094685127289</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0.8441127694859039</v>
+      </c>
+      <c r="J628" t="n">
+        <v>0.15093288777499303</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="s">
@@ -14590,10 +17078,18 @@
       <c r="F630" t="n">
         <v>100.0</v>
       </c>
-      <c r="G630"/>
-      <c r="H630"/>
-      <c r="I630"/>
-      <c r="J630"/>
+      <c r="G630" t="n">
+        <v>0.6790611676245533</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0.8968272806392911</v>
+      </c>
+      <c r="I630" t="n">
+        <v>0.8449955713020372</v>
+      </c>
+      <c r="J630" t="n">
+        <v>0.2317499485914045</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="s">
@@ -14638,10 +17134,18 @@
       <c r="F632" t="n">
         <v>100.0</v>
       </c>
-      <c r="G632"/>
-      <c r="H632"/>
-      <c r="I632"/>
-      <c r="J632"/>
+      <c r="G632" t="n">
+        <v>0.6477918890928279</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0.9325668803891223</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0.8236272878535774</v>
+      </c>
+      <c r="J632" t="n">
+        <v>0.20878509869335557</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
@@ -14686,10 +17190,18 @@
       <c r="F634" t="n">
         <v>100.0</v>
       </c>
-      <c r="G634"/>
-      <c r="H634"/>
-      <c r="I634"/>
-      <c r="J634"/>
+      <c r="G634" t="n">
+        <v>0.6707758459733565</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0.8960273122284296</v>
+      </c>
+      <c r="I634" t="n">
+        <v>0.8400295420974889</v>
+      </c>
+      <c r="J634" t="n">
+        <v>0.27461459403905447</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="s">
@@ -14734,10 +17246,18 @@
       <c r="F636" t="n">
         <v>100.0</v>
       </c>
-      <c r="G636"/>
-      <c r="H636"/>
-      <c r="I636"/>
-      <c r="J636"/>
+      <c r="G636" t="n">
+        <v>0.6432204516934112</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0.9299307958477508</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0.8489993935718617</v>
+      </c>
+      <c r="J636" t="n">
+        <v>0.27699280191948816</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="s">
@@ -14782,10 +17302,18 @@
       <c r="F638" t="n">
         <v>100.0</v>
       </c>
-      <c r="G638"/>
-      <c r="H638"/>
-      <c r="I638"/>
-      <c r="J638"/>
+      <c r="G638" t="n">
+        <v>0.6659654825483524</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0.9036135693215339</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0.8189920098340504</v>
+      </c>
+      <c r="J638" t="n">
+        <v>0.39981985588470775</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
@@ -14830,10 +17358,18 @@
       <c r="F640" t="n">
         <v>100.0</v>
       </c>
-      <c r="G640"/>
-      <c r="H640"/>
-      <c r="I640"/>
-      <c r="J640"/>
+      <c r="G640" t="n">
+        <v>0.6399948291136172</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0.9395144411887819</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0.8365122615803815</v>
+      </c>
+      <c r="J640" t="n">
+        <v>0.405645981688708</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
@@ -14878,10 +17414,18 @@
       <c r="F642" t="n">
         <v>100.0</v>
       </c>
-      <c r="G642"/>
-      <c r="H642"/>
-      <c r="I642"/>
-      <c r="J642"/>
+      <c r="G642" t="n">
+        <v>0.644345446046621</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0.8643465244644026</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0.86301531213192</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0.1898876404494382</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
@@ -14926,10 +17470,18 @@
       <c r="F644" t="n">
         <v>100.0</v>
       </c>
-      <c r="G644"/>
-      <c r="H644"/>
-      <c r="I644"/>
-      <c r="J644"/>
+      <c r="G644" t="n">
+        <v>0.6525514386073135</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0.9299435028248587</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0.8480083857442348</v>
+      </c>
+      <c r="J644" t="n">
+        <v>0.15292096219931273</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="s">
@@ -14974,10 +17526,18 @@
       <c r="F646" t="n">
         <v>100.0</v>
       </c>
-      <c r="G646"/>
-      <c r="H646"/>
-      <c r="I646"/>
-      <c r="J646"/>
+      <c r="G646" t="n">
+        <v>0.6335424030141826</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0.8593664664117968</v>
+      </c>
+      <c r="I646" t="n">
+        <v>0.8501413760603205</v>
+      </c>
+      <c r="J646" t="n">
+        <v>0.25361957064403395</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
@@ -15022,10 +17582,18 @@
       <c r="F648" t="n">
         <v>100.0</v>
       </c>
-      <c r="G648"/>
-      <c r="H648"/>
-      <c r="I648"/>
-      <c r="J648"/>
+      <c r="G648" t="n">
+        <v>0.64865156975497</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0.9292452830188679</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0.8267590618336887</v>
+      </c>
+      <c r="J648" t="n">
+        <v>0.21112372304199772</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="s">
@@ -15070,10 +17638,18 @@
       <c r="F650" t="n">
         <v>100.0</v>
       </c>
-      <c r="G650"/>
-      <c r="H650"/>
-      <c r="I650"/>
-      <c r="J650"/>
+      <c r="G650" t="n">
+        <v>0.6245734362330676</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0.860386730530424</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0.8397100760456274</v>
+      </c>
+      <c r="J650" t="n">
+        <v>0.297624938149431</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="s">
@@ -15118,10 +17694,18 @@
       <c r="F652" t="n">
         <v>100.0</v>
       </c>
-      <c r="G652"/>
-      <c r="H652"/>
-      <c r="I652"/>
-      <c r="J652"/>
+      <c r="G652" t="n">
+        <v>0.6453404783244912</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0.9266400709219859</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0.8495934959349594</v>
+      </c>
+      <c r="J652" t="n">
+        <v>0.2797716150081566</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="s">
@@ -15166,10 +17750,18 @@
       <c r="F654" t="n">
         <v>100.0</v>
       </c>
-      <c r="G654"/>
-      <c r="H654"/>
-      <c r="I654"/>
-      <c r="J654"/>
+      <c r="G654" t="n">
+        <v>0.6096898483945735</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0.862813134732566</v>
+      </c>
+      <c r="I654" t="n">
+        <v>0.8082951531227394</v>
+      </c>
+      <c r="J654" t="n">
+        <v>0.4366317328783817</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="s">
@@ -15214,10 +17806,18 @@
       <c r="F656" t="n">
         <v>100.0</v>
       </c>
-      <c r="G656"/>
-      <c r="H656"/>
-      <c r="I656"/>
-      <c r="J656"/>
+      <c r="G656" t="n">
+        <v>0.6358042076813633</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0.9323357189329864</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0.8212791392707711</v>
+      </c>
+      <c r="J656" t="n">
+        <v>0.4121277166621948</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="s">
@@ -15262,10 +17862,18 @@
       <c r="F658" t="n">
         <v>100.0</v>
       </c>
-      <c r="G658"/>
-      <c r="H658"/>
-      <c r="I658"/>
-      <c r="J658"/>
+      <c r="G658" t="n">
+        <v>0.6587028862117535</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0.8643465244644026</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0.86301531213192</v>
+      </c>
+      <c r="J658" t="n">
+        <v>0.1898876404494382</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="s">
@@ -15310,10 +17918,18 @@
       <c r="F660" t="n">
         <v>100.0</v>
       </c>
-      <c r="G660"/>
-      <c r="H660"/>
-      <c r="I660"/>
-      <c r="J660"/>
+      <c r="G660" t="n">
+        <v>0.6584586741228352</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0.9299435028248587</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0.8480880041906758</v>
+      </c>
+      <c r="J660" t="n">
+        <v>0.15296476654253796</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="s">
@@ -15358,10 +17974,18 @@
       <c r="F662" t="n">
         <v>100.0</v>
       </c>
-      <c r="G662"/>
-      <c r="H662"/>
-      <c r="I662"/>
-      <c r="J662"/>
+      <c r="G662" t="n">
+        <v>0.6481251855530954</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0.8593664664117968</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0.8501413760603205</v>
+      </c>
+      <c r="J662" t="n">
+        <v>0.25361957064403395</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="s">
@@ -15406,10 +18030,18 @@
       <c r="F664" t="n">
         <v>100.0</v>
       </c>
-      <c r="G664"/>
-      <c r="H664"/>
-      <c r="I664"/>
-      <c r="J664"/>
+      <c r="G664" t="n">
+        <v>0.6544806581792103</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0.9292452830188679</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0.8267590618336887</v>
+      </c>
+      <c r="J664" t="n">
+        <v>0.21112372304199772</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="s">
@@ -15454,10 +18086,18 @@
       <c r="F666" t="n">
         <v>100.0</v>
       </c>
-      <c r="G666"/>
-      <c r="H666"/>
-      <c r="I666"/>
-      <c r="J666"/>
+      <c r="G666" t="n">
+        <v>0.6394986269654076</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0.860386730530424</v>
+      </c>
+      <c r="I666" t="n">
+        <v>0.8397100760456274</v>
+      </c>
+      <c r="J666" t="n">
+        <v>0.297624938149431</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="s">
@@ -15502,10 +18142,18 @@
       <c r="F668" t="n">
         <v>100.0</v>
       </c>
-      <c r="G668"/>
-      <c r="H668"/>
-      <c r="I668"/>
-      <c r="J668"/>
+      <c r="G668" t="n">
+        <v>0.6511903435119294</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0.9266400709219859</v>
+      </c>
+      <c r="I668" t="n">
+        <v>0.8495934959349594</v>
+      </c>
+      <c r="J668" t="n">
+        <v>0.2797716150081566</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="s">
@@ -15550,10 +18198,18 @@
       <c r="F670" t="n">
         <v>100.0</v>
       </c>
-      <c r="G670"/>
-      <c r="H670"/>
-      <c r="I670"/>
-      <c r="J670"/>
+      <c r="G670" t="n">
+        <v>0.6256409694077287</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0.862813134732566</v>
+      </c>
+      <c r="I670" t="n">
+        <v>0.8082951531227394</v>
+      </c>
+      <c r="J670" t="n">
+        <v>0.4366317328783817</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="s">
@@ -15598,10 +18254,18 @@
       <c r="F672" t="n">
         <v>100.0</v>
       </c>
-      <c r="G672"/>
-      <c r="H672"/>
-      <c r="I672"/>
-      <c r="J672"/>
+      <c r="G672" t="n">
+        <v>0.6416810391838705</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0.9323357189329864</v>
+      </c>
+      <c r="I672" t="n">
+        <v>0.8212791392707711</v>
+      </c>
+      <c r="J672" t="n">
+        <v>0.4121277166621948</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="s">
@@ -15646,10 +18310,18 @@
       <c r="F674" t="n">
         <v>100.0</v>
       </c>
-      <c r="G674"/>
-      <c r="H674"/>
-      <c r="I674"/>
-      <c r="J674"/>
+      <c r="G674" t="n">
+        <v>0.6778005818999611</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0.8643465244644026</v>
+      </c>
+      <c r="I674" t="n">
+        <v>0.86301531213192</v>
+      </c>
+      <c r="J674" t="n">
+        <v>0.1898876404494382</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
@@ -15694,10 +18366,18 @@
       <c r="F676" t="n">
         <v>100.0</v>
       </c>
-      <c r="G676"/>
-      <c r="H676"/>
-      <c r="I676"/>
-      <c r="J676"/>
+      <c r="G676" t="n">
+        <v>0.663626938809327</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0.9299276672694394</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0.8476439790575916</v>
+      </c>
+      <c r="J676" t="n">
+        <v>0.15272206303724928</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="s">
@@ -15742,10 +18422,18 @@
       <c r="F678" t="n">
         <v>100.0</v>
       </c>
-      <c r="G678"/>
-      <c r="H678"/>
-      <c r="I678"/>
-      <c r="J678"/>
+      <c r="G678" t="n">
+        <v>0.6678514844776707</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0.8593664664117968</v>
+      </c>
+      <c r="I678" t="n">
+        <v>0.8501413760603205</v>
+      </c>
+      <c r="J678" t="n">
+        <v>0.25361957064403395</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
@@ -15790,10 +18478,18 @@
       <c r="F680" t="n">
         <v>100.0</v>
       </c>
-      <c r="G680"/>
-      <c r="H680"/>
-      <c r="I680"/>
-      <c r="J680"/>
+      <c r="G680" t="n">
+        <v>0.6595792943599028</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0.9292293866546844</v>
+      </c>
+      <c r="I680" t="n">
+        <v>0.8267590618336887</v>
+      </c>
+      <c r="J680" t="n">
+        <v>0.21112372304199772</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="s">
@@ -15838,10 +18534,18 @@
       <c r="F682" t="n">
         <v>100.0</v>
       </c>
-      <c r="G682"/>
-      <c r="H682"/>
-      <c r="I682"/>
-      <c r="J682"/>
+      <c r="G682" t="n">
+        <v>0.6596126379490214</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0.860386730530424</v>
+      </c>
+      <c r="I682" t="n">
+        <v>0.8397100760456274</v>
+      </c>
+      <c r="J682" t="n">
+        <v>0.297624938149431</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="s">
@@ -15886,10 +18590,18 @@
       <c r="F684" t="n">
         <v>100.0</v>
       </c>
-      <c r="G684"/>
-      <c r="H684"/>
-      <c r="I684"/>
-      <c r="J684"/>
+      <c r="G684" t="n">
+        <v>0.6561952951572205</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0.9266238084681889</v>
+      </c>
+      <c r="I684" t="n">
+        <v>0.8495934959349594</v>
+      </c>
+      <c r="J684" t="n">
+        <v>0.2797716150081566</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="s">
@@ -15934,10 +18646,18 @@
       <c r="F686" t="n">
         <v>100.0</v>
       </c>
-      <c r="G686"/>
-      <c r="H686"/>
-      <c r="I686"/>
-      <c r="J686"/>
+      <c r="G686" t="n">
+        <v>0.6465400742729474</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0.862813134732566</v>
+      </c>
+      <c r="I686" t="n">
+        <v>0.8082951531227394</v>
+      </c>
+      <c r="J686" t="n">
+        <v>0.4366317328783817</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="s">
@@ -15982,10 +18702,18 @@
       <c r="F688" t="n">
         <v>100.0</v>
       </c>
-      <c r="G688"/>
-      <c r="H688"/>
-      <c r="I688"/>
-      <c r="J688"/>
+      <c r="G688" t="n">
+        <v>0.646876751225587</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0.9323357189329864</v>
+      </c>
+      <c r="I688" t="n">
+        <v>0.8212791392707711</v>
+      </c>
+      <c r="J688" t="n">
+        <v>0.4121277166621948</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="s">
@@ -16030,10 +18758,18 @@
       <c r="F690" t="n">
         <v>100.0</v>
       </c>
-      <c r="G690"/>
-      <c r="H690"/>
-      <c r="I690"/>
-      <c r="J690"/>
+      <c r="G690" t="n">
+        <v>0.7489411796459449</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0.8640022463496818</v>
+      </c>
+      <c r="I690" t="n">
+        <v>0.8631925655805199</v>
+      </c>
+      <c r="J690" t="n">
+        <v>0.19014876859607452</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" t="s">
@@ -16078,10 +18814,18 @@
       <c r="F692" t="n">
         <v>100.0</v>
       </c>
-      <c r="G692"/>
-      <c r="H692"/>
-      <c r="I692"/>
-      <c r="J692"/>
+      <c r="G692" t="n">
+        <v>0.696729995254507</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0.9289592760180996</v>
+      </c>
+      <c r="I692" t="n">
+        <v>0.8478829064296916</v>
+      </c>
+      <c r="J692" t="n">
+        <v>0.15285345569257242</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="s">
@@ -16126,10 +18870,18 @@
       <c r="F694" t="n">
         <v>100.0</v>
       </c>
-      <c r="G694"/>
-      <c r="H694"/>
-      <c r="I694"/>
-      <c r="J694"/>
+      <c r="G694" t="n">
+        <v>0.7413060011951527</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0.8590420688399198</v>
+      </c>
+      <c r="I694" t="n">
+        <v>0.8503001059197364</v>
+      </c>
+      <c r="J694" t="n">
+        <v>0.2539047857053605</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="s">
@@ -16174,10 +18926,18 @@
       <c r="F696" t="n">
         <v>100.0</v>
       </c>
-      <c r="G696"/>
-      <c r="H696"/>
-      <c r="I696"/>
-      <c r="J696"/>
+      <c r="G696" t="n">
+        <v>0.6929773987598429</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0.9282662469080278</v>
+      </c>
+      <c r="I696" t="n">
+        <v>0.8269435569755058</v>
+      </c>
+      <c r="J696" t="n">
+        <v>0.21124361158432708</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="s">
@@ -16222,10 +18982,18 @@
       <c r="F698" t="n">
         <v>100.0</v>
       </c>
-      <c r="G698"/>
-      <c r="H698"/>
-      <c r="I698"/>
-      <c r="J698"/>
+      <c r="G698" t="n">
+        <v>0.7350498713029795</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0.8601597160603371</v>
+      </c>
+      <c r="I698" t="n">
+        <v>0.8398813056379822</v>
+      </c>
+      <c r="J698" t="n">
+        <v>0.2979566563467492</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="s">
@@ -16270,10 +19038,18 @@
       <c r="F700" t="n">
         <v>100.0</v>
       </c>
-      <c r="G700"/>
-      <c r="H700"/>
-      <c r="I700"/>
-      <c r="J700"/>
+      <c r="G700" t="n">
+        <v>0.6900082207716878</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0.9256711781672953</v>
+      </c>
+      <c r="I700" t="n">
+        <v>0.8497679814385151</v>
+      </c>
+      <c r="J700" t="n">
+        <v>0.279923830250272</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="s">
@@ -16318,10 +19094,18 @@
       <c r="F702" t="n">
         <v>100.0</v>
       </c>
-      <c r="G702"/>
-      <c r="H702"/>
-      <c r="I702"/>
-      <c r="J702"/>
+      <c r="G702" t="n">
+        <v>0.7246502308187244</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0.8626089900956573</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0.8085029507406961</v>
+      </c>
+      <c r="J702" t="n">
+        <v>0.4371111382213005</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="s">
@@ -16366,10 +19150,18 @@
       <c r="F704" t="n">
         <v>100.0</v>
       </c>
-      <c r="G704"/>
-      <c r="H704"/>
-      <c r="I704"/>
-      <c r="J704"/>
+      <c r="G704" t="n">
+        <v>0.6813436729565088</v>
+      </c>
+      <c r="H704" t="n">
+        <v>0.9314087258519644</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.8214925373134329</v>
+      </c>
+      <c r="J704" t="n">
+        <v>0.4123489932885906</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="s">
@@ -16412,10 +19204,18 @@
       <c r="F706" t="n">
         <v>100.0</v>
       </c>
-      <c r="G706"/>
-      <c r="H706"/>
-      <c r="I706"/>
-      <c r="J706"/>
+      <c r="G706" t="n">
+        <v>0.40469823744736444</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0.9547910327268211</v>
+      </c>
+      <c r="I706" t="n">
+        <v>0.3411764705882353</v>
+      </c>
+      <c r="J706" t="n">
+        <v>0.667115737905695</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="s">
@@ -16456,10 +19256,18 @@
       <c r="F708" t="n">
         <v>100.0</v>
       </c>
-      <c r="G708"/>
-      <c r="H708"/>
-      <c r="I708"/>
-      <c r="J708"/>
+      <c r="G708" t="n">
+        <v>0.23376534472228433</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0.9491885625965997</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="J708" t="n">
+        <v>0.8591682419659735</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" t="s">
@@ -16500,10 +19308,18 @@
       <c r="F710" t="n">
         <v>100.0</v>
       </c>
-      <c r="G710"/>
-      <c r="H710"/>
-      <c r="I710"/>
-      <c r="J710"/>
+      <c r="G710" t="n">
+        <v>0.41084025213624403</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0.9552845528455285</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.08235294117647059</v>
+      </c>
+      <c r="J710" t="n">
+        <v>0.6996325780771586</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="s">
@@ -16544,10 +19360,18 @@
       <c r="F712" t="n">
         <v>100.0</v>
       </c>
-      <c r="G712"/>
-      <c r="H712"/>
-      <c r="I712"/>
-      <c r="J712"/>
+      <c r="G712" t="n">
+        <v>0.23634703720864333</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0.9489268680445151</v>
+      </c>
+      <c r="I712" t="n">
+        <v>0.02727272727272727</v>
+      </c>
+      <c r="J712" t="n">
+        <v>0.8718336483931947</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="s">
@@ -16588,10 +19412,18 @@
       <c r="F714" t="n">
         <v>100.0</v>
       </c>
-      <c r="G714"/>
-      <c r="H714"/>
-      <c r="I714"/>
-      <c r="J714"/>
+      <c r="G714" t="n">
+        <v>0.41369954220393307</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0.9551104527597089</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0.08235294117647059</v>
+      </c>
+      <c r="J714" t="n">
+        <v>0.7245560318432334</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="s">
@@ -16632,10 +19464,18 @@
       <c r="F716" t="n">
         <v>100.0</v>
       </c>
-      <c r="G716"/>
-      <c r="H716"/>
-      <c r="I716"/>
-      <c r="J716"/>
+      <c r="G716" t="n">
+        <v>0.238266638895892</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0.949653485527925</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="J716" t="n">
+        <v>0.875992438563327</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="s">
@@ -16676,10 +19516,18 @@
       <c r="F718" t="n">
         <v>100.0</v>
       </c>
-      <c r="G718"/>
-      <c r="H718"/>
-      <c r="I718"/>
-      <c r="J718"/>
+      <c r="G718" t="n">
+        <v>0.41162994618042675</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0.9572972269235777</v>
+      </c>
+      <c r="I718" t="n">
+        <v>0.03550295857988166</v>
+      </c>
+      <c r="J718" t="n">
+        <v>0.7707427591696773</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="s">
@@ -16720,10 +19568,18 @@
       <c r="F720" t="n">
         <v>100.0</v>
       </c>
-      <c r="G720"/>
-      <c r="H720"/>
-      <c r="I720"/>
-      <c r="J720"/>
+      <c r="G720" t="n">
+        <v>0.23278973233853667</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0.9512799339388934</v>
+      </c>
+      <c r="I720" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J720" t="n">
+        <v>0.8890778533635676</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="s">
@@ -16764,10 +19620,18 @@
       <c r="F722" t="n">
         <v>100.0</v>
       </c>
-      <c r="G722"/>
-      <c r="H722"/>
-      <c r="I722"/>
-      <c r="J722"/>
+      <c r="G722" t="n">
+        <v>0.44438982700844004</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0.94325134223998</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0.35260115606936415</v>
+      </c>
+      <c r="J722" t="n">
+        <v>0.6672383168983892</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="s">
@@ -16808,10 +19672,18 @@
       <c r="F724" t="n">
         <v>100.0</v>
       </c>
-      <c r="G724"/>
-      <c r="H724"/>
-      <c r="I724"/>
-      <c r="J724"/>
+      <c r="G724" t="n">
+        <v>0.28547758137319673</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0.9388986184082506</v>
+      </c>
+      <c r="I724" t="n">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="J724" t="n">
+        <v>0.8593306863301191</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="s">
@@ -16852,10 +19724,18 @@
       <c r="F726" t="n">
         <v>100.0</v>
       </c>
-      <c r="G726"/>
-      <c r="H726"/>
-      <c r="I726"/>
-      <c r="J726"/>
+      <c r="G726" t="n">
+        <v>0.45113930408037545</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0.9431999489437743</v>
+      </c>
+      <c r="I726" t="n">
+        <v>0.09826589595375723</v>
+      </c>
+      <c r="J726" t="n">
+        <v>0.6997611318674588</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="s">
@@ -16896,10 +19776,18 @@
       <c r="F728" t="n">
         <v>100.0</v>
       </c>
-      <c r="G728"/>
-      <c r="H728"/>
-      <c r="I728"/>
-      <c r="J728"/>
+      <c r="G728" t="n">
+        <v>0.2900402834924588</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0.9376</v>
+      </c>
+      <c r="I728" t="n">
+        <v>0.02727272727272727</v>
+      </c>
+      <c r="J728" t="n">
+        <v>0.8718336483931947</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="s">
@@ -16940,10 +19828,18 @@
       <c r="F730" t="n">
         <v>100.0</v>
       </c>
-      <c r="G730"/>
-      <c r="H730"/>
-      <c r="I730"/>
-      <c r="J730"/>
+      <c r="G730" t="n">
+        <v>0.4539053709799134</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0.9438303923469717</v>
+      </c>
+      <c r="I730" t="n">
+        <v>0.09826589595375723</v>
+      </c>
+      <c r="J730" t="n">
+        <v>0.7246891651865008</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="s">
@@ -16984,10 +19880,18 @@
       <c r="F732" t="n">
         <v>100.0</v>
       </c>
-      <c r="G732"/>
-      <c r="H732"/>
-      <c r="I732"/>
-      <c r="J732"/>
+      <c r="G732" t="n">
+        <v>0.29319560186865323</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0.9367192299815688</v>
+      </c>
+      <c r="I732" t="n">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="J732" t="n">
+        <v>0.875992438563327</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" t="s">
@@ -17028,10 +19932,18 @@
       <c r="F734" t="n">
         <v>100.0</v>
       </c>
-      <c r="G734"/>
-      <c r="H734"/>
-      <c r="I734"/>
-      <c r="J734"/>
+      <c r="G734" t="n">
+        <v>0.4506659402748018</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0.946182483182026</v>
+      </c>
+      <c r="I734" t="n">
+        <v>0.046511627906976744</v>
+      </c>
+      <c r="J734" t="n">
+        <v>0.7708231259186673</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" t="s">
@@ -17072,10 +19984,18 @@
       <c r="F736" t="n">
         <v>100.0</v>
       </c>
-      <c r="G736"/>
-      <c r="H736"/>
-      <c r="I736"/>
-      <c r="J736"/>
+      <c r="G736" t="n">
+        <v>0.28688748160349087</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0.9383405752120836</v>
+      </c>
+      <c r="I736" t="n">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="J736" t="n">
+        <v>0.889413988657845</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" t="s">
@@ -17116,10 +20036,18 @@
       <c r="F738" t="n">
         <v>100.0</v>
       </c>
-      <c r="G738"/>
-      <c r="H738"/>
-      <c r="I738"/>
-      <c r="J738"/>
+      <c r="G738" t="n">
+        <v>0.48796146759368186</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0.9299873737373737</v>
+      </c>
+      <c r="I738" t="n">
+        <v>0.3756906077348066</v>
+      </c>
+      <c r="J738" t="n">
+        <v>0.6675041362828604</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" t="s">
@@ -17160,10 +20088,18 @@
       <c r="F740" t="n">
         <v>100.0</v>
       </c>
-      <c r="G740"/>
-      <c r="H740"/>
-      <c r="I740"/>
-      <c r="J740"/>
+      <c r="G740" t="n">
+        <v>0.34522306229342353</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0.9208153665229322</v>
+      </c>
+      <c r="I740" t="n">
+        <v>0.07964601769911504</v>
+      </c>
+      <c r="J740" t="n">
+        <v>0.8592774730470967</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" t="s">
@@ -17204,10 +20140,18 @@
       <c r="F742" t="n">
         <v>100.0</v>
       </c>
-      <c r="G742"/>
-      <c r="H742"/>
-      <c r="I742"/>
-      <c r="J742"/>
+      <c r="G742" t="n">
+        <v>0.495801722338252</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0.9298064516129032</v>
+      </c>
+      <c r="I742" t="n">
+        <v>0.13259668508287292</v>
+      </c>
+      <c r="J742" t="n">
+        <v>0.7000428947852196</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
@@ -17248,10 +20192,18 @@
       <c r="F744" t="n">
         <v>100.0</v>
       </c>
-      <c r="G744"/>
-      <c r="H744"/>
-      <c r="I744"/>
-      <c r="J744"/>
+      <c r="G744" t="n">
+        <v>0.3494721396309282</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0.9212218649517685</v>
+      </c>
+      <c r="I744" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="J744" t="n">
+        <v>0.8719742813918305</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" t="s">
@@ -17292,10 +20244,18 @@
       <c r="F746" t="n">
         <v>100.0</v>
       </c>
-      <c r="G746"/>
-      <c r="H746"/>
-      <c r="I746"/>
-      <c r="J746"/>
+      <c r="G746" t="n">
+        <v>0.498816638608287</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0.9306969459671104</v>
+      </c>
+      <c r="I746" t="n">
+        <v>0.13259668508287292</v>
+      </c>
+      <c r="J746" t="n">
+        <v>0.7249831484772351</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" t="s">
@@ -17336,10 +20296,18 @@
       <c r="F748" t="n">
         <v>100.0</v>
       </c>
-      <c r="G748"/>
-      <c r="H748"/>
-      <c r="I748"/>
-      <c r="J748"/>
+      <c r="G748" t="n">
+        <v>0.35293295406228015</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0.9228712464006582</v>
+      </c>
+      <c r="I748" t="n">
+        <v>0.026785714285714284</v>
+      </c>
+      <c r="J748" t="n">
+        <v>0.8761346444780636</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" t="s">
@@ -17380,10 +20348,18 @@
       <c r="F750" t="n">
         <v>100.0</v>
       </c>
-      <c r="G750"/>
-      <c r="H750"/>
-      <c r="I750"/>
-      <c r="J750"/>
+      <c r="G750" t="n">
+        <v>0.4962924889932667</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0.9320005261081152</v>
+      </c>
+      <c r="I750" t="n">
+        <v>0.07865168539325842</v>
+      </c>
+      <c r="J750" t="n">
+        <v>0.7711064820487685</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" t="s">
@@ -17424,10 +20400,18 @@
       <c r="F752" t="n">
         <v>100.0</v>
       </c>
-      <c r="G752"/>
-      <c r="H752"/>
-      <c r="I752"/>
-      <c r="J752"/>
+      <c r="G752" t="n">
+        <v>0.34908454729127397</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0.9244379683597003</v>
+      </c>
+      <c r="I752" t="n">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="J752" t="n">
+        <v>0.8895821516354698</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" t="s">
@@ -17468,10 +20452,18 @@
       <c r="F754" t="n">
         <v>100.0</v>
       </c>
-      <c r="G754"/>
-      <c r="H754"/>
-      <c r="I754"/>
-      <c r="J754"/>
+      <c r="G754" t="n">
+        <v>0.6249317685531015</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0.870056128442762</v>
+      </c>
+      <c r="I754" t="n">
+        <v>0.6926229508196722</v>
+      </c>
+      <c r="J754" t="n">
+        <v>0.6779915063702223</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" t="s">
@@ -17512,10 +20504,18 @@
       <c r="F756" t="n">
         <v>100.0</v>
       </c>
-      <c r="G756"/>
-      <c r="H756"/>
-      <c r="I756"/>
-      <c r="J756"/>
+      <c r="G756" t="n">
+        <v>0.5318133642323951</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0.8622983870967742</v>
+      </c>
+      <c r="I756" t="n">
+        <v>0.174496644295302</v>
+      </c>
+      <c r="J756" t="n">
+        <v>0.8615501809179203</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" t="s">
@@ -17556,10 +20556,18 @@
       <c r="F758" t="n">
         <v>100.0</v>
       </c>
-      <c r="G758"/>
-      <c r="H758"/>
-      <c r="I758"/>
-      <c r="J758"/>
+      <c r="G758" t="n">
+        <v>0.6368575653707651</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0.870115172092404</v>
+      </c>
+      <c r="I758" t="n">
+        <v>0.6024590163934426</v>
+      </c>
+      <c r="J758" t="n">
+        <v>0.7111541343992006</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" t="s">
@@ -17600,10 +20608,18 @@
       <c r="F760" t="n">
         <v>100.0</v>
       </c>
-      <c r="G760"/>
-      <c r="H760"/>
-      <c r="I760"/>
-      <c r="J760"/>
+      <c r="G760" t="n">
+        <v>0.5383740622055121</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0.863103802672148</v>
+      </c>
+      <c r="I760" t="n">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J760" t="n">
+        <v>0.874357509994289</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
@@ -17644,10 +20660,18 @@
       <c r="F762" t="n">
         <v>100.0</v>
       </c>
-      <c r="G762"/>
-      <c r="H762"/>
-      <c r="I762"/>
-      <c r="J762"/>
+      <c r="G762" t="n">
+        <v>0.6396417819629356</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0.8714506276431496</v>
+      </c>
+      <c r="I762" t="n">
+        <v>0.6024590163934426</v>
+      </c>
+      <c r="J762" t="n">
+        <v>0.7365725705720709</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
@@ -17688,10 +20712,18 @@
       <c r="F764" t="n">
         <v>100.0</v>
       </c>
-      <c r="G764"/>
-      <c r="H764"/>
-      <c r="I764"/>
-      <c r="J764"/>
+      <c r="G764" t="n">
+        <v>0.5407779235835707</v>
+      </c>
+      <c r="H764" t="n">
+        <v>0.863210493441599</v>
+      </c>
+      <c r="I764" t="n">
+        <v>0.1360544217687075</v>
+      </c>
+      <c r="J764" t="n">
+        <v>0.8785455929944793</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
@@ -17732,10 +20764,18 @@
       <c r="F766" t="n">
         <v>100.0</v>
       </c>
-      <c r="G766"/>
-      <c r="H766"/>
-      <c r="I766"/>
-      <c r="J766"/>
+      <c r="G766" t="n">
+        <v>0.6377805483351975</v>
+      </c>
+      <c r="H766" t="n">
+        <v>0.8756067961165048</v>
+      </c>
+      <c r="I766" t="n">
+        <v>0.580168776371308</v>
+      </c>
+      <c r="J766" t="n">
+        <v>0.7831648571072009</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="s">
@@ -17776,10 +20816,18 @@
       <c r="F768" t="n">
         <v>100.0</v>
       </c>
-      <c r="G768"/>
-      <c r="H768"/>
-      <c r="I768"/>
-      <c r="J768"/>
+      <c r="G768" t="n">
+        <v>0.5369898210398314</v>
+      </c>
+      <c r="H768" t="n">
+        <v>0.8693372483221476</v>
+      </c>
+      <c r="I768" t="n">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J768" t="n">
+        <v>0.8922053231939163</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" t="s">
